--- a/House Prices- Advanced Regression Techniques/ML/GridSearchResultsFromKaggle.xlsx
+++ b/House Prices- Advanced Regression Techniques/ML/GridSearchResultsFromKaggle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\padmaraj.bhat\OneDrive - Accenture\Git\GitHub\Kaggle Competetion\House Prices- Advance Regression Techniques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{28AE9D32-2AF0-4746-82C0-CBEB28B468D8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="10_ncr:100000_{28F5228C-9FC8-4E39-B27D-CA503DA6A540}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{CF2295A3-E729-4940-91C5-44A66679CF8F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4110" firstSheet="3" activeTab="5" xr2:uid="{E502ACE3-46F0-4C50-944D-DCCB88A6A330}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4110" firstSheet="6" activeTab="9" xr2:uid="{E502ACE3-46F0-4C50-944D-DCCB88A6A330}"/>
   </bookViews>
   <sheets>
     <sheet name="Without estimator" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,17 @@
     <sheet name="with estimator" sheetId="3" r:id="rId3"/>
     <sheet name="transformed rmsle - target" sheetId="6" r:id="rId4"/>
     <sheet name="best score with estimator" sheetId="4" r:id="rId5"/>
-    <sheet name="Comparison of best scores" sheetId="5" r:id="rId6"/>
+    <sheet name="alpha_.5_lambda_.5" sheetId="8" r:id="rId6"/>
     <sheet name="alpha_.5" sheetId="7" r:id="rId7"/>
+    <sheet name="minmaxagain" sheetId="9" r:id="rId8"/>
+    <sheet name="alphalambdaminmax" sheetId="10" r:id="rId9"/>
+    <sheet name="Comparison of best scores" sheetId="5" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">alpha_.5!$D$3:$J$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">alpha_.5_lambda_.5!$E$4:$K$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">alphalambdaminmax!$D$4:$J$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">minmaxagain!$E$5:$K$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'transformed rmsle - target'!$C$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'with estimator'!$D$2:$J$1282</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Without estimator'!$C$3:$J$899</definedName>
@@ -37,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="19">
   <si>
     <t>validation_score</t>
   </si>
@@ -77,18 +83,42 @@
   <si>
     <t>:</t>
   </si>
+  <si>
+    <t>alpha lambda</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>minmaxagain</t>
+  </si>
+  <si>
+    <t>alphalambdaminmax</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,10 +141,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -23776,6 +23809,737 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE418E7-1197-4C14-B4E7-FDD6E039CCEC}">
+  <dimension ref="B5:K47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <v>4.1513115077090896E-3</v>
+      </c>
+      <c r="E6">
+        <v>1.10102076507537E-2</v>
+      </c>
+      <c r="F6">
+        <v>1.1062559951981301E-2</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D9">
+        <v>5.5869024557711599E-3</v>
+      </c>
+      <c r="E9">
+        <v>1.0725680696636101E-2</v>
+      </c>
+      <c r="F9">
+        <v>1.3325068536818301E-2</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>0.5</v>
+      </c>
+      <c r="J9">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D13">
+        <v>4.1513115077090896E-3</v>
+      </c>
+      <c r="E13">
+        <v>1.10102076507537E-2</v>
+      </c>
+      <c r="F13">
+        <v>1.1062559951981301E-2</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0.75</v>
+      </c>
+      <c r="K13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="D17">
+        <v>5.5869024557711599E-3</v>
+      </c>
+      <c r="E17">
+        <v>1.0725680696636101E-2</v>
+      </c>
+      <c r="F17">
+        <v>1.3325068536818301E-2</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>100</v>
+      </c>
+      <c r="I17">
+        <v>0.5</v>
+      </c>
+      <c r="J17">
+        <v>0.25</v>
+      </c>
+      <c r="K17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="D20">
+        <v>5.37622059706944E-2</v>
+      </c>
+      <c r="E20">
+        <v>0.14211102815583601</v>
+      </c>
+      <c r="F20">
+        <v>0.14440733706794701</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>100</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="D23">
+        <v>7.2216671679517203E-2</v>
+      </c>
+      <c r="E23">
+        <v>0.138308246783824</v>
+      </c>
+      <c r="F23">
+        <v>0.173285511665627</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>100</v>
+      </c>
+      <c r="I23">
+        <v>0.5</v>
+      </c>
+      <c r="J23">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="D26">
+        <v>7.3862222977143704E-2</v>
+      </c>
+      <c r="E26">
+        <v>0.14113524619958201</v>
+      </c>
+      <c r="F26">
+        <v>0.15452336116705201</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>100</v>
+      </c>
+      <c r="I26">
+        <v>0.75</v>
+      </c>
+      <c r="J26">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="D29">
+        <v>8.4055383798464806E-2</v>
+      </c>
+      <c r="E29">
+        <v>0.139900355045983</v>
+      </c>
+      <c r="F29">
+        <v>0.16421821645696899</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <v>100</v>
+      </c>
+      <c r="I29">
+        <v>0.25</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="D32">
+        <v>7.8256087225979307E-2</v>
+      </c>
+      <c r="E32">
+        <v>0.140553489169046</v>
+      </c>
+      <c r="F32">
+        <v>0.14854746186123099</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="H32">
+        <v>100</v>
+      </c>
+      <c r="I32">
+        <v>0.5</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" t="s">
+        <v>4</v>
+      </c>
+      <c r="J34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="D35">
+        <v>7.4813550528851705E-2</v>
+      </c>
+      <c r="E35">
+        <v>0.139792018705756</v>
+      </c>
+      <c r="F35">
+        <v>0.16311982579996101</v>
+      </c>
+      <c r="G35">
+        <v>6</v>
+      </c>
+      <c r="H35">
+        <v>100</v>
+      </c>
+      <c r="I35">
+        <v>0.25</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>2</v>
+      </c>
+      <c r="H37" t="s">
+        <v>3</v>
+      </c>
+      <c r="I37" t="s">
+        <v>4</v>
+      </c>
+      <c r="J37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="D38">
+        <v>3.6222417656242102E-2</v>
+      </c>
+      <c r="E38">
+        <v>0.14539908471176999</v>
+      </c>
+      <c r="F38">
+        <v>0.126166192376271</v>
+      </c>
+      <c r="G38">
+        <v>8</v>
+      </c>
+      <c r="H38">
+        <v>100</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>2</v>
+      </c>
+      <c r="H40" t="s">
+        <v>3</v>
+      </c>
+      <c r="I40" t="s">
+        <v>4</v>
+      </c>
+      <c r="J40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="D41">
+        <v>7.2244355108108296E-2</v>
+      </c>
+      <c r="E41">
+        <v>0.138316422424105</v>
+      </c>
+      <c r="F41">
+        <v>0.136355332989193</v>
+      </c>
+      <c r="G41">
+        <v>5</v>
+      </c>
+      <c r="H41">
+        <v>100</v>
+      </c>
+      <c r="I41">
+        <v>0.5</v>
+      </c>
+      <c r="J41">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>2</v>
+      </c>
+      <c r="H43" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="D44">
+        <v>5.8811412092346603E-2</v>
+      </c>
+      <c r="E44">
+        <v>0.14264705506380601</v>
+      </c>
+      <c r="F44">
+        <v>0.12919072104458901</v>
+      </c>
+      <c r="G44">
+        <v>7</v>
+      </c>
+      <c r="H44">
+        <v>100</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>2</v>
+      </c>
+      <c r="H46" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="D47">
+        <v>7.4813550528851705E-2</v>
+      </c>
+      <c r="E47">
+        <v>0.139777077855679</v>
+      </c>
+      <c r="F47">
+        <v>0.13618530541239801</v>
+      </c>
+      <c r="G47">
+        <v>6</v>
+      </c>
+      <c r="H47">
+        <v>100</v>
+      </c>
+      <c r="I47">
+        <v>0.25</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0435C3EE-337D-43DD-BC0F-F9F5AA738549}">
   <dimension ref="C3:J8"/>
@@ -72182,406 +72946,1710 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE418E7-1197-4C14-B4E7-FDD6E039CCEC}">
-  <dimension ref="D5:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AACF02E9-C44D-4055-B0C4-481608B84449}">
+  <dimension ref="D4:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:J29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.6328125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
+    <row r="4" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D4" s="3"/>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="5" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D5" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5">
+        <v>7.4813550528851705E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.139792018705756</v>
+      </c>
+      <c r="G5">
+        <v>0.16311982579996101</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <v>0.25</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D6" s="3"/>
+      <c r="E6">
+        <v>8.0025392441383E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.13980790148156799</v>
+      </c>
+      <c r="G6">
+        <v>0.19233282964278001</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D7" s="3"/>
+      <c r="E7">
+        <v>6.7609379085100701E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.139861798409013</v>
+      </c>
+      <c r="G7">
+        <v>0.163923521538342</v>
+      </c>
+      <c r="H7">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="J7">
+        <v>0.25</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D8" s="3"/>
+      <c r="E8">
+        <v>8.3100343876314903E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.13990276186342099</v>
+      </c>
+      <c r="G8">
+        <v>0.16882400741280301</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+      <c r="J8">
+        <v>0.25</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D9" s="3"/>
+      <c r="E9">
+        <v>7.0990926632844398E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.14010839493260599</v>
+      </c>
+      <c r="G9">
+        <v>0.17426599265531301</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D10" s="3"/>
+      <c r="E10">
+        <v>8.4102917359202195E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.14016131690416</v>
+      </c>
+      <c r="G10">
+        <v>0.161173951485126</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+      <c r="J10">
+        <v>0.25</v>
+      </c>
+      <c r="K10">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D11" s="3"/>
+      <c r="E11">
+        <v>7.9507686843864903E-2</v>
+      </c>
+      <c r="F11">
+        <v>0.14021851380170799</v>
+      </c>
+      <c r="G11">
+        <v>0.154452750460531</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11">
+        <v>0.5</v>
+      </c>
+      <c r="K11">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D12" s="3"/>
+      <c r="E12">
+        <v>8.8800400503794605E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.140345721955281</v>
+      </c>
+      <c r="G12">
+        <v>0.17057822227146499</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>100</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D13" s="3"/>
+      <c r="E13">
+        <v>9.1703258826220005E-2</v>
+      </c>
+      <c r="F13">
+        <v>0.140354457140939</v>
+      </c>
+      <c r="G13">
+        <v>0.16274885819261301</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="J13">
+        <v>0.25</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D14" s="3"/>
+      <c r="E14">
+        <v>7.3628996965692403E-2</v>
+      </c>
+      <c r="F14">
+        <v>0.14041904718412199</v>
+      </c>
+      <c r="G14">
+        <v>0.179917687183586</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>100</v>
+      </c>
+      <c r="J14">
+        <v>0.75</v>
+      </c>
+      <c r="K14">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D15" s="3"/>
+      <c r="E15">
+        <v>7.1840327252656697E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.140447784940812</v>
+      </c>
+      <c r="G15">
+        <v>0.16890893957057099</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15">
+        <v>100</v>
+      </c>
+      <c r="J15">
+        <v>0.5</v>
+      </c>
+      <c r="K15">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D16" s="3"/>
+      <c r="E16">
+        <v>7.8256087225979307E-2</v>
+      </c>
+      <c r="F16">
+        <v>0.140553489169046</v>
+      </c>
+      <c r="G16">
+        <v>0.14854746186123099</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>100</v>
+      </c>
+      <c r="J16">
+        <v>0.5</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D17" s="3"/>
+      <c r="E17">
+        <v>8.6174373440086896E-2</v>
+      </c>
+      <c r="F17">
+        <v>0.14073992961773399</v>
+      </c>
+      <c r="G17">
+        <v>0.172825694366155</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>100</v>
+      </c>
+      <c r="J17">
+        <v>0.5</v>
+      </c>
+      <c r="K17">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D18" s="3"/>
+      <c r="E18">
+        <v>9.3169234213645397E-2</v>
+      </c>
+      <c r="F18">
+        <v>0.14103250127571401</v>
+      </c>
+      <c r="G18">
+        <v>0.15601526144164499</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>100</v>
+      </c>
+      <c r="J18">
+        <v>0.25</v>
+      </c>
+      <c r="K18">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D19" s="3"/>
+      <c r="E19">
+        <v>8.6706449989694304E-2</v>
+      </c>
+      <c r="F19">
+        <v>0.141056848447071</v>
+      </c>
+      <c r="G19">
+        <v>0.16255736161208501</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>100</v>
+      </c>
+      <c r="J19">
+        <v>0.25</v>
+      </c>
+      <c r="K19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D20" s="3"/>
+      <c r="E20">
+        <v>8.7118255306830802E-2</v>
+      </c>
+      <c r="F20">
+        <v>0.14106564025969801</v>
+      </c>
+      <c r="G20">
+        <v>0.17123611472052599</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>100</v>
+      </c>
+      <c r="J20">
+        <v>0.5</v>
+      </c>
+      <c r="K20">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D21" s="3"/>
+      <c r="E21">
+        <v>7.6799492154107807E-2</v>
+      </c>
+      <c r="F21">
+        <v>0.14116526898953599</v>
+      </c>
+      <c r="G21">
+        <v>0.16370857385237</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>100</v>
+      </c>
+      <c r="J21">
+        <v>0.75</v>
+      </c>
+      <c r="K21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D22" s="3"/>
+      <c r="E22">
+        <v>8.3366859762100398E-2</v>
+      </c>
+      <c r="F22">
+        <v>0.141171936308401</v>
+      </c>
+      <c r="G22">
+        <v>0.16211607406228401</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <v>100</v>
+      </c>
+      <c r="J22">
+        <v>0.75</v>
+      </c>
+      <c r="K22">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D23" s="3"/>
+      <c r="E23">
+        <v>7.1781310079387803E-2</v>
+      </c>
+      <c r="F23">
+        <v>0.14118549056424401</v>
+      </c>
+      <c r="G23">
+        <v>0.17409567515424401</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <v>100</v>
+      </c>
+      <c r="J23">
+        <v>0.5</v>
+      </c>
+      <c r="K23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D24" s="3"/>
+      <c r="E24">
+        <v>6.8624010083137094E-2</v>
+      </c>
+      <c r="F24">
+        <v>0.14120730746357299</v>
+      </c>
+      <c r="G24">
+        <v>0.16074910775531101</v>
+      </c>
+      <c r="H24">
+        <v>6</v>
+      </c>
+      <c r="I24">
+        <v>100</v>
+      </c>
+      <c r="J24">
+        <v>0.5</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D25" s="3"/>
+      <c r="E25">
+        <v>7.8284899699201105E-2</v>
+      </c>
+      <c r="F25">
+        <v>0.14124418255096699</v>
+      </c>
+      <c r="G25">
+        <v>0.17583990069008801</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>100</v>
+      </c>
+      <c r="J25">
+        <v>0.5</v>
+      </c>
+      <c r="K25">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="26" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D26" s="3"/>
+      <c r="E26">
+        <v>8.6961749628060997E-2</v>
+      </c>
+      <c r="F26">
+        <v>0.14126741498270001</v>
+      </c>
+      <c r="G26">
+        <v>0.156057438821228</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>100</v>
+      </c>
+      <c r="J26">
+        <v>0.5</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D27" s="3"/>
+      <c r="E27">
+        <v>7.6232022317389098E-2</v>
+      </c>
+      <c r="F27">
+        <v>0.14129246335190801</v>
+      </c>
+      <c r="G27">
+        <v>0.153206771674293</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <v>100</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D28" s="3"/>
+      <c r="E28">
+        <v>7.53783765297866E-2</v>
+      </c>
+      <c r="F28">
+        <v>0.141341106667981</v>
+      </c>
+      <c r="G28">
+        <v>0.16761511027086301</v>
+      </c>
+      <c r="H28">
+        <v>6</v>
+      </c>
+      <c r="I28">
+        <v>100</v>
+      </c>
+      <c r="J28">
+        <v>0.25</v>
+      </c>
+      <c r="K28">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="29" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D29" s="3"/>
+      <c r="E29">
+        <v>7.9574646201017604E-2</v>
+      </c>
+      <c r="F29">
+        <v>0.14136037347223401</v>
+      </c>
+      <c r="G29">
+        <v>0.18509773884969999</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <v>100</v>
+      </c>
+      <c r="J29">
+        <v>0.5</v>
+      </c>
+      <c r="K29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D30" s="3"/>
+      <c r="E30">
+        <v>9.1077967507116706E-2</v>
+      </c>
+      <c r="F30">
+        <v>0.14137485056742699</v>
+      </c>
+      <c r="G30">
+        <v>0.16048419693128099</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>100</v>
+      </c>
+      <c r="J30">
+        <v>0.75</v>
+      </c>
+      <c r="K30">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="31" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D31" s="3"/>
+      <c r="E31">
+        <v>8.7028037379707504E-2</v>
+      </c>
+      <c r="F31">
+        <v>0.141560749894483</v>
+      </c>
+      <c r="G31">
+        <v>0.161134658007241</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>100</v>
+      </c>
+      <c r="J31">
+        <v>0.75</v>
+      </c>
+      <c r="K31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D32" s="3"/>
+      <c r="E32">
+        <v>7.1857501572603205E-2</v>
+      </c>
+      <c r="F32">
+        <v>0.141562368898102</v>
+      </c>
+      <c r="G32">
+        <v>0.167436705260465</v>
+      </c>
+      <c r="H32">
+        <v>7</v>
+      </c>
+      <c r="I32">
+        <v>100</v>
+      </c>
+      <c r="J32">
+        <v>0.25</v>
+      </c>
+      <c r="K32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D33" s="3"/>
+      <c r="E33">
+        <v>8.9760896219416103E-2</v>
+      </c>
+      <c r="F33">
+        <v>0.141625914960442</v>
+      </c>
+      <c r="G33">
+        <v>0.202975788464929</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+      <c r="I33">
+        <v>100</v>
+      </c>
+      <c r="J33">
+        <v>0.5</v>
+      </c>
+      <c r="K33">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D34" s="3"/>
+      <c r="E34">
+        <v>7.8301693759549901E-2</v>
+      </c>
+      <c r="F34">
+        <v>0.14165768000569501</v>
+      </c>
+      <c r="G34">
+        <v>0.16313815990837999</v>
+      </c>
+      <c r="H34">
+        <v>6</v>
+      </c>
+      <c r="I34">
+        <v>100</v>
+      </c>
+      <c r="J34">
+        <v>0.25</v>
+      </c>
+      <c r="K34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D35" s="3"/>
+      <c r="E35">
+        <v>6.8712196404370998E-2</v>
+      </c>
+      <c r="F35">
+        <v>0.14170940899708701</v>
+      </c>
+      <c r="G35">
+        <v>0.159412937138629</v>
+      </c>
+      <c r="H35">
+        <v>7</v>
+      </c>
+      <c r="I35">
+        <v>100</v>
+      </c>
+      <c r="J35">
+        <v>0.25</v>
+      </c>
+      <c r="K35">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="36" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D36" s="3"/>
+      <c r="E36">
+        <v>9.6176048521430094E-2</v>
+      </c>
+      <c r="F36">
+        <v>0.14175872309554099</v>
+      </c>
+      <c r="G36">
+        <v>0.16563753633081399</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36">
+        <v>100</v>
+      </c>
+      <c r="J36">
+        <v>0.5</v>
+      </c>
+      <c r="K36">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D37" s="3"/>
+      <c r="E37">
+        <v>6.7623698408923905E-2</v>
+      </c>
+      <c r="F37">
+        <v>0.14182656865835699</v>
+      </c>
+      <c r="G37">
+        <v>0.164340481636748</v>
+      </c>
+      <c r="H37">
+        <v>6</v>
+      </c>
+      <c r="I37">
+        <v>100</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D38" s="3"/>
+      <c r="E38">
+        <v>7.5864636488975304E-2</v>
+      </c>
+      <c r="F38">
+        <v>0.14188204837671201</v>
+      </c>
+      <c r="G38">
+        <v>0.16135611339653499</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
+      </c>
+      <c r="I38">
+        <v>100</v>
+      </c>
+      <c r="J38">
+        <v>0.75</v>
+      </c>
+      <c r="K38">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D39" s="3"/>
+      <c r="E39">
+        <v>6.9045537057646406E-2</v>
+      </c>
+      <c r="F39">
+        <v>0.141884276463283</v>
+      </c>
+      <c r="G39">
+        <v>0.17848044527819801</v>
+      </c>
+      <c r="H39">
+        <v>6</v>
+      </c>
+      <c r="I39">
+        <v>100</v>
+      </c>
+      <c r="J39">
+        <v>0.5</v>
+      </c>
+      <c r="K39">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D40" s="3"/>
+      <c r="E40">
+        <v>8.8802639717721996E-2</v>
+      </c>
+      <c r="F40">
+        <v>0.14194219688245099</v>
+      </c>
+      <c r="G40">
+        <v>0.16188714855722799</v>
+      </c>
+      <c r="H40">
+        <v>6</v>
+      </c>
+      <c r="I40">
+        <v>100</v>
+      </c>
+      <c r="J40">
+        <v>0.25</v>
+      </c>
+      <c r="K40">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="41" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D41" s="3"/>
+      <c r="E41">
+        <v>0.102957886054172</v>
+      </c>
+      <c r="F41">
+        <v>0.14197449521042099</v>
+      </c>
+      <c r="G41">
+        <v>0.18315181712165901</v>
+      </c>
+      <c r="H41">
         <v>3</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I41">
+        <v>100</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="42" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D42" s="3"/>
+      <c r="E42">
+        <v>8.5328928390356704E-2</v>
+      </c>
+      <c r="F42">
+        <v>0.14197703414098201</v>
+      </c>
+      <c r="G42">
+        <v>0.17144437838607199</v>
+      </c>
+      <c r="H42">
         <v>4</v>
       </c>
-      <c r="J5" t="s">
+      <c r="I42">
+        <v>100</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D43" s="3"/>
+      <c r="E43">
+        <v>8.4646846401143894E-2</v>
+      </c>
+      <c r="F43">
+        <v>0.14204238488801699</v>
+      </c>
+      <c r="G43">
+        <v>0.155967012773506</v>
+      </c>
+      <c r="H43">
+        <v>4</v>
+      </c>
+      <c r="I43">
+        <v>100</v>
+      </c>
+      <c r="J43">
+        <v>0.75</v>
+      </c>
+      <c r="K43">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="44" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D44" s="3"/>
+      <c r="E44">
+        <v>8.5481426007886496E-2</v>
+      </c>
+      <c r="F44">
+        <v>0.14209648131181099</v>
+      </c>
+      <c r="G44">
+        <v>0.181881332916104</v>
+      </c>
+      <c r="H44">
+        <v>4</v>
+      </c>
+      <c r="I44">
+        <v>100</v>
+      </c>
+      <c r="J44">
+        <v>0.75</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D45" s="3"/>
+      <c r="E45">
+        <v>6.8621710403621902E-2</v>
+      </c>
+      <c r="F45">
+        <v>0.14221087388232101</v>
+      </c>
+      <c r="G45">
+        <v>0.193308511206256</v>
+      </c>
+      <c r="H45">
+        <v>6</v>
+      </c>
+      <c r="I45">
+        <v>100</v>
+      </c>
+      <c r="J45">
+        <v>0.75</v>
+      </c>
+      <c r="K45">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D46" s="3"/>
+      <c r="E46">
+        <v>6.6862810421853103E-2</v>
+      </c>
+      <c r="F46">
+        <v>0.14223109222126401</v>
+      </c>
+      <c r="G46">
+        <v>0.16558076517552001</v>
+      </c>
+      <c r="H46">
+        <v>6</v>
+      </c>
+      <c r="I46">
+        <v>100</v>
+      </c>
+      <c r="J46">
+        <v>0.75</v>
+      </c>
+      <c r="K46">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="47" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D47" s="3"/>
+      <c r="E47">
+        <v>0.10336799238692</v>
+      </c>
+      <c r="F47">
+        <v>0.14223794185997199</v>
+      </c>
+      <c r="G47">
+        <v>0.168757764333795</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <v>100</v>
+      </c>
+      <c r="J47">
+        <v>0.25</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D48" s="3"/>
+      <c r="E48">
+        <v>7.30543536814246E-2</v>
+      </c>
+      <c r="F48">
+        <v>0.142354116601456</v>
+      </c>
+      <c r="G48">
+        <v>0.17059001465250601</v>
+      </c>
+      <c r="H48">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D6">
-        <v>4.1513115077090896E-3</v>
-      </c>
-      <c r="E6">
-        <v>1.10102076507537E-2</v>
-      </c>
-      <c r="F6">
-        <v>1.1062559951981301E-2</v>
-      </c>
-      <c r="G6">
+      <c r="I48">
+        <v>100</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D49" s="3"/>
+      <c r="E49">
+        <v>9.5784532673961406E-2</v>
+      </c>
+      <c r="F49">
+        <v>0.142407471311879</v>
+      </c>
+      <c r="G49">
+        <v>0.169484400718457</v>
+      </c>
+      <c r="H49">
+        <v>4</v>
+      </c>
+      <c r="I49">
+        <v>100</v>
+      </c>
+      <c r="J49">
+        <v>0.25</v>
+      </c>
+      <c r="K49">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D50" s="3"/>
+      <c r="E50">
+        <v>9.5068770603027597E-2</v>
+      </c>
+      <c r="F50">
+        <v>0.14243713368586</v>
+      </c>
+      <c r="G50">
+        <v>0.16641996233182799</v>
+      </c>
+      <c r="H50">
+        <v>5</v>
+      </c>
+      <c r="I50">
+        <v>100</v>
+      </c>
+      <c r="J50">
+        <v>0.25</v>
+      </c>
+      <c r="K50">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="51" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D51" s="3"/>
+      <c r="E51">
+        <v>9.9623991632355899E-2</v>
+      </c>
+      <c r="F51">
+        <v>0.14250586592645201</v>
+      </c>
+      <c r="G51">
+        <v>0.17171899172115901</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51">
+        <v>100</v>
+      </c>
+      <c r="J51">
+        <v>0.5</v>
+      </c>
+      <c r="K51">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="52" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D52" s="3"/>
+      <c r="E52">
+        <v>8.2238944475354903E-2</v>
+      </c>
+      <c r="F52">
+        <v>0.14259261471206999</v>
+      </c>
+      <c r="G52">
+        <v>0.175684111781017</v>
+      </c>
+      <c r="H52">
+        <v>7</v>
+      </c>
+      <c r="I52">
+        <v>100</v>
+      </c>
+      <c r="J52">
+        <v>0.25</v>
+      </c>
+      <c r="K52">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="53" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D53" s="3"/>
+      <c r="E53">
+        <v>8.3958569842206995E-2</v>
+      </c>
+      <c r="F53">
+        <v>0.14268242053347399</v>
+      </c>
+      <c r="G53">
+        <v>0.16424247525065799</v>
+      </c>
+      <c r="H53">
+        <v>4</v>
+      </c>
+      <c r="I53">
+        <v>100</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="54" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D54" s="3"/>
+      <c r="E54">
+        <v>7.5687380230138795E-2</v>
+      </c>
+      <c r="F54">
+        <v>0.14269068044654901</v>
+      </c>
+      <c r="G54">
+        <v>0.179595422741371</v>
+      </c>
+      <c r="H54">
+        <v>5</v>
+      </c>
+      <c r="I54">
+        <v>100</v>
+      </c>
+      <c r="J54">
+        <v>0.75</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D55" s="3"/>
+      <c r="E55">
+        <v>6.5193618807951506E-2</v>
+      </c>
+      <c r="F55">
+        <v>0.142708334963801</v>
+      </c>
+      <c r="G55">
+        <v>0.18424030882447001</v>
+      </c>
+      <c r="H55">
         <v>6</v>
       </c>
-      <c r="H6">
-        <v>100</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="I55">
+        <v>100</v>
+      </c>
+      <c r="J55">
+        <v>0.75</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D56" s="3"/>
+      <c r="E56">
+        <v>6.5992316704669804E-2</v>
+      </c>
+      <c r="F56">
+        <v>0.14276368141306101</v>
+      </c>
+      <c r="G56">
+        <v>0.17426342768285999</v>
+      </c>
+      <c r="H56">
+        <v>6</v>
+      </c>
+      <c r="I56">
+        <v>100</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="57" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D57" s="3"/>
+      <c r="E57">
+        <v>0.10114557277570201</v>
+      </c>
+      <c r="F57">
+        <v>0.142807914505338</v>
+      </c>
+      <c r="G57">
+        <v>0.17788307398289699</v>
+      </c>
+      <c r="H57">
         <v>3</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I57">
+        <v>100</v>
+      </c>
+      <c r="J57">
+        <v>0.5</v>
+      </c>
+      <c r="K57">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="58" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D58" s="3"/>
+      <c r="E58">
+        <v>9.8854329463295698E-2</v>
+      </c>
+      <c r="F58">
+        <v>0.142867081128633</v>
+      </c>
+      <c r="G58">
+        <v>0.163586354761425</v>
+      </c>
+      <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="I58">
+        <v>100</v>
+      </c>
+      <c r="J58">
+        <v>0.5</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D59" s="3"/>
+      <c r="E59">
+        <v>9.7029492062488606E-2</v>
+      </c>
+      <c r="F59">
+        <v>0.14296680183135901</v>
+      </c>
+      <c r="G59">
+        <v>0.16057654709934899</v>
+      </c>
+      <c r="H59">
+        <v>3</v>
+      </c>
+      <c r="I59">
+        <v>100</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="60" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D60" s="3"/>
+      <c r="E60">
+        <v>9.7448909793070193E-2</v>
+      </c>
+      <c r="F60">
+        <v>0.14297765942410401</v>
+      </c>
+      <c r="G60">
+        <v>0.17587435995817599</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60">
+        <v>100</v>
+      </c>
+      <c r="J60">
+        <v>0.75</v>
+      </c>
+      <c r="K60">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="61" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D61" s="3"/>
+      <c r="E61">
+        <v>9.8926237043089796E-2</v>
+      </c>
+      <c r="F61">
+        <v>0.14302738515735999</v>
+      </c>
+      <c r="G61">
+        <v>0.17373873450402999</v>
+      </c>
+      <c r="H61">
+        <v>3</v>
+      </c>
+      <c r="I61">
+        <v>100</v>
+      </c>
+      <c r="J61">
+        <v>0.75</v>
+      </c>
+      <c r="K61">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="62" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D62" s="3"/>
+      <c r="E62">
+        <v>0.103850491640906</v>
+      </c>
+      <c r="F62">
+        <v>0.143250770367157</v>
+      </c>
+      <c r="G62">
+        <v>0.176262338409303</v>
+      </c>
+      <c r="H62">
+        <v>3</v>
+      </c>
+      <c r="I62">
+        <v>100</v>
+      </c>
+      <c r="J62">
+        <v>0.75</v>
+      </c>
+      <c r="K62">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="63" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D63" s="3"/>
+      <c r="E63">
+        <v>0.106604750711634</v>
+      </c>
+      <c r="F63">
+        <v>0.143356443167304</v>
+      </c>
+      <c r="G63">
+        <v>0.170279547891724</v>
+      </c>
+      <c r="H63">
+        <v>3</v>
+      </c>
+      <c r="I63">
+        <v>100</v>
+      </c>
+      <c r="J63">
+        <v>0.5</v>
+      </c>
+      <c r="K63">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="64" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D64" s="3"/>
+      <c r="E64">
+        <v>8.3905015017382401E-2</v>
+      </c>
+      <c r="F64">
+        <v>0.14339108576811899</v>
+      </c>
+      <c r="G64">
+        <v>0.16306621667792501</v>
+      </c>
+      <c r="H64">
         <v>4</v>
       </c>
-      <c r="J8" t="s">
+      <c r="I64">
+        <v>100</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D65" s="3"/>
+      <c r="E65">
+        <v>7.3178023108772194E-2</v>
+      </c>
+      <c r="F65">
+        <v>0.14354603980219099</v>
+      </c>
+      <c r="G65">
+        <v>0.16423190314665501</v>
+      </c>
+      <c r="H65">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D9">
-        <v>5.5869024557711599E-3</v>
-      </c>
-      <c r="E9">
-        <v>1.0725680696636101E-2</v>
-      </c>
-      <c r="F9">
-        <v>1.3325068536818301E-2</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-      <c r="H9">
-        <v>100</v>
-      </c>
-      <c r="I9">
-        <v>0.5</v>
-      </c>
-      <c r="J9">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="I65">
+        <v>100</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D66" s="3"/>
+      <c r="E66">
+        <v>0.105629849140886</v>
+      </c>
+      <c r="F66">
+        <v>0.143571633805848</v>
+      </c>
+      <c r="G66">
+        <v>0.16636652193375401</v>
+      </c>
+      <c r="H66">
         <v>3</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I66">
+        <v>100</v>
+      </c>
+      <c r="J66">
+        <v>0.25</v>
+      </c>
+      <c r="K66">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="67" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D67" s="3"/>
+      <c r="E67">
+        <v>9.7690933369324801E-2</v>
+      </c>
+      <c r="F67">
+        <v>0.14366835555007099</v>
+      </c>
+      <c r="G67">
+        <v>0.18286249043821501</v>
+      </c>
+      <c r="H67">
+        <v>3</v>
+      </c>
+      <c r="I67">
+        <v>100</v>
+      </c>
+      <c r="J67">
+        <v>0.75</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D68" s="3"/>
+      <c r="E68">
+        <v>0.10924605449357699</v>
+      </c>
+      <c r="F68">
+        <v>0.14396432020424799</v>
+      </c>
+      <c r="G68">
+        <v>0.16645328156138101</v>
+      </c>
+      <c r="H68">
+        <v>3</v>
+      </c>
+      <c r="I68">
+        <v>100</v>
+      </c>
+      <c r="J68">
+        <v>0.25</v>
+      </c>
+      <c r="K68">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="69" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D69" s="3"/>
+      <c r="E69">
+        <v>9.5843153070454407E-2</v>
+      </c>
+      <c r="F69">
+        <v>0.14400483256095001</v>
+      </c>
+      <c r="G69">
+        <v>0.16464663544459501</v>
+      </c>
+      <c r="H69">
+        <v>3</v>
+      </c>
+      <c r="I69">
+        <v>100</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D70" s="3"/>
+      <c r="E70">
+        <v>6.42886474591505E-2</v>
+      </c>
+      <c r="F70">
+        <v>0.14425868477054701</v>
+      </c>
+      <c r="G70">
+        <v>0.17182575331657399</v>
+      </c>
+      <c r="H70">
+        <v>6</v>
+      </c>
+      <c r="I70">
+        <v>100</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D71" s="3"/>
+      <c r="E71">
+        <v>0.102370866484606</v>
+      </c>
+      <c r="F71">
+        <v>0.14429233594319399</v>
+      </c>
+      <c r="G71">
+        <v>0.180189835213759</v>
+      </c>
+      <c r="H71">
         <v>4</v>
       </c>
-      <c r="J12" t="s">
-        <v>5</v>
-      </c>
-      <c r="K12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D13">
-        <v>4.1513115077090896E-3</v>
-      </c>
-      <c r="E13">
-        <v>1.10102076507537E-2</v>
-      </c>
-      <c r="F13">
-        <v>1.1062559951981301E-2</v>
-      </c>
-      <c r="G13">
-        <v>6</v>
-      </c>
-      <c r="H13">
-        <v>100</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>0.75</v>
-      </c>
-      <c r="K13">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="16" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="I71">
+        <v>100</v>
+      </c>
+      <c r="J71">
+        <v>0.25</v>
+      </c>
+      <c r="K71">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="72" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D72" s="3"/>
+      <c r="E72">
+        <v>9.6313056430665303E-2</v>
+      </c>
+      <c r="F72">
+        <v>0.14438357010849001</v>
+      </c>
+      <c r="G72">
+        <v>0.16421160820707301</v>
+      </c>
+      <c r="H72">
         <v>3</v>
       </c>
-      <c r="I16" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" t="s">
-        <v>5</v>
-      </c>
-      <c r="K16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D17">
-        <v>5.5869024557711599E-3</v>
-      </c>
-      <c r="E17">
-        <v>1.0725680696636101E-2</v>
-      </c>
-      <c r="F17">
-        <v>1.3325068536818301E-2</v>
-      </c>
-      <c r="G17">
-        <v>5</v>
-      </c>
-      <c r="H17">
-        <v>100</v>
-      </c>
-      <c r="I17">
-        <v>0.5</v>
-      </c>
-      <c r="J17">
-        <v>0.25</v>
-      </c>
-      <c r="K17">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="I72">
+        <v>100</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="73" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D73" s="3"/>
+      <c r="E73">
+        <v>0.111748657976057</v>
+      </c>
+      <c r="F73">
+        <v>0.148370161946241</v>
+      </c>
+      <c r="G73">
+        <v>0.16636572383592299</v>
+      </c>
+      <c r="H73">
         <v>3</v>
       </c>
-      <c r="I19" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D20">
-        <v>5.37622059706944E-2</v>
-      </c>
-      <c r="E20">
-        <v>0.14211102815583601</v>
-      </c>
-      <c r="F20">
-        <v>0.14440733706794701</v>
-      </c>
-      <c r="G20">
-        <v>6</v>
-      </c>
-      <c r="H20">
-        <v>100</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G22" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D23">
-        <v>7.2216671679517203E-2</v>
-      </c>
-      <c r="E23">
-        <v>0.138308246783824</v>
-      </c>
-      <c r="F23">
-        <v>0.173285511665627</v>
-      </c>
-      <c r="G23">
-        <v>5</v>
-      </c>
-      <c r="H23">
-        <v>100</v>
-      </c>
-      <c r="I23">
-        <v>0.5</v>
-      </c>
-      <c r="J23">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="25" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G25" t="s">
-        <v>2</v>
-      </c>
-      <c r="H25" t="s">
-        <v>3</v>
-      </c>
-      <c r="I25" t="s">
-        <v>4</v>
-      </c>
-      <c r="J25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D26">
-        <v>7.3862222977143704E-2</v>
-      </c>
-      <c r="E26">
-        <v>0.14113524619958201</v>
-      </c>
-      <c r="F26">
-        <v>0.15452336116705201</v>
-      </c>
-      <c r="G26">
-        <v>6</v>
-      </c>
-      <c r="H26">
-        <v>100</v>
-      </c>
-      <c r="I26">
-        <v>0.75</v>
-      </c>
-      <c r="J26">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="28" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" t="s">
-        <v>0</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1</v>
-      </c>
-      <c r="G28" t="s">
-        <v>2</v>
-      </c>
-      <c r="H28" t="s">
-        <v>3</v>
-      </c>
-      <c r="I28" t="s">
-        <v>4</v>
-      </c>
-      <c r="J28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D29">
-        <v>8.4055383798464806E-2</v>
-      </c>
-      <c r="E29">
-        <v>0.139900355045983</v>
-      </c>
-      <c r="F29">
-        <v>0.16421821645696899</v>
-      </c>
-      <c r="G29">
-        <v>5</v>
-      </c>
-      <c r="H29">
-        <v>100</v>
-      </c>
-      <c r="I29">
-        <v>0.25</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
+      <c r="I73">
+        <v>100</v>
+      </c>
+      <c r="J73">
+        <v>0.25</v>
+      </c>
+      <c r="K73">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="74" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D76" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="E4:K4" xr:uid="{9C03C561-D41C-47E8-9472-2607954F2987}">
+    <sortState ref="E5:K73">
+      <sortCondition ref="F4"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -75593,4 +77661,5982 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{487F30EC-DFBD-4793-980F-765AEF6EFF5C}">
+  <dimension ref="E5:K134"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G133" sqref="G133"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="5" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>7.2244355108108296E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.138316422424105</v>
+      </c>
+      <c r="G6">
+        <v>0.136355332989193</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6">
+        <v>0.5</v>
+      </c>
+      <c r="K6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>6.8305702782468905E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.138450987050489</v>
+      </c>
+      <c r="G7">
+        <v>0.133483729070971</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="J7">
+        <v>0.75</v>
+      </c>
+      <c r="K7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <v>8.3550900936253794E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.13884427808139499</v>
+      </c>
+      <c r="G8">
+        <v>0.13934177892223201</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+      <c r="J8">
+        <v>0.25</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <v>7.1122525970641906E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.13887481755495801</v>
+      </c>
+      <c r="G9">
+        <v>0.137126973164127</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="J9">
+        <v>0.25</v>
+      </c>
+      <c r="K9">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="10" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <v>6.9488749058325E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.138878112636312</v>
+      </c>
+      <c r="G10">
+        <v>0.13579739922932399</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+      <c r="J10">
+        <v>0.25</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <v>5.7592969708564097E-2</v>
+      </c>
+      <c r="F11">
+        <v>0.138882479980003</v>
+      </c>
+      <c r="G11">
+        <v>0.131767358936412</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11">
+        <v>0.75</v>
+      </c>
+      <c r="K11">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <v>5.0907145080131097E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.13895442436281899</v>
+      </c>
+      <c r="G12">
+        <v>0.13614546505491401</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>100</v>
+      </c>
+      <c r="J12">
+        <v>0.5</v>
+      </c>
+      <c r="K12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <v>6.1986520491402498E-2</v>
+      </c>
+      <c r="F13">
+        <v>0.13895571585621999</v>
+      </c>
+      <c r="G13">
+        <v>0.13467400570157401</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="J13">
+        <v>0.25</v>
+      </c>
+      <c r="K13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <v>8.6005967475913894E-2</v>
+      </c>
+      <c r="F14">
+        <v>0.13899078223715</v>
+      </c>
+      <c r="G14">
+        <v>0.139350528807449</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>100</v>
+      </c>
+      <c r="J14">
+        <v>0.5</v>
+      </c>
+      <c r="K14">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <v>4.2891345034482997E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.13900148964797099</v>
+      </c>
+      <c r="G15">
+        <v>0.13508946259083701</v>
+      </c>
+      <c r="H15">
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <v>100</v>
+      </c>
+      <c r="J15">
+        <v>0.5</v>
+      </c>
+      <c r="K15">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <v>8.2145989948870998E-2</v>
+      </c>
+      <c r="F16">
+        <v>0.139070111715176</v>
+      </c>
+      <c r="G16">
+        <v>0.134309123196615</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>100</v>
+      </c>
+      <c r="J16">
+        <v>0.5</v>
+      </c>
+      <c r="K16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <v>6.9035699230784703E-2</v>
+      </c>
+      <c r="F17">
+        <v>0.13907674344066701</v>
+      </c>
+      <c r="G17">
+        <v>0.13461418909394099</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>100</v>
+      </c>
+      <c r="J17">
+        <v>0.5</v>
+      </c>
+      <c r="K17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <v>6.0047666116259502E-2</v>
+      </c>
+      <c r="F18">
+        <v>0.13911439237995199</v>
+      </c>
+      <c r="G18">
+        <v>0.13670289829250601</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="I18">
+        <v>100</v>
+      </c>
+      <c r="J18">
+        <v>0.5</v>
+      </c>
+      <c r="K18">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <v>4.8616819936902499E-2</v>
+      </c>
+      <c r="F19">
+        <v>0.139212891537071</v>
+      </c>
+      <c r="G19">
+        <v>0.13238160472589</v>
+      </c>
+      <c r="H19">
+        <v>7</v>
+      </c>
+      <c r="I19">
+        <v>100</v>
+      </c>
+      <c r="J19">
+        <v>0.75</v>
+      </c>
+      <c r="K19">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <v>5.7555251621791502E-2</v>
+      </c>
+      <c r="F20">
+        <v>0.13929832102943801</v>
+      </c>
+      <c r="G20">
+        <v>0.13568230905644901</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <v>100</v>
+      </c>
+      <c r="J20">
+        <v>0.25</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E21">
+        <v>5.6990429572139498E-2</v>
+      </c>
+      <c r="F21">
+        <v>0.13933053396213799</v>
+      </c>
+      <c r="G21">
+        <v>0.132992726458356</v>
+      </c>
+      <c r="H21">
+        <v>6</v>
+      </c>
+      <c r="I21">
+        <v>100</v>
+      </c>
+      <c r="J21">
+        <v>0.5</v>
+      </c>
+      <c r="K21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E22">
+        <v>7.3354898230444193E-2</v>
+      </c>
+      <c r="F22">
+        <v>0.13936880514812899</v>
+      </c>
+      <c r="G22">
+        <v>0.13829795599758901</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <v>100</v>
+      </c>
+      <c r="J22">
+        <v>0.25</v>
+      </c>
+      <c r="K22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <v>8.3794104735139596E-2</v>
+      </c>
+      <c r="F23">
+        <v>0.13945053053999301</v>
+      </c>
+      <c r="G23">
+        <v>0.13523239323560499</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>100</v>
+      </c>
+      <c r="J23">
+        <v>0.75</v>
+      </c>
+      <c r="K23">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E24">
+        <v>6.7479459689174598E-2</v>
+      </c>
+      <c r="F24">
+        <v>0.139471294585397</v>
+      </c>
+      <c r="G24">
+        <v>0.132955467862898</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>100</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <v>8.2455665044342694E-2</v>
+      </c>
+      <c r="F25">
+        <v>0.13955680571397699</v>
+      </c>
+      <c r="G25">
+        <v>0.13646998492089901</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>100</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E26">
+        <v>7.8619429214847394E-2</v>
+      </c>
+      <c r="F26">
+        <v>0.13962687965527101</v>
+      </c>
+      <c r="G26">
+        <v>0.13184690092457901</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>100</v>
+      </c>
+      <c r="J26">
+        <v>0.75</v>
+      </c>
+      <c r="K26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <v>8.1269436576996396E-2</v>
+      </c>
+      <c r="F27">
+        <v>0.13967783979338</v>
+      </c>
+      <c r="G27">
+        <v>0.13242135940212699</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>100</v>
+      </c>
+      <c r="J27">
+        <v>0.5</v>
+      </c>
+      <c r="K27">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="28" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E28">
+        <v>6.5889679414363495E-2</v>
+      </c>
+      <c r="F28">
+        <v>0.139682845827754</v>
+      </c>
+      <c r="G28">
+        <v>0.13027846027501599</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>100</v>
+      </c>
+      <c r="J28">
+        <v>0.75</v>
+      </c>
+      <c r="K28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E29">
+        <v>2.7111413984448E-2</v>
+      </c>
+      <c r="F29">
+        <v>0.139698565900997</v>
+      </c>
+      <c r="G29">
+        <v>0.138019375846195</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+      <c r="I29">
+        <v>100</v>
+      </c>
+      <c r="J29">
+        <v>0.5</v>
+      </c>
+      <c r="K29">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="30" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E30">
+        <v>7.8219321986784704E-2</v>
+      </c>
+      <c r="F30">
+        <v>0.139719000721334</v>
+      </c>
+      <c r="G30">
+        <v>0.131967831398799</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>100</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E31">
+        <v>3.7341726169555702E-2</v>
+      </c>
+      <c r="F31">
+        <v>0.139765676526105</v>
+      </c>
+      <c r="G31">
+        <v>0.13214620962120999</v>
+      </c>
+      <c r="H31">
+        <v>8</v>
+      </c>
+      <c r="I31">
+        <v>100</v>
+      </c>
+      <c r="J31">
+        <v>0.5</v>
+      </c>
+      <c r="K31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E32">
+        <v>3.522355513152E-2</v>
+      </c>
+      <c r="F32">
+        <v>0.13986824532050901</v>
+      </c>
+      <c r="G32">
+        <v>0.13544494387313599</v>
+      </c>
+      <c r="H32">
+        <v>9</v>
+      </c>
+      <c r="I32">
+        <v>100</v>
+      </c>
+      <c r="J32">
+        <v>0.5</v>
+      </c>
+      <c r="K32">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="33" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E33">
+        <v>4.7702767182028698E-2</v>
+      </c>
+      <c r="F33">
+        <v>0.13988197859749299</v>
+      </c>
+      <c r="G33">
+        <v>0.13131405506365601</v>
+      </c>
+      <c r="H33">
+        <v>7</v>
+      </c>
+      <c r="I33">
+        <v>100</v>
+      </c>
+      <c r="J33">
+        <v>0.5</v>
+      </c>
+      <c r="K33">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E34">
+        <v>4.0040511715395001E-2</v>
+      </c>
+      <c r="F34">
+        <v>0.139909506996336</v>
+      </c>
+      <c r="G34">
+        <v>0.130815748378349</v>
+      </c>
+      <c r="H34">
+        <v>8</v>
+      </c>
+      <c r="I34">
+        <v>100</v>
+      </c>
+      <c r="J34">
+        <v>0.75</v>
+      </c>
+      <c r="K34">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="35" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E35">
+        <v>5.5976054431784002E-2</v>
+      </c>
+      <c r="F35">
+        <v>0.13993144224981099</v>
+      </c>
+      <c r="G35">
+        <v>0.12856320093142901</v>
+      </c>
+      <c r="H35">
+        <v>6</v>
+      </c>
+      <c r="I35">
+        <v>100</v>
+      </c>
+      <c r="J35">
+        <v>0.5</v>
+      </c>
+      <c r="K35">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="36" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E36">
+        <v>5.6220263852828398E-2</v>
+      </c>
+      <c r="F36">
+        <v>0.139964589664447</v>
+      </c>
+      <c r="G36">
+        <v>0.13281641757134299</v>
+      </c>
+      <c r="H36">
+        <v>6</v>
+      </c>
+      <c r="I36">
+        <v>100</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="37" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E37">
+        <v>4.7334976747636703E-2</v>
+      </c>
+      <c r="F37">
+        <v>0.140002362701103</v>
+      </c>
+      <c r="G37">
+        <v>0.13425700138417901</v>
+      </c>
+      <c r="H37">
+        <v>7</v>
+      </c>
+      <c r="I37">
+        <v>100</v>
+      </c>
+      <c r="J37">
+        <v>0.25</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E38">
+        <v>6.7414841450931601E-2</v>
+      </c>
+      <c r="F38">
+        <v>0.140078998267058</v>
+      </c>
+      <c r="G38">
+        <v>0.13068844030041299</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
+      </c>
+      <c r="I38">
+        <v>100</v>
+      </c>
+      <c r="J38">
+        <v>0.5</v>
+      </c>
+      <c r="K38">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="39" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E39">
+        <v>9.8668691235244396E-2</v>
+      </c>
+      <c r="F39">
+        <v>0.14011575628292</v>
+      </c>
+      <c r="G39">
+        <v>0.14141237755000699</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>100</v>
+      </c>
+      <c r="J39">
+        <v>0.25</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E40">
+        <v>3.7852483904072101E-2</v>
+      </c>
+      <c r="F40">
+        <v>0.140346180767078</v>
+      </c>
+      <c r="G40">
+        <v>0.13607682066253099</v>
+      </c>
+      <c r="H40">
+        <v>8</v>
+      </c>
+      <c r="I40">
+        <v>100</v>
+      </c>
+      <c r="J40">
+        <v>0.25</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E41">
+        <v>4.99399722519311E-2</v>
+      </c>
+      <c r="F41">
+        <v>0.140348308854334</v>
+      </c>
+      <c r="G41">
+        <v>0.13338861291328699</v>
+      </c>
+      <c r="H41">
+        <v>7</v>
+      </c>
+      <c r="I41">
+        <v>100</v>
+      </c>
+      <c r="J41">
+        <v>0.25</v>
+      </c>
+      <c r="K41">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E42">
+        <v>6.5930595571986897E-2</v>
+      </c>
+      <c r="F42">
+        <v>0.14040314051953201</v>
+      </c>
+      <c r="G42">
+        <v>0.13241700921722399</v>
+      </c>
+      <c r="H42">
+        <v>5</v>
+      </c>
+      <c r="I42">
+        <v>100</v>
+      </c>
+      <c r="J42">
+        <v>0.5</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E43">
+        <v>5.9009884731801798E-2</v>
+      </c>
+      <c r="F43">
+        <v>0.14041116982756199</v>
+      </c>
+      <c r="G43">
+        <v>0.13411020498728199</v>
+      </c>
+      <c r="H43">
+        <v>6</v>
+      </c>
+      <c r="I43">
+        <v>100</v>
+      </c>
+      <c r="J43">
+        <v>0.25</v>
+      </c>
+      <c r="K43">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="44" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E44">
+        <v>6.3965099915219897E-2</v>
+      </c>
+      <c r="F44">
+        <v>0.140415564706174</v>
+      </c>
+      <c r="G44">
+        <v>0.12948711833675</v>
+      </c>
+      <c r="H44">
+        <v>5</v>
+      </c>
+      <c r="I44">
+        <v>100</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E45">
+        <v>9.7344063776290096E-2</v>
+      </c>
+      <c r="F45">
+        <v>0.140481095065801</v>
+      </c>
+      <c r="G45">
+        <v>0.13981441311572099</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <v>100</v>
+      </c>
+      <c r="J45">
+        <v>0.75</v>
+      </c>
+      <c r="K45">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="46" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E46">
+        <v>7.0350517404318497E-2</v>
+      </c>
+      <c r="F46">
+        <v>0.14051673987770599</v>
+      </c>
+      <c r="G46">
+        <v>0.13883943863054299</v>
+      </c>
+      <c r="H46">
+        <v>6</v>
+      </c>
+      <c r="I46">
+        <v>100</v>
+      </c>
+      <c r="J46">
+        <v>0.25</v>
+      </c>
+      <c r="K46">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="47" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E47">
+        <v>4.7139038800149601E-2</v>
+      </c>
+      <c r="F47">
+        <v>0.14053584302508401</v>
+      </c>
+      <c r="G47">
+        <v>0.133981860318137</v>
+      </c>
+      <c r="H47">
+        <v>7</v>
+      </c>
+      <c r="I47">
+        <v>100</v>
+      </c>
+      <c r="J47">
+        <v>0.25</v>
+      </c>
+      <c r="K47">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="48" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E48">
+        <v>7.8686560942465705E-2</v>
+      </c>
+      <c r="F48">
+        <v>0.14057413461291701</v>
+      </c>
+      <c r="G48">
+        <v>0.13427278356427599</v>
+      </c>
+      <c r="H48">
+        <v>4</v>
+      </c>
+      <c r="I48">
+        <v>100</v>
+      </c>
+      <c r="J48">
+        <v>0.5</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E49">
+        <v>8.8167169730671902E-2</v>
+      </c>
+      <c r="F49">
+        <v>0.14058151671389499</v>
+      </c>
+      <c r="G49">
+        <v>0.14004893539044699</v>
+      </c>
+      <c r="H49">
+        <v>4</v>
+      </c>
+      <c r="I49">
+        <v>100</v>
+      </c>
+      <c r="J49">
+        <v>0.25</v>
+      </c>
+      <c r="K49">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E50">
+        <v>5.4434992798728099E-2</v>
+      </c>
+      <c r="F50">
+        <v>0.14061090881021901</v>
+      </c>
+      <c r="G50">
+        <v>0.12919665921514201</v>
+      </c>
+      <c r="H50">
+        <v>6</v>
+      </c>
+      <c r="I50">
+        <v>100</v>
+      </c>
+      <c r="J50">
+        <v>0.75</v>
+      </c>
+      <c r="K50">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E51">
+        <v>4.4538029542092003E-2</v>
+      </c>
+      <c r="F51">
+        <v>0.14062365602850299</v>
+      </c>
+      <c r="G51">
+        <v>0.13224132647568801</v>
+      </c>
+      <c r="H51">
+        <v>7</v>
+      </c>
+      <c r="I51">
+        <v>100</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="52" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E52">
+        <v>3.1025795211583902E-2</v>
+      </c>
+      <c r="F52">
+        <v>0.140628879390893</v>
+      </c>
+      <c r="G52">
+        <v>0.13240118399815101</v>
+      </c>
+      <c r="H52">
+        <v>9</v>
+      </c>
+      <c r="I52">
+        <v>100</v>
+      </c>
+      <c r="J52">
+        <v>0.75</v>
+      </c>
+      <c r="K52">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="53" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E53">
+        <v>7.6879000974718698E-2</v>
+      </c>
+      <c r="F53">
+        <v>0.14063522255564101</v>
+      </c>
+      <c r="G53">
+        <v>0.130544578895154</v>
+      </c>
+      <c r="H53">
+        <v>4</v>
+      </c>
+      <c r="I53">
+        <v>100</v>
+      </c>
+      <c r="J53">
+        <v>0.75</v>
+      </c>
+      <c r="K53">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="54" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E54">
+        <v>4.0382888057468501E-2</v>
+      </c>
+      <c r="F54">
+        <v>0.14064527469791499</v>
+      </c>
+      <c r="G54">
+        <v>0.13595650116072799</v>
+      </c>
+      <c r="H54">
+        <v>8</v>
+      </c>
+      <c r="I54">
+        <v>100</v>
+      </c>
+      <c r="J54">
+        <v>0.25</v>
+      </c>
+      <c r="K54">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E55">
+        <v>4.6680880078039902E-2</v>
+      </c>
+      <c r="F55">
+        <v>0.140659309021129</v>
+      </c>
+      <c r="G55">
+        <v>0.13107606161667201</v>
+      </c>
+      <c r="H55">
+        <v>7</v>
+      </c>
+      <c r="I55">
+        <v>100</v>
+      </c>
+      <c r="J55">
+        <v>0.5</v>
+      </c>
+      <c r="K55">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="56" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E56">
+        <v>3.2910668690537798E-2</v>
+      </c>
+      <c r="F56">
+        <v>0.14067083182947299</v>
+      </c>
+      <c r="G56">
+        <v>0.135743665156044</v>
+      </c>
+      <c r="H56">
+        <v>9</v>
+      </c>
+      <c r="I56">
+        <v>100</v>
+      </c>
+      <c r="J56">
+        <v>0.25</v>
+      </c>
+      <c r="K56">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E57">
+        <v>2.3209015113119701E-2</v>
+      </c>
+      <c r="F57">
+        <v>0.140736586005556</v>
+      </c>
+      <c r="G57">
+        <v>0.13050740379039499</v>
+      </c>
+      <c r="H57">
+        <v>10</v>
+      </c>
+      <c r="I57">
+        <v>100</v>
+      </c>
+      <c r="J57">
+        <v>0.5</v>
+      </c>
+      <c r="K57">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="58" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E58">
+        <v>8.4466268897429295E-2</v>
+      </c>
+      <c r="F58">
+        <v>0.140748662201714</v>
+      </c>
+      <c r="G58">
+        <v>0.13444899926138301</v>
+      </c>
+      <c r="H58">
+        <v>4</v>
+      </c>
+      <c r="I58">
+        <v>100</v>
+      </c>
+      <c r="J58">
+        <v>0.25</v>
+      </c>
+      <c r="K58">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="59" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E59">
+        <v>5.5197036533695398E-2</v>
+      </c>
+      <c r="F59">
+        <v>0.140772319675667</v>
+      </c>
+      <c r="G59">
+        <v>0.13130487413238601</v>
+      </c>
+      <c r="H59">
+        <v>6</v>
+      </c>
+      <c r="I59">
+        <v>100</v>
+      </c>
+      <c r="J59">
+        <v>0.5</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E60">
+        <v>3.8204773213684401E-2</v>
+      </c>
+      <c r="F60">
+        <v>0.14085702866470101</v>
+      </c>
+      <c r="G60">
+        <v>0.130079066332385</v>
+      </c>
+      <c r="H60">
+        <v>8</v>
+      </c>
+      <c r="I60">
+        <v>100</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="61" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E61">
+        <v>2.5799912858704199E-2</v>
+      </c>
+      <c r="F61">
+        <v>0.14086370634019901</v>
+      </c>
+      <c r="G61">
+        <v>0.13647042340601001</v>
+      </c>
+      <c r="H61">
+        <v>10</v>
+      </c>
+      <c r="I61">
+        <v>100</v>
+      </c>
+      <c r="J61">
+        <v>0.25</v>
+      </c>
+      <c r="K61">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="62" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E62">
+        <v>0.102142117420329</v>
+      </c>
+      <c r="F62">
+        <v>0.14088984054993101</v>
+      </c>
+      <c r="G62">
+        <v>0.14457291689433699</v>
+      </c>
+      <c r="H62">
+        <v>3</v>
+      </c>
+      <c r="I62">
+        <v>100</v>
+      </c>
+      <c r="J62">
+        <v>0.5</v>
+      </c>
+      <c r="K62">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="63" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E63">
+        <v>9.8012102402321694E-2</v>
+      </c>
+      <c r="F63">
+        <v>0.14089272089105401</v>
+      </c>
+      <c r="G63">
+        <v>0.136941128239185</v>
+      </c>
+      <c r="H63">
+        <v>3</v>
+      </c>
+      <c r="I63">
+        <v>100</v>
+      </c>
+      <c r="J63">
+        <v>0.25</v>
+      </c>
+      <c r="K63">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="64" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E64">
+        <v>9.2894369251528303E-2</v>
+      </c>
+      <c r="F64">
+        <v>0.14090042744619199</v>
+      </c>
+      <c r="G64">
+        <v>0.13457054719551301</v>
+      </c>
+      <c r="H64">
+        <v>3</v>
+      </c>
+      <c r="I64">
+        <v>100</v>
+      </c>
+      <c r="J64">
+        <v>0.75</v>
+      </c>
+      <c r="K64">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="65" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E65">
+        <v>2.9789153494678498E-2</v>
+      </c>
+      <c r="F65">
+        <v>0.14091841303213101</v>
+      </c>
+      <c r="G65">
+        <v>0.137193575412181</v>
+      </c>
+      <c r="H65">
+        <v>9</v>
+      </c>
+      <c r="I65">
+        <v>100</v>
+      </c>
+      <c r="J65">
+        <v>0.25</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E66">
+        <v>9.6624420253587806E-2</v>
+      </c>
+      <c r="F66">
+        <v>0.140924052380026</v>
+      </c>
+      <c r="G66">
+        <v>0.13869844413949201</v>
+      </c>
+      <c r="H66">
+        <v>3</v>
+      </c>
+      <c r="I66">
+        <v>100</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="67" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E67">
+        <v>3.0016176155961201E-2</v>
+      </c>
+      <c r="F67">
+        <v>0.14093669595931499</v>
+      </c>
+      <c r="G67">
+        <v>0.129786297081081</v>
+      </c>
+      <c r="H67">
+        <v>9</v>
+      </c>
+      <c r="I67">
+        <v>100</v>
+      </c>
+      <c r="J67">
+        <v>0.5</v>
+      </c>
+      <c r="K67">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="68" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E68">
+        <v>4.3503671937329E-2</v>
+      </c>
+      <c r="F68">
+        <v>0.14094177933843699</v>
+      </c>
+      <c r="G68">
+        <v>0.13007187550543001</v>
+      </c>
+      <c r="H68">
+        <v>7</v>
+      </c>
+      <c r="I68">
+        <v>100</v>
+      </c>
+      <c r="J68">
+        <v>0.5</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E69">
+        <v>9.3148107600497299E-2</v>
+      </c>
+      <c r="F69">
+        <v>0.140942433164603</v>
+      </c>
+      <c r="G69">
+        <v>0.13591533960007099</v>
+      </c>
+      <c r="H69">
+        <v>3</v>
+      </c>
+      <c r="I69">
+        <v>100</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="70" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E70">
+        <v>3.03817741655798E-2</v>
+      </c>
+      <c r="F70">
+        <v>0.140977495254482</v>
+      </c>
+      <c r="G70">
+        <v>0.13553353465812801</v>
+      </c>
+      <c r="H70">
+        <v>9</v>
+      </c>
+      <c r="I70">
+        <v>100</v>
+      </c>
+      <c r="J70">
+        <v>0.5</v>
+      </c>
+      <c r="K70">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="71" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E71">
+        <v>0.101986775561705</v>
+      </c>
+      <c r="F71">
+        <v>0.140984210738683</v>
+      </c>
+      <c r="G71">
+        <v>0.142196342495851</v>
+      </c>
+      <c r="H71">
+        <v>3</v>
+      </c>
+      <c r="I71">
+        <v>100</v>
+      </c>
+      <c r="J71">
+        <v>0.25</v>
+      </c>
+      <c r="K71">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="72" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E72">
+        <v>9.5134145230288403E-2</v>
+      </c>
+      <c r="F72">
+        <v>0.14104285042166301</v>
+      </c>
+      <c r="G72">
+        <v>0.135039068758223</v>
+      </c>
+      <c r="H72">
+        <v>3</v>
+      </c>
+      <c r="I72">
+        <v>100</v>
+      </c>
+      <c r="J72">
+        <v>0.5</v>
+      </c>
+      <c r="K72">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="73" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E73">
+        <v>9.4542848240313296E-2</v>
+      </c>
+      <c r="F73">
+        <v>0.14105958152251899</v>
+      </c>
+      <c r="G73">
+        <v>0.13585630827398201</v>
+      </c>
+      <c r="H73">
+        <v>3</v>
+      </c>
+      <c r="I73">
+        <v>100</v>
+      </c>
+      <c r="J73">
+        <v>0.75</v>
+      </c>
+      <c r="K73">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="74" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E74">
+        <v>7.9839701277313796E-2</v>
+      </c>
+      <c r="F74">
+        <v>0.14107096856155399</v>
+      </c>
+      <c r="G74">
+        <v>0.14262402928377699</v>
+      </c>
+      <c r="H74">
+        <v>5</v>
+      </c>
+      <c r="I74">
+        <v>100</v>
+      </c>
+      <c r="J74">
+        <v>0.25</v>
+      </c>
+      <c r="K74">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="75" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E75">
+        <v>4.4469272783881998E-2</v>
+      </c>
+      <c r="F75">
+        <v>0.14117383327442001</v>
+      </c>
+      <c r="G75">
+        <v>0.12972016954839299</v>
+      </c>
+      <c r="H75">
+        <v>7</v>
+      </c>
+      <c r="I75">
+        <v>100</v>
+      </c>
+      <c r="J75">
+        <v>0.75</v>
+      </c>
+      <c r="K75">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="76" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E76">
+        <v>9.7275718477920506E-2</v>
+      </c>
+      <c r="F76">
+        <v>0.141200183492669</v>
+      </c>
+      <c r="G76">
+        <v>0.138305989798027</v>
+      </c>
+      <c r="H76">
+        <v>3</v>
+      </c>
+      <c r="I76">
+        <v>100</v>
+      </c>
+      <c r="J76">
+        <v>0.5</v>
+      </c>
+      <c r="K76">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="77" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E77">
+        <v>3.6097119770129901E-2</v>
+      </c>
+      <c r="F77">
+        <v>0.14121930261166499</v>
+      </c>
+      <c r="G77">
+        <v>0.13050808800104299</v>
+      </c>
+      <c r="H77">
+        <v>8</v>
+      </c>
+      <c r="I77">
+        <v>100</v>
+      </c>
+      <c r="J77">
+        <v>0.5</v>
+      </c>
+      <c r="K77">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="78" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E78">
+        <v>2.6348858389867801E-2</v>
+      </c>
+      <c r="F78">
+        <v>0.14129806847795801</v>
+      </c>
+      <c r="G78">
+        <v>0.132671188045725</v>
+      </c>
+      <c r="H78">
+        <v>10</v>
+      </c>
+      <c r="I78">
+        <v>100</v>
+      </c>
+      <c r="J78">
+        <v>0.75</v>
+      </c>
+      <c r="K78">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="79" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E79">
+        <v>9.4290023962434993E-2</v>
+      </c>
+      <c r="F79">
+        <v>0.14137081428914799</v>
+      </c>
+      <c r="G79">
+        <v>0.13783858690864001</v>
+      </c>
+      <c r="H79">
+        <v>3</v>
+      </c>
+      <c r="I79">
+        <v>100</v>
+      </c>
+      <c r="J79">
+        <v>0.5</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E80">
+        <v>6.5202340494773095E-2</v>
+      </c>
+      <c r="F80">
+        <v>0.14140533184276999</v>
+      </c>
+      <c r="G80">
+        <v>0.13079818485737199</v>
+      </c>
+      <c r="H80">
+        <v>5</v>
+      </c>
+      <c r="I80">
+        <v>100</v>
+      </c>
+      <c r="J80">
+        <v>0.75</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E81">
+        <v>7.7734911897572298E-2</v>
+      </c>
+      <c r="F81">
+        <v>0.141460468643199</v>
+      </c>
+      <c r="G81">
+        <v>0.132060655058094</v>
+      </c>
+      <c r="H81">
+        <v>4</v>
+      </c>
+      <c r="I81">
+        <v>100</v>
+      </c>
+      <c r="J81">
+        <v>0.75</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E82">
+        <v>4.36547521403935E-2</v>
+      </c>
+      <c r="F82">
+        <v>0.141470710605928</v>
+      </c>
+      <c r="G82">
+        <v>0.12877954850562301</v>
+      </c>
+      <c r="H82">
+        <v>7</v>
+      </c>
+      <c r="I82">
+        <v>100</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="83" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E83">
+        <v>4.2616342296398199E-2</v>
+      </c>
+      <c r="F83">
+        <v>0.14151146786336</v>
+      </c>
+      <c r="G83">
+        <v>0.139147353250552</v>
+      </c>
+      <c r="H83">
+        <v>9</v>
+      </c>
+      <c r="I83">
+        <v>100</v>
+      </c>
+      <c r="J83">
+        <v>0.25</v>
+      </c>
+      <c r="K83">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="84" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E84">
+        <v>5.1177890073324399E-2</v>
+      </c>
+      <c r="F84">
+        <v>0.14153241057953</v>
+      </c>
+      <c r="G84">
+        <v>0.131108008429245</v>
+      </c>
+      <c r="H84">
+        <v>6</v>
+      </c>
+      <c r="I84">
+        <v>100</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="85" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E85">
+        <v>7.5732849427598503E-2</v>
+      </c>
+      <c r="F85">
+        <v>0.141558122966431</v>
+      </c>
+      <c r="G85">
+        <v>0.13240736300669201</v>
+      </c>
+      <c r="H85">
+        <v>4</v>
+      </c>
+      <c r="I85">
+        <v>100</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="86" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E86">
+        <v>2.28624408462955E-2</v>
+      </c>
+      <c r="F86">
+        <v>0.141626787397829</v>
+      </c>
+      <c r="G86">
+        <v>0.12969858184061001</v>
+      </c>
+      <c r="H86">
+        <v>10</v>
+      </c>
+      <c r="I86">
+        <v>100</v>
+      </c>
+      <c r="J86">
+        <v>0.5</v>
+      </c>
+      <c r="K86">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="87" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E87">
+        <v>9.23893846011766E-2</v>
+      </c>
+      <c r="F87">
+        <v>0.14163253642453899</v>
+      </c>
+      <c r="G87">
+        <v>0.13700418970021</v>
+      </c>
+      <c r="H87">
+        <v>3</v>
+      </c>
+      <c r="I87">
+        <v>100</v>
+      </c>
+      <c r="J87">
+        <v>0.75</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E88">
+        <v>2.4366834238105099E-2</v>
+      </c>
+      <c r="F88">
+        <v>0.14173544182682901</v>
+      </c>
+      <c r="G88">
+        <v>0.136091582609671</v>
+      </c>
+      <c r="H88">
+        <v>10</v>
+      </c>
+      <c r="I88">
+        <v>100</v>
+      </c>
+      <c r="J88">
+        <v>0.25</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E89">
+        <v>5.0979390806011798E-2</v>
+      </c>
+      <c r="F89">
+        <v>0.14174182888753201</v>
+      </c>
+      <c r="G89">
+        <v>0.139927340548197</v>
+      </c>
+      <c r="H89">
+        <v>8</v>
+      </c>
+      <c r="I89">
+        <v>100</v>
+      </c>
+      <c r="J89">
+        <v>0.25</v>
+      </c>
+      <c r="K89">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="90" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E90">
+        <v>5.26670926176111E-2</v>
+      </c>
+      <c r="F90">
+        <v>0.14176524237011001</v>
+      </c>
+      <c r="G90">
+        <v>0.13125336708400201</v>
+      </c>
+      <c r="H90">
+        <v>6</v>
+      </c>
+      <c r="I90">
+        <v>100</v>
+      </c>
+      <c r="J90">
+        <v>0.75</v>
+      </c>
+      <c r="K90">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="91" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E91">
+        <v>3.9495585682562298E-2</v>
+      </c>
+      <c r="F91">
+        <v>0.14176634637948601</v>
+      </c>
+      <c r="G91">
+        <v>0.13608781267753201</v>
+      </c>
+      <c r="H91">
+        <v>8</v>
+      </c>
+      <c r="I91">
+        <v>100</v>
+      </c>
+      <c r="J91">
+        <v>0.25</v>
+      </c>
+      <c r="K91">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="92" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E92">
+        <v>5.29139868895626E-2</v>
+      </c>
+      <c r="F92">
+        <v>0.14180083011053299</v>
+      </c>
+      <c r="G92">
+        <v>0.13042215397080401</v>
+      </c>
+      <c r="H92">
+        <v>6</v>
+      </c>
+      <c r="I92">
+        <v>100</v>
+      </c>
+      <c r="J92">
+        <v>0.75</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E93">
+        <v>3.6333583854499002E-2</v>
+      </c>
+      <c r="F93">
+        <v>0.141810505766956</v>
+      </c>
+      <c r="G93">
+        <v>0.13007232887037401</v>
+      </c>
+      <c r="H93">
+        <v>8</v>
+      </c>
+      <c r="I93">
+        <v>100</v>
+      </c>
+      <c r="J93">
+        <v>0.75</v>
+      </c>
+      <c r="K93">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="94" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E94">
+        <v>5.8455551006406398E-2</v>
+      </c>
+      <c r="F94">
+        <v>0.14181597359866399</v>
+      </c>
+      <c r="G94">
+        <v>0.13953043844065999</v>
+      </c>
+      <c r="H94">
+        <v>7</v>
+      </c>
+      <c r="I94">
+        <v>100</v>
+      </c>
+      <c r="J94">
+        <v>0.25</v>
+      </c>
+      <c r="K94">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="95" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E95">
+        <v>2.81697043182111E-2</v>
+      </c>
+      <c r="F95">
+        <v>0.14187078427501401</v>
+      </c>
+      <c r="G95">
+        <v>0.12771484936493799</v>
+      </c>
+      <c r="H95">
+        <v>9</v>
+      </c>
+      <c r="I95">
+        <v>100</v>
+      </c>
+      <c r="J95">
+        <v>0.75</v>
+      </c>
+      <c r="K95">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="96" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E96">
+        <v>6.4591518666357706E-2</v>
+      </c>
+      <c r="F96">
+        <v>0.141898800479002</v>
+      </c>
+      <c r="G96">
+        <v>0.131993283388911</v>
+      </c>
+      <c r="H96">
+        <v>5</v>
+      </c>
+      <c r="I96">
+        <v>100</v>
+      </c>
+      <c r="J96">
+        <v>0.75</v>
+      </c>
+      <c r="K96">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="97" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E97">
+        <v>2.7802752546858399E-2</v>
+      </c>
+      <c r="F97">
+        <v>0.14190855412216</v>
+      </c>
+      <c r="G97">
+        <v>0.132463072403319</v>
+      </c>
+      <c r="H97">
+        <v>9</v>
+      </c>
+      <c r="I97">
+        <v>100</v>
+      </c>
+      <c r="J97">
+        <v>0.5</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E98">
+        <v>3.4974222002472702E-2</v>
+      </c>
+      <c r="F98">
+        <v>0.14198608032304399</v>
+      </c>
+      <c r="G98">
+        <v>0.12936891617402799</v>
+      </c>
+      <c r="H98">
+        <v>8</v>
+      </c>
+      <c r="I98">
+        <v>100</v>
+      </c>
+      <c r="J98">
+        <v>0.5</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E99">
+        <v>3.09809610686121E-2</v>
+      </c>
+      <c r="F99">
+        <v>0.142029403698921</v>
+      </c>
+      <c r="G99">
+        <v>0.13145715075756201</v>
+      </c>
+      <c r="H99">
+        <v>9</v>
+      </c>
+      <c r="I99">
+        <v>100</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="100" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E100">
+        <v>6.3987138796872997E-2</v>
+      </c>
+      <c r="F100">
+        <v>0.14204827526489</v>
+      </c>
+      <c r="G100">
+        <v>0.13031548909047</v>
+      </c>
+      <c r="H100">
+        <v>5</v>
+      </c>
+      <c r="I100">
+        <v>100</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="101" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E101">
+        <v>9.2236008719597196E-2</v>
+      </c>
+      <c r="F101">
+        <v>0.14209734598814799</v>
+      </c>
+      <c r="G101">
+        <v>0.13629484652514001</v>
+      </c>
+      <c r="H101">
+        <v>3</v>
+      </c>
+      <c r="I101">
+        <v>100</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="102" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E102">
+        <v>9.4764908819603894E-2</v>
+      </c>
+      <c r="F102">
+        <v>0.14211564056487799</v>
+      </c>
+      <c r="G102">
+        <v>0.14267443540083</v>
+      </c>
+      <c r="H102">
+        <v>4</v>
+      </c>
+      <c r="I102">
+        <v>100</v>
+      </c>
+      <c r="J102">
+        <v>0.25</v>
+      </c>
+      <c r="K102">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="103" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E103">
+        <v>2.3170273249277701E-2</v>
+      </c>
+      <c r="F103">
+        <v>0.14214859077188699</v>
+      </c>
+      <c r="G103">
+        <v>0.130137778286014</v>
+      </c>
+      <c r="H103">
+        <v>10</v>
+      </c>
+      <c r="I103">
+        <v>100</v>
+      </c>
+      <c r="J103">
+        <v>0.75</v>
+      </c>
+      <c r="K103">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="104" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E104">
+        <v>3.4356839768019801E-2</v>
+      </c>
+      <c r="F104">
+        <v>0.142196409601623</v>
+      </c>
+      <c r="G104">
+        <v>0.13996428519208701</v>
+      </c>
+      <c r="H104">
+        <v>10</v>
+      </c>
+      <c r="I104">
+        <v>100</v>
+      </c>
+      <c r="J104">
+        <v>0.25</v>
+      </c>
+      <c r="K104">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="105" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E105">
+        <v>5.3763890624959301E-2</v>
+      </c>
+      <c r="F105">
+        <v>0.14225897461970999</v>
+      </c>
+      <c r="G105">
+        <v>0.12637356338866901</v>
+      </c>
+      <c r="H105">
+        <v>6</v>
+      </c>
+      <c r="I105">
+        <v>100</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="106" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E106">
+        <v>4.3601081879034997E-2</v>
+      </c>
+      <c r="F106">
+        <v>0.14227795077810099</v>
+      </c>
+      <c r="G106">
+        <v>0.129426417851117</v>
+      </c>
+      <c r="H106">
+        <v>7</v>
+      </c>
+      <c r="I106">
+        <v>100</v>
+      </c>
+      <c r="J106">
+        <v>0.75</v>
+      </c>
+      <c r="K106">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="107" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E107">
+        <v>2.3234964881560301E-2</v>
+      </c>
+      <c r="F107">
+        <v>0.142283885833941</v>
+      </c>
+      <c r="G107">
+        <v>0.13259540381059601</v>
+      </c>
+      <c r="H107">
+        <v>10</v>
+      </c>
+      <c r="I107">
+        <v>100</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="108" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E108">
+        <v>3.6192297255146298E-2</v>
+      </c>
+      <c r="F108">
+        <v>0.14229871554094001</v>
+      </c>
+      <c r="G108">
+        <v>0.127697907092685</v>
+      </c>
+      <c r="H108">
+        <v>8</v>
+      </c>
+      <c r="I108">
+        <v>100</v>
+      </c>
+      <c r="J108">
+        <v>0.75</v>
+      </c>
+      <c r="K108">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="109" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E109">
+        <v>3.1772884799694798E-2</v>
+      </c>
+      <c r="F109">
+        <v>0.14240285886465201</v>
+      </c>
+      <c r="G109">
+        <v>0.13450878182943801</v>
+      </c>
+      <c r="H109">
+        <v>9</v>
+      </c>
+      <c r="I109">
+        <v>100</v>
+      </c>
+      <c r="J109">
+        <v>0.25</v>
+      </c>
+      <c r="K109">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="110" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E110">
+        <v>3.6157968803261199E-2</v>
+      </c>
+      <c r="F110">
+        <v>0.14245030268202999</v>
+      </c>
+      <c r="G110">
+        <v>0.12884193011500999</v>
+      </c>
+      <c r="H110">
+        <v>8</v>
+      </c>
+      <c r="I110">
+        <v>100</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="111" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E111">
+        <v>2.1843036749484498E-2</v>
+      </c>
+      <c r="F111">
+        <v>0.142456182326996</v>
+      </c>
+      <c r="G111">
+        <v>0.13031015506659599</v>
+      </c>
+      <c r="H111">
+        <v>10</v>
+      </c>
+      <c r="I111">
+        <v>100</v>
+      </c>
+      <c r="J111">
+        <v>0.5</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E112">
+        <v>2.9655197657205101E-2</v>
+      </c>
+      <c r="F112">
+        <v>0.14249140802089799</v>
+      </c>
+      <c r="G112">
+        <v>0.13042954166561399</v>
+      </c>
+      <c r="H112">
+        <v>9</v>
+      </c>
+      <c r="I112">
+        <v>100</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="113" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E113">
+        <v>2.5863165050938101E-2</v>
+      </c>
+      <c r="F113">
+        <v>0.142502873423209</v>
+      </c>
+      <c r="G113">
+        <v>0.13497768882411901</v>
+      </c>
+      <c r="H113">
+        <v>10</v>
+      </c>
+      <c r="I113">
+        <v>100</v>
+      </c>
+      <c r="J113">
+        <v>0.25</v>
+      </c>
+      <c r="K113">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="114" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E114">
+        <v>4.4494436930890301E-2</v>
+      </c>
+      <c r="F114">
+        <v>0.14253403976439499</v>
+      </c>
+      <c r="G114">
+        <v>0.12987824786830601</v>
+      </c>
+      <c r="H114">
+        <v>7</v>
+      </c>
+      <c r="I114">
+        <v>100</v>
+      </c>
+      <c r="J114">
+        <v>0.75</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E115">
+        <v>3.5376458442577002E-2</v>
+      </c>
+      <c r="F115">
+        <v>0.14260768833693899</v>
+      </c>
+      <c r="G115">
+        <v>0.13222240785846001</v>
+      </c>
+      <c r="H115">
+        <v>8</v>
+      </c>
+      <c r="I115">
+        <v>100</v>
+      </c>
+      <c r="J115">
+        <v>0.75</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E116">
+        <v>9.0888987847951297E-2</v>
+      </c>
+      <c r="F116">
+        <v>0.14283751796362801</v>
+      </c>
+      <c r="G116">
+        <v>0.13490930340828799</v>
+      </c>
+      <c r="H116">
+        <v>3</v>
+      </c>
+      <c r="I116">
+        <v>100</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E117">
+        <v>4.3283893233299502E-2</v>
+      </c>
+      <c r="F117">
+        <v>0.142881082674025</v>
+      </c>
+      <c r="G117">
+        <v>0.13001678648175799</v>
+      </c>
+      <c r="H117">
+        <v>7</v>
+      </c>
+      <c r="I117">
+        <v>100</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="118" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E118">
+        <v>2.0205100791268499E-2</v>
+      </c>
+      <c r="F118">
+        <v>0.14293033126275201</v>
+      </c>
+      <c r="G118">
+        <v>0.12801357847376599</v>
+      </c>
+      <c r="H118">
+        <v>10</v>
+      </c>
+      <c r="I118">
+        <v>100</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="119" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E119">
+        <v>2.65530029491125E-2</v>
+      </c>
+      <c r="F119">
+        <v>0.14295483720771601</v>
+      </c>
+      <c r="G119">
+        <v>0.126818638566249</v>
+      </c>
+      <c r="H119">
+        <v>9</v>
+      </c>
+      <c r="I119">
+        <v>100</v>
+      </c>
+      <c r="J119">
+        <v>0.75</v>
+      </c>
+      <c r="K119">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="120" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E120">
+        <v>3.5436512819829603E-2</v>
+      </c>
+      <c r="F120">
+        <v>0.14306865084964299</v>
+      </c>
+      <c r="G120">
+        <v>0.127617186078851</v>
+      </c>
+      <c r="H120">
+        <v>8</v>
+      </c>
+      <c r="I120">
+        <v>100</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="121" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E121">
+        <v>2.2504501632943898E-2</v>
+      </c>
+      <c r="F121">
+        <v>0.14316142006712201</v>
+      </c>
+      <c r="G121">
+        <v>0.12926446158246699</v>
+      </c>
+      <c r="H121">
+        <v>10</v>
+      </c>
+      <c r="I121">
+        <v>100</v>
+      </c>
+      <c r="J121">
+        <v>0.75</v>
+      </c>
+      <c r="K121">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="122" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E122">
+        <v>3.0427226330479101E-2</v>
+      </c>
+      <c r="F122">
+        <v>0.143274543461758</v>
+      </c>
+      <c r="G122">
+        <v>0.13010212090756601</v>
+      </c>
+      <c r="H122">
+        <v>9</v>
+      </c>
+      <c r="I122">
+        <v>100</v>
+      </c>
+      <c r="J122">
+        <v>0.75</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E123">
+        <v>7.6281799891940297E-2</v>
+      </c>
+      <c r="F123">
+        <v>0.14329165761893201</v>
+      </c>
+      <c r="G123">
+        <v>0.13119713704118599</v>
+      </c>
+      <c r="H123">
+        <v>4</v>
+      </c>
+      <c r="I123">
+        <v>100</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E124">
+        <v>2.1377671213171499E-2</v>
+      </c>
+      <c r="F124">
+        <v>0.14338651633458699</v>
+      </c>
+      <c r="G124">
+        <v>0.12832254259833201</v>
+      </c>
+      <c r="H124">
+        <v>10</v>
+      </c>
+      <c r="I124">
+        <v>100</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="125" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E125">
+        <v>2.20055343489239E-2</v>
+      </c>
+      <c r="F125">
+        <v>0.14356618125603801</v>
+      </c>
+      <c r="G125">
+        <v>0.13103142306896201</v>
+      </c>
+      <c r="H125">
+        <v>10</v>
+      </c>
+      <c r="I125">
+        <v>100</v>
+      </c>
+      <c r="J125">
+        <v>0.75</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E126">
+        <v>5.1931247864613103E-2</v>
+      </c>
+      <c r="F126">
+        <v>0.14360682057013799</v>
+      </c>
+      <c r="G126">
+        <v>0.129781515784022</v>
+      </c>
+      <c r="H126">
+        <v>6</v>
+      </c>
+      <c r="I126">
+        <v>100</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E127">
+        <v>6.2808700329961206E-2</v>
+      </c>
+      <c r="F127">
+        <v>0.14365825322172601</v>
+      </c>
+      <c r="G127">
+        <v>0.128811338250851</v>
+      </c>
+      <c r="H127">
+        <v>5</v>
+      </c>
+      <c r="I127">
+        <v>100</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E128">
+        <v>2.7713178835383299E-2</v>
+      </c>
+      <c r="F128">
+        <v>0.14387296783992301</v>
+      </c>
+      <c r="G128">
+        <v>0.12984122008403301</v>
+      </c>
+      <c r="H128">
+        <v>9</v>
+      </c>
+      <c r="I128">
+        <v>100</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="129" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E129">
+        <v>0.10677743248563901</v>
+      </c>
+      <c r="F129">
+        <v>0.144265339408753</v>
+      </c>
+      <c r="G129">
+        <v>0.15079246396353199</v>
+      </c>
+      <c r="H129">
+        <v>3</v>
+      </c>
+      <c r="I129">
+        <v>100</v>
+      </c>
+      <c r="J129">
+        <v>0.25</v>
+      </c>
+      <c r="K129">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="130" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E130">
+        <v>4.3628956226209999E-2</v>
+      </c>
+      <c r="F130">
+        <v>0.144741992345642</v>
+      </c>
+      <c r="G130">
+        <v>0.12782231830548799</v>
+      </c>
+      <c r="H130">
+        <v>7</v>
+      </c>
+      <c r="I130">
+        <v>100</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E131">
+        <v>2.6660587893961502E-2</v>
+      </c>
+      <c r="F131">
+        <v>0.14518848017585201</v>
+      </c>
+      <c r="G131">
+        <v>0.128358846975207</v>
+      </c>
+      <c r="H131">
+        <v>9</v>
+      </c>
+      <c r="I131">
+        <v>100</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E132">
+        <v>3.6222417656242102E-2</v>
+      </c>
+      <c r="F132">
+        <v>0.14539908471176999</v>
+      </c>
+      <c r="G132">
+        <v>0.126166192376271</v>
+      </c>
+      <c r="H132">
+        <v>8</v>
+      </c>
+      <c r="I132">
+        <v>100</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E133">
+        <v>2.1410874089536201E-2</v>
+      </c>
+      <c r="F133">
+        <v>0.14590835219585599</v>
+      </c>
+      <c r="G133">
+        <v>0.12720511019098099</v>
+      </c>
+      <c r="H133">
+        <v>10</v>
+      </c>
+      <c r="I133">
+        <v>100</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="J134" s="2"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="E5:K5" xr:uid="{3E7EEA87-F5BE-4197-977D-CE3A9DF4918B}">
+    <sortState ref="E6:K133">
+      <sortCondition ref="F5"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB478E8-32DD-4783-8FF6-65BFD7CCC6AE}">
+  <dimension ref="D4:J132"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="4" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>7.4813550528851705E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.139777077855679</v>
+      </c>
+      <c r="F5">
+        <v>0.13618530541239801</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>0.25</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <v>8.0025392441383E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.13986356223381799</v>
+      </c>
+      <c r="F6">
+        <v>0.136130058970659</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <v>6.7609379085100701E-2</v>
+      </c>
+      <c r="E7">
+        <v>0.13988080660081001</v>
+      </c>
+      <c r="F7">
+        <v>0.13675442222631001</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <v>0.25</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <v>8.3100343876314903E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.139904246668174</v>
+      </c>
+      <c r="F8">
+        <v>0.138165957172453</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <v>0.25</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D9">
+        <v>8.4082250806506401E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.14016426527127701</v>
+      </c>
+      <c r="F9">
+        <v>0.142037806796492</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>0.25</v>
+      </c>
+      <c r="J9">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D10">
+        <v>6.31060496989201E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.14018241704531001</v>
+      </c>
+      <c r="F10">
+        <v>0.13625903148034599</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="I10">
+        <v>0.25</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D11">
+        <v>7.9507686843864903E-2</v>
+      </c>
+      <c r="E11">
+        <v>0.140184167026777</v>
+      </c>
+      <c r="F11">
+        <v>0.14012803057356399</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="I11">
+        <v>0.5</v>
+      </c>
+      <c r="J11">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D12">
+        <v>8.8800400503794605E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.140345721955281</v>
+      </c>
+      <c r="F12">
+        <v>0.13922604713206799</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>100</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D13">
+        <v>9.1703258826220005E-2</v>
+      </c>
+      <c r="E13">
+        <v>0.14035491995001401</v>
+      </c>
+      <c r="F13">
+        <v>0.13982472966927001</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+      <c r="I13">
+        <v>0.25</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D14">
+        <v>7.0990926632844398E-2</v>
+      </c>
+      <c r="E14">
+        <v>0.140372506439399</v>
+      </c>
+      <c r="F14">
+        <v>0.13477702373868999</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D15">
+        <v>5.9483694832499601E-2</v>
+      </c>
+      <c r="E15">
+        <v>0.14038411569796</v>
+      </c>
+      <c r="F15">
+        <v>0.135654504156141</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>0.25</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D16">
+        <v>6.2687646621368207E-2</v>
+      </c>
+      <c r="E16">
+        <v>0.14047549306033999</v>
+      </c>
+      <c r="F16">
+        <v>0.13424539959401599</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="H16">
+        <v>100</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D17">
+        <v>7.1840327252656697E-2</v>
+      </c>
+      <c r="E17">
+        <v>0.14048939568763899</v>
+      </c>
+      <c r="F17">
+        <v>0.13735297998607901</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <v>100</v>
+      </c>
+      <c r="I17">
+        <v>0.5</v>
+      </c>
+      <c r="J17">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D18">
+        <v>5.6835424586005198E-2</v>
+      </c>
+      <c r="E18">
+        <v>0.140490322017051</v>
+      </c>
+      <c r="F18">
+        <v>0.135092319588027</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>100</v>
+      </c>
+      <c r="I18">
+        <v>0.25</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <v>6.6200020766780499E-2</v>
+      </c>
+      <c r="E19">
+        <v>0.140500651253953</v>
+      </c>
+      <c r="F19">
+        <v>0.13716434733828101</v>
+      </c>
+      <c r="G19">
+        <v>8</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+      <c r="I19">
+        <v>0.5</v>
+      </c>
+      <c r="J19">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D20">
+        <v>7.3628996965692403E-2</v>
+      </c>
+      <c r="E20">
+        <v>0.14053613989395999</v>
+      </c>
+      <c r="F20">
+        <v>0.135480788818793</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>100</v>
+      </c>
+      <c r="I20">
+        <v>0.75</v>
+      </c>
+      <c r="J20">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D21">
+        <v>7.8256087225979307E-2</v>
+      </c>
+      <c r="E21">
+        <v>0.14063359473694401</v>
+      </c>
+      <c r="F21">
+        <v>0.13225566115881399</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>100</v>
+      </c>
+      <c r="I21">
+        <v>0.5</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D22">
+        <v>5.6264163209442997E-2</v>
+      </c>
+      <c r="E22">
+        <v>0.140672834485016</v>
+      </c>
+      <c r="F22">
+        <v>0.13470879669305399</v>
+      </c>
+      <c r="G22">
+        <v>9</v>
+      </c>
+      <c r="H22">
+        <v>100</v>
+      </c>
+      <c r="I22">
+        <v>0.75</v>
+      </c>
+      <c r="J22">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D23">
+        <v>6.6421900875597503E-2</v>
+      </c>
+      <c r="E23">
+        <v>0.14069851192527599</v>
+      </c>
+      <c r="F23">
+        <v>0.13712362423270599</v>
+      </c>
+      <c r="G23">
+        <v>7</v>
+      </c>
+      <c r="H23">
+        <v>100</v>
+      </c>
+      <c r="I23">
+        <v>0.75</v>
+      </c>
+      <c r="J23">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D24">
+        <v>8.6174373440086896E-2</v>
+      </c>
+      <c r="E24">
+        <v>0.140714214594545</v>
+      </c>
+      <c r="F24">
+        <v>0.140387838513295</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>100</v>
+      </c>
+      <c r="I24">
+        <v>0.5</v>
+      </c>
+      <c r="J24">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D25">
+        <v>6.16227351427696E-2</v>
+      </c>
+      <c r="E25">
+        <v>0.14075818687804401</v>
+      </c>
+      <c r="F25">
+        <v>0.136099694732779</v>
+      </c>
+      <c r="G25">
+        <v>9</v>
+      </c>
+      <c r="H25">
+        <v>100</v>
+      </c>
+      <c r="I25">
+        <v>0.5</v>
+      </c>
+      <c r="J25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D26">
+        <v>5.79074030452435E-2</v>
+      </c>
+      <c r="E26">
+        <v>0.140858008029321</v>
+      </c>
+      <c r="F26">
+        <v>0.13726260960046899</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>100</v>
+      </c>
+      <c r="I26">
+        <v>0.5</v>
+      </c>
+      <c r="J26">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="27" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D27">
+        <v>5.9937203322185197E-2</v>
+      </c>
+      <c r="E27">
+        <v>0.140869477480698</v>
+      </c>
+      <c r="F27">
+        <v>0.13339064623395799</v>
+      </c>
+      <c r="G27">
+        <v>8</v>
+      </c>
+      <c r="H27">
+        <v>100</v>
+      </c>
+      <c r="I27">
+        <v>0.75</v>
+      </c>
+      <c r="J27">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D28">
+        <v>6.2997980135837198E-2</v>
+      </c>
+      <c r="E28">
+        <v>0.14098737763639299</v>
+      </c>
+      <c r="F28">
+        <v>0.14021579778361501</v>
+      </c>
+      <c r="G28">
+        <v>8</v>
+      </c>
+      <c r="H28">
+        <v>100</v>
+      </c>
+      <c r="I28">
+        <v>0.25</v>
+      </c>
+      <c r="J28">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="29" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D29">
+        <v>9.3169234213645397E-2</v>
+      </c>
+      <c r="E29">
+        <v>0.14103250127571401</v>
+      </c>
+      <c r="F29">
+        <v>0.14208231886379</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="H29">
+        <v>100</v>
+      </c>
+      <c r="I29">
+        <v>0.25</v>
+      </c>
+      <c r="J29">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="30" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D30">
+        <v>5.5978242930281599E-2</v>
+      </c>
+      <c r="E30">
+        <v>0.14104382976919699</v>
+      </c>
+      <c r="F30">
+        <v>0.13190860313058</v>
+      </c>
+      <c r="G30">
+        <v>8</v>
+      </c>
+      <c r="H30">
+        <v>100</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="31" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D31">
+        <v>8.6706449989694304E-2</v>
+      </c>
+      <c r="E31">
+        <v>0.141056848447071</v>
+      </c>
+      <c r="F31">
+        <v>0.14601215316520699</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31">
+        <v>100</v>
+      </c>
+      <c r="I31">
+        <v>0.25</v>
+      </c>
+      <c r="J31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D32">
+        <v>8.7118255306830802E-2</v>
+      </c>
+      <c r="E32">
+        <v>0.141078634288031</v>
+      </c>
+      <c r="F32">
+        <v>0.13729147408589201</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <v>100</v>
+      </c>
+      <c r="I32">
+        <v>0.5</v>
+      </c>
+      <c r="J32">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D33">
+        <v>7.6799492154107807E-2</v>
+      </c>
+      <c r="E33">
+        <v>0.14111764405327501</v>
+      </c>
+      <c r="F33">
+        <v>0.13558863930648901</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <v>100</v>
+      </c>
+      <c r="I33">
+        <v>0.75</v>
+      </c>
+      <c r="J33">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D34">
+        <v>8.3366859762100398E-2</v>
+      </c>
+      <c r="E34">
+        <v>0.14115137773907499</v>
+      </c>
+      <c r="F34">
+        <v>0.13551593565549799</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34">
+        <v>100</v>
+      </c>
+      <c r="I34">
+        <v>0.75</v>
+      </c>
+      <c r="J34">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D35">
+        <v>5.2232365772716102E-2</v>
+      </c>
+      <c r="E35">
+        <v>0.14117818237254501</v>
+      </c>
+      <c r="F35">
+        <v>0.134278593177348</v>
+      </c>
+      <c r="G35">
+        <v>10</v>
+      </c>
+      <c r="H35">
+        <v>100</v>
+      </c>
+      <c r="I35">
+        <v>0.75</v>
+      </c>
+      <c r="J35">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D36">
+        <v>6.8624010083137094E-2</v>
+      </c>
+      <c r="E36">
+        <v>0.14118218024295801</v>
+      </c>
+      <c r="F36">
+        <v>0.13210984214110499</v>
+      </c>
+      <c r="G36">
+        <v>6</v>
+      </c>
+      <c r="H36">
+        <v>100</v>
+      </c>
+      <c r="I36">
+        <v>0.5</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D37">
+        <v>8.6961749628060997E-2</v>
+      </c>
+      <c r="E37">
+        <v>0.141182732880897</v>
+      </c>
+      <c r="F37">
+        <v>0.13466453875613901</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="H37">
+        <v>100</v>
+      </c>
+      <c r="I37">
+        <v>0.5</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D38">
+        <v>7.8284899699201105E-2</v>
+      </c>
+      <c r="E38">
+        <v>0.14119488098010999</v>
+      </c>
+      <c r="F38">
+        <v>0.133777676076795</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38">
+        <v>100</v>
+      </c>
+      <c r="I38">
+        <v>0.5</v>
+      </c>
+      <c r="J38">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="39" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D39">
+        <v>7.1781310079387803E-2</v>
+      </c>
+      <c r="E39">
+        <v>0.14120163985905501</v>
+      </c>
+      <c r="F39">
+        <v>0.13448948196423299</v>
+      </c>
+      <c r="G39">
+        <v>6</v>
+      </c>
+      <c r="H39">
+        <v>100</v>
+      </c>
+      <c r="I39">
+        <v>0.5</v>
+      </c>
+      <c r="J39">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D40">
+        <v>7.6232022317389098E-2</v>
+      </c>
+      <c r="E40">
+        <v>0.14121107705137201</v>
+      </c>
+      <c r="F40">
+        <v>0.130467408730919</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="H40">
+        <v>100</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D41">
+        <v>6.5841666454087705E-2</v>
+      </c>
+      <c r="E41">
+        <v>0.14123604418860999</v>
+      </c>
+      <c r="F41">
+        <v>0.13954054878395</v>
+      </c>
+      <c r="G41">
+        <v>8</v>
+      </c>
+      <c r="H41">
+        <v>100</v>
+      </c>
+      <c r="I41">
+        <v>0.25</v>
+      </c>
+      <c r="J41">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D42">
+        <v>5.1613064674785297E-2</v>
+      </c>
+      <c r="E42">
+        <v>0.141268423558644</v>
+      </c>
+      <c r="F42">
+        <v>0.13327191324405899</v>
+      </c>
+      <c r="G42">
+        <v>10</v>
+      </c>
+      <c r="H42">
+        <v>100</v>
+      </c>
+      <c r="I42">
+        <v>0.5</v>
+      </c>
+      <c r="J42">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D43">
+        <v>5.9804973523721501E-2</v>
+      </c>
+      <c r="E43">
+        <v>0.141296406543551</v>
+      </c>
+      <c r="F43">
+        <v>0.141044231377881</v>
+      </c>
+      <c r="G43">
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <v>100</v>
+      </c>
+      <c r="I43">
+        <v>0.25</v>
+      </c>
+      <c r="J43">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D44">
+        <v>6.1434140830587701E-2</v>
+      </c>
+      <c r="E44">
+        <v>0.141330872480217</v>
+      </c>
+      <c r="F44">
+        <v>0.13043629941226001</v>
+      </c>
+      <c r="G44">
+        <v>7</v>
+      </c>
+      <c r="H44">
+        <v>100</v>
+      </c>
+      <c r="I44">
+        <v>0.5</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D45">
+        <v>7.5689442932094994E-2</v>
+      </c>
+      <c r="E45">
+        <v>0.14134302280307101</v>
+      </c>
+      <c r="F45">
+        <v>0.139548051425849</v>
+      </c>
+      <c r="G45">
+        <v>6</v>
+      </c>
+      <c r="H45">
+        <v>100</v>
+      </c>
+      <c r="I45">
+        <v>0.25</v>
+      </c>
+      <c r="J45">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="46" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D46">
+        <v>5.7679722169150703E-2</v>
+      </c>
+      <c r="E46">
+        <v>0.141370910491494</v>
+      </c>
+      <c r="F46">
+        <v>0.13777297408018499</v>
+      </c>
+      <c r="G46">
+        <v>10</v>
+      </c>
+      <c r="H46">
+        <v>100</v>
+      </c>
+      <c r="I46">
+        <v>0.25</v>
+      </c>
+      <c r="J46">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="47" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D47">
+        <v>9.1077967507116706E-2</v>
+      </c>
+      <c r="E47">
+        <v>0.14137565390858101</v>
+      </c>
+      <c r="F47">
+        <v>0.13910841142637001</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+      <c r="H47">
+        <v>100</v>
+      </c>
+      <c r="I47">
+        <v>0.75</v>
+      </c>
+      <c r="J47">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="48" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D48">
+        <v>5.2294103021692802E-2</v>
+      </c>
+      <c r="E48">
+        <v>0.141378306539332</v>
+      </c>
+      <c r="F48">
+        <v>0.134474576166384</v>
+      </c>
+      <c r="G48">
+        <v>9</v>
+      </c>
+      <c r="H48">
+        <v>100</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="49" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D49">
+        <v>7.9574646201017604E-2</v>
+      </c>
+      <c r="E49">
+        <v>0.141405095176447</v>
+      </c>
+      <c r="F49">
+        <v>0.13684244704556001</v>
+      </c>
+      <c r="G49">
+        <v>5</v>
+      </c>
+      <c r="H49">
+        <v>100</v>
+      </c>
+      <c r="I49">
+        <v>0.5</v>
+      </c>
+      <c r="J49">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D50">
+        <v>5.5596560520166899E-2</v>
+      </c>
+      <c r="E50">
+        <v>0.14147955728366801</v>
+      </c>
+      <c r="F50">
+        <v>0.13212594979608999</v>
+      </c>
+      <c r="G50">
+        <v>8</v>
+      </c>
+      <c r="H50">
+        <v>100</v>
+      </c>
+      <c r="I50">
+        <v>0.5</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D51">
+        <v>6.5385536915681206E-2</v>
+      </c>
+      <c r="E51">
+        <v>0.14149121293243899</v>
+      </c>
+      <c r="F51">
+        <v>0.13286274517549099</v>
+      </c>
+      <c r="G51">
+        <v>7</v>
+      </c>
+      <c r="H51">
+        <v>100</v>
+      </c>
+      <c r="I51">
+        <v>0.5</v>
+      </c>
+      <c r="J51">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D52">
+        <v>6.0311998842940202E-2</v>
+      </c>
+      <c r="E52">
+        <v>0.14155982129516101</v>
+      </c>
+      <c r="F52">
+        <v>0.140531021870621</v>
+      </c>
+      <c r="G52">
+        <v>9</v>
+      </c>
+      <c r="H52">
+        <v>100</v>
+      </c>
+      <c r="I52">
+        <v>0.25</v>
+      </c>
+      <c r="J52">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="53" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D53">
+        <v>7.1857501572603205E-2</v>
+      </c>
+      <c r="E53">
+        <v>0.14157698429534199</v>
+      </c>
+      <c r="F53">
+        <v>0.139954705605805</v>
+      </c>
+      <c r="G53">
+        <v>7</v>
+      </c>
+      <c r="H53">
+        <v>100</v>
+      </c>
+      <c r="I53">
+        <v>0.25</v>
+      </c>
+      <c r="J53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D54">
+        <v>5.7185809946759002E-2</v>
+      </c>
+      <c r="E54">
+        <v>0.141579410868378</v>
+      </c>
+      <c r="F54">
+        <v>0.131380655976333</v>
+      </c>
+      <c r="G54">
+        <v>8</v>
+      </c>
+      <c r="H54">
+        <v>100</v>
+      </c>
+      <c r="I54">
+        <v>0.5</v>
+      </c>
+      <c r="J54">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="55" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D55">
+        <v>8.7028037379707504E-2</v>
+      </c>
+      <c r="E55">
+        <v>0.14159329794609901</v>
+      </c>
+      <c r="F55">
+        <v>0.13563742040311599</v>
+      </c>
+      <c r="G55">
+        <v>4</v>
+      </c>
+      <c r="H55">
+        <v>100</v>
+      </c>
+      <c r="I55">
+        <v>0.75</v>
+      </c>
+      <c r="J55">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D56">
+        <v>8.9760896219416103E-2</v>
+      </c>
+      <c r="E56">
+        <v>0.141626309902146</v>
+      </c>
+      <c r="F56">
+        <v>0.13962024814093699</v>
+      </c>
+      <c r="G56">
+        <v>4</v>
+      </c>
+      <c r="H56">
+        <v>100</v>
+      </c>
+      <c r="I56">
+        <v>0.5</v>
+      </c>
+      <c r="J56">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D57">
+        <v>6.8475584358620598E-2</v>
+      </c>
+      <c r="E57">
+        <v>0.141658409166873</v>
+      </c>
+      <c r="F57">
+        <v>0.13924371554593001</v>
+      </c>
+      <c r="G57">
+        <v>7</v>
+      </c>
+      <c r="H57">
+        <v>100</v>
+      </c>
+      <c r="I57">
+        <v>0.25</v>
+      </c>
+      <c r="J57">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="58" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D58">
+        <v>5.9272691271177798E-2</v>
+      </c>
+      <c r="E58">
+        <v>0.141673201902283</v>
+      </c>
+      <c r="F58">
+        <v>0.13392685970926399</v>
+      </c>
+      <c r="G58">
+        <v>8</v>
+      </c>
+      <c r="H58">
+        <v>100</v>
+      </c>
+      <c r="I58">
+        <v>0.5</v>
+      </c>
+      <c r="J58">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="59" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D59">
+        <v>6.2583682925888506E-2</v>
+      </c>
+      <c r="E59">
+        <v>0.14168466465587601</v>
+      </c>
+      <c r="F59">
+        <v>0.132529360777911</v>
+      </c>
+      <c r="G59">
+        <v>7</v>
+      </c>
+      <c r="H59">
+        <v>100</v>
+      </c>
+      <c r="I59">
+        <v>0.5</v>
+      </c>
+      <c r="J59">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="60" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D60">
+        <v>7.8301693759549901E-2</v>
+      </c>
+      <c r="E60">
+        <v>0.14172509614866899</v>
+      </c>
+      <c r="F60">
+        <v>0.14075851751170301</v>
+      </c>
+      <c r="G60">
+        <v>6</v>
+      </c>
+      <c r="H60">
+        <v>100</v>
+      </c>
+      <c r="I60">
+        <v>0.25</v>
+      </c>
+      <c r="J60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D61">
+        <v>9.6176048521430094E-2</v>
+      </c>
+      <c r="E61">
+        <v>0.14175582057858299</v>
+      </c>
+      <c r="F61">
+        <v>0.14315193305169199</v>
+      </c>
+      <c r="G61">
+        <v>4</v>
+      </c>
+      <c r="H61">
+        <v>100</v>
+      </c>
+      <c r="I61">
+        <v>0.5</v>
+      </c>
+      <c r="J61">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="62" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D62">
+        <v>6.9045537057646406E-2</v>
+      </c>
+      <c r="E62">
+        <v>0.14183771221934099</v>
+      </c>
+      <c r="F62">
+        <v>0.13512589548918699</v>
+      </c>
+      <c r="G62">
+        <v>6</v>
+      </c>
+      <c r="H62">
+        <v>100</v>
+      </c>
+      <c r="I62">
+        <v>0.5</v>
+      </c>
+      <c r="J62">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="63" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D63">
+        <v>6.2430143061121601E-2</v>
+      </c>
+      <c r="E63">
+        <v>0.141911736085791</v>
+      </c>
+      <c r="F63">
+        <v>0.13992714000718701</v>
+      </c>
+      <c r="G63">
+        <v>9</v>
+      </c>
+      <c r="H63">
+        <v>100</v>
+      </c>
+      <c r="I63">
+        <v>0.25</v>
+      </c>
+      <c r="J63">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="64" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D64">
+        <v>6.7623698408923905E-2</v>
+      </c>
+      <c r="E64">
+        <v>0.14191557041678601</v>
+      </c>
+      <c r="F64">
+        <v>0.13265454572246399</v>
+      </c>
+      <c r="G64">
+        <v>6</v>
+      </c>
+      <c r="H64">
+        <v>100</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="65" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D65">
+        <v>8.5328928390356704E-2</v>
+      </c>
+      <c r="E65">
+        <v>0.141920145303611</v>
+      </c>
+      <c r="F65">
+        <v>0.133951194457887</v>
+      </c>
+      <c r="G65">
+        <v>4</v>
+      </c>
+      <c r="H65">
+        <v>100</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="66" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D66">
+        <v>7.5864800183456094E-2</v>
+      </c>
+      <c r="E66">
+        <v>0.141931409314836</v>
+      </c>
+      <c r="F66">
+        <v>0.13168738411205799</v>
+      </c>
+      <c r="G66">
+        <v>5</v>
+      </c>
+      <c r="H66">
+        <v>100</v>
+      </c>
+      <c r="I66">
+        <v>0.75</v>
+      </c>
+      <c r="J66">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="67" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D67">
+        <v>8.8919063805565801E-2</v>
+      </c>
+      <c r="E67">
+        <v>0.14195668960118099</v>
+      </c>
+      <c r="F67">
+        <v>0.14821643364547701</v>
+      </c>
+      <c r="G67">
+        <v>6</v>
+      </c>
+      <c r="H67">
+        <v>100</v>
+      </c>
+      <c r="I67">
+        <v>0.25</v>
+      </c>
+      <c r="J67">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="68" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D68">
+        <v>8.4646846401143894E-2</v>
+      </c>
+      <c r="E68">
+        <v>0.141960068396001</v>
+      </c>
+      <c r="F68">
+        <v>0.135632902833248</v>
+      </c>
+      <c r="G68">
+        <v>4</v>
+      </c>
+      <c r="H68">
+        <v>100</v>
+      </c>
+      <c r="I68">
+        <v>0.75</v>
+      </c>
+      <c r="J68">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="69" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D69">
+        <v>0.102957886054172</v>
+      </c>
+      <c r="E69">
+        <v>0.14197457853923601</v>
+      </c>
+      <c r="F69">
+        <v>0.14505115013970701</v>
+      </c>
+      <c r="G69">
+        <v>3</v>
+      </c>
+      <c r="H69">
+        <v>100</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="70" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D70">
+        <v>6.9010709844199894E-2</v>
+      </c>
+      <c r="E70">
+        <v>0.141994744197808</v>
+      </c>
+      <c r="F70">
+        <v>0.13989674149925799</v>
+      </c>
+      <c r="G70">
+        <v>10</v>
+      </c>
+      <c r="H70">
+        <v>100</v>
+      </c>
+      <c r="I70">
+        <v>0.25</v>
+      </c>
+      <c r="J70">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="71" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D71">
+        <v>5.2619989829373499E-2</v>
+      </c>
+      <c r="E71">
+        <v>0.14199701018229799</v>
+      </c>
+      <c r="F71">
+        <v>0.13348286928362901</v>
+      </c>
+      <c r="G71">
+        <v>9</v>
+      </c>
+      <c r="H71">
+        <v>100</v>
+      </c>
+      <c r="I71">
+        <v>0.5</v>
+      </c>
+      <c r="J71">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="72" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D72">
+        <v>4.9426411406619103E-2</v>
+      </c>
+      <c r="E72">
+        <v>0.14207565789096599</v>
+      </c>
+      <c r="F72">
+        <v>0.131859089306847</v>
+      </c>
+      <c r="G72">
+        <v>10</v>
+      </c>
+      <c r="H72">
+        <v>100</v>
+      </c>
+      <c r="I72">
+        <v>0.5</v>
+      </c>
+      <c r="J72">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="73" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D73">
+        <v>8.5481426007886496E-2</v>
+      </c>
+      <c r="E73">
+        <v>0.142075860365379</v>
+      </c>
+      <c r="F73">
+        <v>0.133836213119509</v>
+      </c>
+      <c r="G73">
+        <v>4</v>
+      </c>
+      <c r="H73">
+        <v>100</v>
+      </c>
+      <c r="I73">
+        <v>0.75</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D74">
+        <v>5.1363768546585697E-2</v>
+      </c>
+      <c r="E74">
+        <v>0.14210935479509501</v>
+      </c>
+      <c r="F74">
+        <v>0.131291091842278</v>
+      </c>
+      <c r="G74">
+        <v>9</v>
+      </c>
+      <c r="H74">
+        <v>100</v>
+      </c>
+      <c r="I74">
+        <v>0.5</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D75">
+        <v>4.8320882439308301E-2</v>
+      </c>
+      <c r="E75">
+        <v>0.14214669856446399</v>
+      </c>
+      <c r="F75">
+        <v>0.130984059617367</v>
+      </c>
+      <c r="G75">
+        <v>10</v>
+      </c>
+      <c r="H75">
+        <v>100</v>
+      </c>
+      <c r="I75">
+        <v>0.5</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D76">
+        <v>6.7472473986972897E-2</v>
+      </c>
+      <c r="E76">
+        <v>0.14215062501676801</v>
+      </c>
+      <c r="F76">
+        <v>0.13138321831116601</v>
+      </c>
+      <c r="G76">
+        <v>6</v>
+      </c>
+      <c r="H76">
+        <v>100</v>
+      </c>
+      <c r="I76">
+        <v>0.75</v>
+      </c>
+      <c r="J76">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="77" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D77">
+        <v>7.1030109668282895E-2</v>
+      </c>
+      <c r="E77">
+        <v>0.14223036465339101</v>
+      </c>
+      <c r="F77">
+        <v>0.14098175481707101</v>
+      </c>
+      <c r="G77">
+        <v>9</v>
+      </c>
+      <c r="H77">
+        <v>100</v>
+      </c>
+      <c r="I77">
+        <v>0.25</v>
+      </c>
+      <c r="J77">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="78" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D78">
+        <v>0.10336799238692</v>
+      </c>
+      <c r="E78">
+        <v>0.14223783640708701</v>
+      </c>
+      <c r="F78">
+        <v>0.14428148558435899</v>
+      </c>
+      <c r="G78">
+        <v>3</v>
+      </c>
+      <c r="H78">
+        <v>100</v>
+      </c>
+      <c r="I78">
+        <v>0.25</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D79">
+        <v>7.5422406555606794E-2</v>
+      </c>
+      <c r="E79">
+        <v>0.142242926738996</v>
+      </c>
+      <c r="F79">
+        <v>0.14159938532967101</v>
+      </c>
+      <c r="G79">
+        <v>8</v>
+      </c>
+      <c r="H79">
+        <v>100</v>
+      </c>
+      <c r="I79">
+        <v>0.25</v>
+      </c>
+      <c r="J79">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="80" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D80">
+        <v>4.80326133885072E-2</v>
+      </c>
+      <c r="E80">
+        <v>0.14225738156874901</v>
+      </c>
+      <c r="F80">
+        <v>0.13392561127337799</v>
+      </c>
+      <c r="G80">
+        <v>10</v>
+      </c>
+      <c r="H80">
+        <v>100</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="81" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D81">
+        <v>6.8970071576947095E-2</v>
+      </c>
+      <c r="E81">
+        <v>0.14230605793533099</v>
+      </c>
+      <c r="F81">
+        <v>0.135028002773316</v>
+      </c>
+      <c r="G81">
+        <v>6</v>
+      </c>
+      <c r="H81">
+        <v>100</v>
+      </c>
+      <c r="I81">
+        <v>0.75</v>
+      </c>
+      <c r="J81">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="82" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D82">
+        <v>5.5124202032987797E-2</v>
+      </c>
+      <c r="E82">
+        <v>0.142307034233907</v>
+      </c>
+      <c r="F82">
+        <v>0.13090840942440099</v>
+      </c>
+      <c r="G82">
+        <v>8</v>
+      </c>
+      <c r="H82">
+        <v>100</v>
+      </c>
+      <c r="I82">
+        <v>0.75</v>
+      </c>
+      <c r="J82">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="83" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D83">
+        <v>9.5784532673961406E-2</v>
+      </c>
+      <c r="E83">
+        <v>0.142407471311879</v>
+      </c>
+      <c r="F83">
+        <v>0.14523328705732799</v>
+      </c>
+      <c r="G83">
+        <v>4</v>
+      </c>
+      <c r="H83">
+        <v>100</v>
+      </c>
+      <c r="I83">
+        <v>0.25</v>
+      </c>
+      <c r="J83">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="84" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D84">
+        <v>8.2238944475354903E-2</v>
+      </c>
+      <c r="E84">
+        <v>0.14242808703841101</v>
+      </c>
+      <c r="F84">
+        <v>0.14498488670902199</v>
+      </c>
+      <c r="G84">
+        <v>7</v>
+      </c>
+      <c r="H84">
+        <v>100</v>
+      </c>
+      <c r="I84">
+        <v>0.25</v>
+      </c>
+      <c r="J84">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="85" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D85">
+        <v>7.3565120447534701E-2</v>
+      </c>
+      <c r="E85">
+        <v>0.142434569740958</v>
+      </c>
+      <c r="F85">
+        <v>0.132583439957695</v>
+      </c>
+      <c r="G85">
+        <v>5</v>
+      </c>
+      <c r="H85">
+        <v>100</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="86" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D86">
+        <v>9.5068770603027597E-2</v>
+      </c>
+      <c r="E86">
+        <v>0.142437135456843</v>
+      </c>
+      <c r="F86">
+        <v>0.14582556141384201</v>
+      </c>
+      <c r="G86">
+        <v>5</v>
+      </c>
+      <c r="H86">
+        <v>100</v>
+      </c>
+      <c r="I86">
+        <v>0.25</v>
+      </c>
+      <c r="J86">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="87" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D87">
+        <v>5.3340246134180799E-2</v>
+      </c>
+      <c r="E87">
+        <v>0.142493933330194</v>
+      </c>
+      <c r="F87">
+        <v>0.13419767637202001</v>
+      </c>
+      <c r="G87">
+        <v>9</v>
+      </c>
+      <c r="H87">
+        <v>100</v>
+      </c>
+      <c r="I87">
+        <v>0.5</v>
+      </c>
+      <c r="J87">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="88" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D88">
+        <v>9.9623991632355899E-2</v>
+      </c>
+      <c r="E88">
+        <v>0.14250586592645201</v>
+      </c>
+      <c r="F88">
+        <v>0.14035860042884399</v>
+      </c>
+      <c r="G88">
+        <v>3</v>
+      </c>
+      <c r="H88">
+        <v>100</v>
+      </c>
+      <c r="I88">
+        <v>0.5</v>
+      </c>
+      <c r="J88">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="89" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D89">
+        <v>5.7821425314503003E-2</v>
+      </c>
+      <c r="E89">
+        <v>0.14253080690127801</v>
+      </c>
+      <c r="F89">
+        <v>0.13185808279814701</v>
+      </c>
+      <c r="G89">
+        <v>7</v>
+      </c>
+      <c r="H89">
+        <v>100</v>
+      </c>
+      <c r="I89">
+        <v>0.75</v>
+      </c>
+      <c r="J89">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="90" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D90">
+        <v>6.1268151748002701E-2</v>
+      </c>
+      <c r="E90">
+        <v>0.142536633284959</v>
+      </c>
+      <c r="F90">
+        <v>0.132329261167246</v>
+      </c>
+      <c r="G90">
+        <v>7</v>
+      </c>
+      <c r="H90">
+        <v>100</v>
+      </c>
+      <c r="I90">
+        <v>0.75</v>
+      </c>
+      <c r="J90">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="91" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D91">
+        <v>5.2411789723320702E-2</v>
+      </c>
+      <c r="E91">
+        <v>0.14257967099115701</v>
+      </c>
+      <c r="F91">
+        <v>0.13082707093056001</v>
+      </c>
+      <c r="G91">
+        <v>8</v>
+      </c>
+      <c r="H91">
+        <v>100</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="92" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D92">
+        <v>5.8811412092346603E-2</v>
+      </c>
+      <c r="E92">
+        <v>0.14264705506380601</v>
+      </c>
+      <c r="F92">
+        <v>0.12919072104458901</v>
+      </c>
+      <c r="G92">
+        <v>7</v>
+      </c>
+      <c r="H92">
+        <v>100</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="93" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D93">
+        <v>5.1010699084132201E-2</v>
+      </c>
+      <c r="E93">
+        <v>0.142658989033038</v>
+      </c>
+      <c r="F93">
+        <v>0.13322069016888699</v>
+      </c>
+      <c r="G93">
+        <v>9</v>
+      </c>
+      <c r="H93">
+        <v>100</v>
+      </c>
+      <c r="I93">
+        <v>0.75</v>
+      </c>
+      <c r="J93">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="94" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D94">
+        <v>8.3958569842206995E-2</v>
+      </c>
+      <c r="E94">
+        <v>0.142678274657356</v>
+      </c>
+      <c r="F94">
+        <v>0.13466279112287499</v>
+      </c>
+      <c r="G94">
+        <v>4</v>
+      </c>
+      <c r="H94">
+        <v>100</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="95" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D95">
+        <v>7.5687380230138795E-2</v>
+      </c>
+      <c r="E95">
+        <v>0.14271246912986699</v>
+      </c>
+      <c r="F95">
+        <v>0.13489348345780899</v>
+      </c>
+      <c r="G95">
+        <v>5</v>
+      </c>
+      <c r="H95">
+        <v>100</v>
+      </c>
+      <c r="I95">
+        <v>0.75</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D96">
+        <v>6.55775024729853E-2</v>
+      </c>
+      <c r="E96">
+        <v>0.142744370130066</v>
+      </c>
+      <c r="F96">
+        <v>0.13262189496047699</v>
+      </c>
+      <c r="G96">
+        <v>6</v>
+      </c>
+      <c r="H96">
+        <v>100</v>
+      </c>
+      <c r="I96">
+        <v>0.75</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D97">
+        <v>0.10114557277570201</v>
+      </c>
+      <c r="E97">
+        <v>0.142807914505338</v>
+      </c>
+      <c r="F97">
+        <v>0.14179841370857399</v>
+      </c>
+      <c r="G97">
+        <v>3</v>
+      </c>
+      <c r="H97">
+        <v>100</v>
+      </c>
+      <c r="I97">
+        <v>0.5</v>
+      </c>
+      <c r="J97">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="98" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D98">
+        <v>6.4103134132262096E-2</v>
+      </c>
+      <c r="E98">
+        <v>0.142807929527935</v>
+      </c>
+      <c r="F98">
+        <v>0.13417907736583501</v>
+      </c>
+      <c r="G98">
+        <v>6</v>
+      </c>
+      <c r="H98">
+        <v>100</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="99" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D99">
+        <v>9.8854329463295698E-2</v>
+      </c>
+      <c r="E99">
+        <v>0.142867081128633</v>
+      </c>
+      <c r="F99">
+        <v>0.139703580770077</v>
+      </c>
+      <c r="G99">
+        <v>3</v>
+      </c>
+      <c r="H99">
+        <v>100</v>
+      </c>
+      <c r="I99">
+        <v>0.5</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D100">
+        <v>5.6561767730475901E-2</v>
+      </c>
+      <c r="E100">
+        <v>0.14294994132257899</v>
+      </c>
+      <c r="F100">
+        <v>0.13005147657958399</v>
+      </c>
+      <c r="G100">
+        <v>7</v>
+      </c>
+      <c r="H100">
+        <v>100</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="101" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D101">
+        <v>9.7029492062488606E-2</v>
+      </c>
+      <c r="E101">
+        <v>0.14296680183135901</v>
+      </c>
+      <c r="F101">
+        <v>0.13829071886879499</v>
+      </c>
+      <c r="G101">
+        <v>3</v>
+      </c>
+      <c r="H101">
+        <v>100</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="102" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D102">
+        <v>9.7448909793070193E-2</v>
+      </c>
+      <c r="E102">
+        <v>0.14297720251340201</v>
+      </c>
+      <c r="F102">
+        <v>0.138016500988488</v>
+      </c>
+      <c r="G102">
+        <v>3</v>
+      </c>
+      <c r="H102">
+        <v>100</v>
+      </c>
+      <c r="I102">
+        <v>0.75</v>
+      </c>
+      <c r="J102">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="103" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D103">
+        <v>4.6887107877109202E-2</v>
+      </c>
+      <c r="E103">
+        <v>0.14302118612086301</v>
+      </c>
+      <c r="F103">
+        <v>0.13611141607890301</v>
+      </c>
+      <c r="G103">
+        <v>10</v>
+      </c>
+      <c r="H103">
+        <v>100</v>
+      </c>
+      <c r="I103">
+        <v>0.75</v>
+      </c>
+      <c r="J103">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="104" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D104">
+        <v>9.8926237043089796E-2</v>
+      </c>
+      <c r="E104">
+        <v>0.14303820017015401</v>
+      </c>
+      <c r="F104">
+        <v>0.14041287139127601</v>
+      </c>
+      <c r="G104">
+        <v>3</v>
+      </c>
+      <c r="H104">
+        <v>100</v>
+      </c>
+      <c r="I104">
+        <v>0.75</v>
+      </c>
+      <c r="J104">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="105" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D105">
+        <v>5.7859711006954903E-2</v>
+      </c>
+      <c r="E105">
+        <v>0.143098846731567</v>
+      </c>
+      <c r="F105">
+        <v>0.130936678741542</v>
+      </c>
+      <c r="G105">
+        <v>7</v>
+      </c>
+      <c r="H105">
+        <v>100</v>
+      </c>
+      <c r="I105">
+        <v>0.75</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D106">
+        <v>0.103850491640906</v>
+      </c>
+      <c r="E106">
+        <v>0.14325076904678799</v>
+      </c>
+      <c r="F106">
+        <v>0.14285430674379801</v>
+      </c>
+      <c r="G106">
+        <v>3</v>
+      </c>
+      <c r="H106">
+        <v>100</v>
+      </c>
+      <c r="I106">
+        <v>0.75</v>
+      </c>
+      <c r="J106">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="107" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D107">
+        <v>4.7767256140568197E-2</v>
+      </c>
+      <c r="E107">
+        <v>0.143277859588374</v>
+      </c>
+      <c r="F107">
+        <v>0.131507071925899</v>
+      </c>
+      <c r="G107">
+        <v>9</v>
+      </c>
+      <c r="H107">
+        <v>100</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="108" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D108">
+        <v>0.106605377314674</v>
+      </c>
+      <c r="E108">
+        <v>0.143356443167304</v>
+      </c>
+      <c r="F108">
+        <v>0.149003617792725</v>
+      </c>
+      <c r="G108">
+        <v>3</v>
+      </c>
+      <c r="H108">
+        <v>100</v>
+      </c>
+      <c r="I108">
+        <v>0.5</v>
+      </c>
+      <c r="J108">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="109" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D109">
+        <v>8.3905015017382401E-2</v>
+      </c>
+      <c r="E109">
+        <v>0.14341889169959801</v>
+      </c>
+      <c r="F109">
+        <v>0.133988252149779</v>
+      </c>
+      <c r="G109">
+        <v>4</v>
+      </c>
+      <c r="H109">
+        <v>100</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D110">
+        <v>4.8960758377973097E-2</v>
+      </c>
+      <c r="E110">
+        <v>0.14343125268478099</v>
+      </c>
+      <c r="F110">
+        <v>0.13069149967317401</v>
+      </c>
+      <c r="G110">
+        <v>9</v>
+      </c>
+      <c r="H110">
+        <v>100</v>
+      </c>
+      <c r="I110">
+        <v>0.75</v>
+      </c>
+      <c r="J110">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="111" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D111">
+        <v>5.2870491495619301E-2</v>
+      </c>
+      <c r="E111">
+        <v>0.143447820060703</v>
+      </c>
+      <c r="F111">
+        <v>0.129887893698789</v>
+      </c>
+      <c r="G111">
+        <v>8</v>
+      </c>
+      <c r="H111">
+        <v>100</v>
+      </c>
+      <c r="I111">
+        <v>0.75</v>
+      </c>
+      <c r="J111">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="112" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D112">
+        <v>7.3178023108772194E-2</v>
+      </c>
+      <c r="E112">
+        <v>0.14352992849568999</v>
+      </c>
+      <c r="F112">
+        <v>0.13159116100809401</v>
+      </c>
+      <c r="G112">
+        <v>5</v>
+      </c>
+      <c r="H112">
+        <v>100</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D113">
+        <v>0.105629849140886</v>
+      </c>
+      <c r="E113">
+        <v>0.14357161275128899</v>
+      </c>
+      <c r="F113">
+        <v>0.15247301765355301</v>
+      </c>
+      <c r="G113">
+        <v>3</v>
+      </c>
+      <c r="H113">
+        <v>100</v>
+      </c>
+      <c r="I113">
+        <v>0.25</v>
+      </c>
+      <c r="J113">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="114" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D114">
+        <v>4.5170401742056998E-2</v>
+      </c>
+      <c r="E114">
+        <v>0.14366595109276201</v>
+      </c>
+      <c r="F114">
+        <v>0.12980839922871301</v>
+      </c>
+      <c r="G114">
+        <v>10</v>
+      </c>
+      <c r="H114">
+        <v>100</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="115" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D115">
+        <v>9.7690933369324801E-2</v>
+      </c>
+      <c r="E115">
+        <v>0.14373233702125701</v>
+      </c>
+      <c r="F115">
+        <v>0.13974008118179601</v>
+      </c>
+      <c r="G115">
+        <v>3</v>
+      </c>
+      <c r="H115">
+        <v>100</v>
+      </c>
+      <c r="I115">
+        <v>0.75</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D116">
+        <v>5.1910581531580402E-2</v>
+      </c>
+      <c r="E116">
+        <v>0.143814998325381</v>
+      </c>
+      <c r="F116">
+        <v>0.130543415721664</v>
+      </c>
+      <c r="G116">
+        <v>8</v>
+      </c>
+      <c r="H116">
+        <v>100</v>
+      </c>
+      <c r="I116">
+        <v>0.75</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D117">
+        <v>4.5376815000637498E-2</v>
+      </c>
+      <c r="E117">
+        <v>0.14392652016277799</v>
+      </c>
+      <c r="F117">
+        <v>0.130859694621239</v>
+      </c>
+      <c r="G117">
+        <v>10</v>
+      </c>
+      <c r="H117">
+        <v>100</v>
+      </c>
+      <c r="I117">
+        <v>0.75</v>
+      </c>
+      <c r="J117">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="118" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D118">
+        <v>0.10924605449357699</v>
+      </c>
+      <c r="E118">
+        <v>0.14396432020424799</v>
+      </c>
+      <c r="F118">
+        <v>0.15348594909989299</v>
+      </c>
+      <c r="G118">
+        <v>3</v>
+      </c>
+      <c r="H118">
+        <v>100</v>
+      </c>
+      <c r="I118">
+        <v>0.25</v>
+      </c>
+      <c r="J118">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="119" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D119">
+        <v>9.5843153070454407E-2</v>
+      </c>
+      <c r="E119">
+        <v>0.14399567668152799</v>
+      </c>
+      <c r="F119">
+        <v>0.135789041238502</v>
+      </c>
+      <c r="G119">
+        <v>3</v>
+      </c>
+      <c r="H119">
+        <v>100</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D120">
+        <v>4.7419451730389799E-2</v>
+      </c>
+      <c r="E120">
+        <v>0.14403051317794699</v>
+      </c>
+      <c r="F120">
+        <v>0.13235893650166</v>
+      </c>
+      <c r="G120">
+        <v>9</v>
+      </c>
+      <c r="H120">
+        <v>100</v>
+      </c>
+      <c r="I120">
+        <v>0.75</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D121">
+        <v>0.102370866484606</v>
+      </c>
+      <c r="E121">
+        <v>0.14429864472913201</v>
+      </c>
+      <c r="F121">
+        <v>0.147087259427432</v>
+      </c>
+      <c r="G121">
+        <v>4</v>
+      </c>
+      <c r="H121">
+        <v>100</v>
+      </c>
+      <c r="I121">
+        <v>0.25</v>
+      </c>
+      <c r="J121">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="122" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D122">
+        <v>6.42886474591505E-2</v>
+      </c>
+      <c r="E122">
+        <v>0.14433328732377401</v>
+      </c>
+      <c r="F122">
+        <v>0.13024366114730701</v>
+      </c>
+      <c r="G122">
+        <v>6</v>
+      </c>
+      <c r="H122">
+        <v>100</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D123">
+        <v>5.0828291101782698E-2</v>
+      </c>
+      <c r="E123">
+        <v>0.144358583411517</v>
+      </c>
+      <c r="F123">
+        <v>0.13096718982205</v>
+      </c>
+      <c r="G123">
+        <v>8</v>
+      </c>
+      <c r="H123">
+        <v>100</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="124" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D124">
+        <v>9.6313056430665303E-2</v>
+      </c>
+      <c r="E124">
+        <v>0.14438357010849001</v>
+      </c>
+      <c r="F124">
+        <v>0.13885467034506699</v>
+      </c>
+      <c r="G124">
+        <v>3</v>
+      </c>
+      <c r="H124">
+        <v>100</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="125" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D125">
+        <v>4.6500248483548702E-2</v>
+      </c>
+      <c r="E125">
+        <v>0.14465464555162</v>
+      </c>
+      <c r="F125">
+        <v>0.131741501747072</v>
+      </c>
+      <c r="G125">
+        <v>9</v>
+      </c>
+      <c r="H125">
+        <v>100</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="126" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D126">
+        <v>4.3902096758041499E-2</v>
+      </c>
+      <c r="E126">
+        <v>0.144683461361722</v>
+      </c>
+      <c r="F126">
+        <v>0.13134076933595701</v>
+      </c>
+      <c r="G126">
+        <v>10</v>
+      </c>
+      <c r="H126">
+        <v>100</v>
+      </c>
+      <c r="I126">
+        <v>0.75</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D127">
+        <v>5.7037846216790297E-2</v>
+      </c>
+      <c r="E127">
+        <v>0.14511351922690399</v>
+      </c>
+      <c r="F127">
+        <v>0.12986633630260699</v>
+      </c>
+      <c r="G127">
+        <v>7</v>
+      </c>
+      <c r="H127">
+        <v>100</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D128">
+        <v>4.2684094462038399E-2</v>
+      </c>
+      <c r="E128">
+        <v>0.145394180724295</v>
+      </c>
+      <c r="F128">
+        <v>0.13072573741454199</v>
+      </c>
+      <c r="G128">
+        <v>10</v>
+      </c>
+      <c r="H128">
+        <v>100</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="129" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D129">
+        <v>4.92276679011108E-2</v>
+      </c>
+      <c r="E129">
+        <v>0.14569211650974301</v>
+      </c>
+      <c r="F129">
+        <v>0.13015356932202299</v>
+      </c>
+      <c r="G129">
+        <v>8</v>
+      </c>
+      <c r="H129">
+        <v>100</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D130">
+        <v>4.5199601134686601E-2</v>
+      </c>
+      <c r="E130">
+        <v>0.14650455781989699</v>
+      </c>
+      <c r="F130">
+        <v>0.130909189180174</v>
+      </c>
+      <c r="G130">
+        <v>9</v>
+      </c>
+      <c r="H130">
+        <v>100</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D131">
+        <v>4.22111130215981E-2</v>
+      </c>
+      <c r="E131">
+        <v>0.14704293918540401</v>
+      </c>
+      <c r="F131">
+        <v>0.133673171608789</v>
+      </c>
+      <c r="G131">
+        <v>10</v>
+      </c>
+      <c r="H131">
+        <v>100</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D132">
+        <v>0.111748657976057</v>
+      </c>
+      <c r="E132">
+        <v>0.148370186204037</v>
+      </c>
+      <c r="F132">
+        <v>0.15251715022728499</v>
+      </c>
+      <c r="G132">
+        <v>3</v>
+      </c>
+      <c r="H132">
+        <v>100</v>
+      </c>
+      <c r="I132">
+        <v>0.25</v>
+      </c>
+      <c r="J132">
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="D4:J4" xr:uid="{E6B52809-1EFD-4C0E-8FE7-C1CB9BF3DA18}">
+    <sortState ref="D5:J132">
+      <sortCondition ref="E4"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/House Prices- Advanced Regression Techniques/ML/GridSearchResultsFromKaggle.xlsx
+++ b/House Prices- Advanced Regression Techniques/ML/GridSearchResultsFromKaggle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\padmaraj.bhat\OneDrive - Accenture\Git\GitHub\Kaggle Competetion\House Prices- Advance Regression Techniques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="10_ncr:100000_{28F5228C-9FC8-4E39-B27D-CA503DA6A540}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{CF2295A3-E729-4940-91C5-44A66679CF8F}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="10_ncr:100000_{28F5228C-9FC8-4E39-B27D-CA503DA6A540}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{F1C41CEF-0391-45BE-853D-14FFB9667B15}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4110" firstSheet="6" activeTab="9" xr2:uid="{E502ACE3-46F0-4C50-944D-DCCB88A6A330}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4110" firstSheet="8" activeTab="11" xr2:uid="{E502ACE3-46F0-4C50-944D-DCCB88A6A330}"/>
   </bookViews>
   <sheets>
     <sheet name="Without estimator" sheetId="1" r:id="rId1"/>
@@ -22,11 +22,15 @@
     <sheet name="alpha_.5" sheetId="7" r:id="rId7"/>
     <sheet name="minmaxagain" sheetId="9" r:id="rId8"/>
     <sheet name="alphalambdaminmax" sheetId="10" r:id="rId9"/>
-    <sheet name="Comparison of best scores" sheetId="5" r:id="rId10"/>
+    <sheet name="alphalambda1" sheetId="11" r:id="rId10"/>
+    <sheet name="alphalambdagrid" sheetId="12" r:id="rId11"/>
+    <sheet name="Comparison of best scores" sheetId="5" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">alpha_.5!$D$3:$J$132</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">alpha_.5_lambda_.5!$E$4:$K$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">alphalambda1!$D$4:$J$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">alphalambdagrid!$E$4:$M$104</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">alphalambdaminmax!$D$4:$J$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">minmaxagain!$E$5:$K$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'transformed rmsle - target'!$C$1:$I$1</definedName>
@@ -43,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="30">
   <si>
     <t>validation_score</t>
   </si>
@@ -100,6 +104,39 @@
   </si>
   <si>
     <t>alphalambdaminmax</t>
+  </si>
+  <si>
+    <t>No Change</t>
+  </si>
+  <si>
+    <t>105 shift</t>
+  </si>
+  <si>
+    <t>alpha is improving will be performance</t>
+  </si>
+  <si>
+    <t>validation score is matching the result</t>
+  </si>
+  <si>
+    <t>reg_alpha</t>
+  </si>
+  <si>
+    <t>reg_lambda</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>alphalambda grid for 2317 rank</t>
+  </si>
+  <si>
+    <t>alpha =0 lambda = 0.5</t>
+  </si>
+  <si>
+    <t>alpha =.1 lambda = 0.5</t>
+  </si>
+  <si>
+    <t>alpha = .5, lambda = 0</t>
   </si>
 </sst>
 </file>
@@ -23810,16 +23847,5969 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE418E7-1197-4C14-B4E7-FDD6E039CCEC}">
-  <dimension ref="B5:K47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B790EAE-5572-4B88-8FCF-3E89590A0448}">
+  <dimension ref="D4:J132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="4" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>8.3228032285484199E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.142202727896859</v>
+      </c>
+      <c r="F5">
+        <v>0.14050158306402599</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>0.75</v>
+      </c>
+      <c r="J5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <v>7.14781718484713E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.142526003997206</v>
+      </c>
+      <c r="F6">
+        <v>0.14497670678135299</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>0.5</v>
+      </c>
+      <c r="J6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <v>8.02383718918106E-2</v>
+      </c>
+      <c r="E7">
+        <v>0.14264746567667499</v>
+      </c>
+      <c r="F7">
+        <v>0.14121117473386499</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <v>0.25</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <v>8.2377457830802303E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.14275665079420499</v>
+      </c>
+      <c r="F8">
+        <v>0.14419322822983399</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <v>0.5</v>
+      </c>
+      <c r="J8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D9">
+        <v>7.7063934186337502E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.14283799560942301</v>
+      </c>
+      <c r="F9">
+        <v>0.14037805512385201</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>0.25</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D10">
+        <v>8.7111856557136894E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.14284024092965</v>
+      </c>
+      <c r="F10">
+        <v>0.14663470486101499</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="I10">
+        <v>0.5</v>
+      </c>
+      <c r="J10">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D11">
+        <v>7.8023953514469002E-2</v>
+      </c>
+      <c r="E11">
+        <v>0.142860883461946</v>
+      </c>
+      <c r="F11">
+        <v>0.145960865610966</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="I11">
+        <v>0.5</v>
+      </c>
+      <c r="J11">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D12">
+        <v>7.5478033655433499E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.14287941909492299</v>
+      </c>
+      <c r="F12">
+        <v>0.140471316746755</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>100</v>
+      </c>
+      <c r="I12">
+        <v>0.25</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D13">
+        <v>8.5231457301589306E-2</v>
+      </c>
+      <c r="E13">
+        <v>0.142941990763508</v>
+      </c>
+      <c r="F13">
+        <v>0.14233204926662699</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+      <c r="I13">
+        <v>0.25</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D14">
+        <v>7.7381165655589501E-2</v>
+      </c>
+      <c r="E14">
+        <v>0.14297380241067401</v>
+      </c>
+      <c r="F14">
+        <v>0.139298150607085</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="I14">
+        <v>0.75</v>
+      </c>
+      <c r="J14">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D15">
+        <v>8.6483975730727303E-2</v>
+      </c>
+      <c r="E15">
+        <v>0.14308867056434901</v>
+      </c>
+      <c r="F15">
+        <v>0.14243073737225501</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>0.5</v>
+      </c>
+      <c r="J15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D16">
+        <v>7.3082303474648794E-2</v>
+      </c>
+      <c r="E16">
+        <v>0.143147985959687</v>
+      </c>
+      <c r="F16">
+        <v>0.14248486829246099</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>100</v>
+      </c>
+      <c r="I16">
+        <v>0.25</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D17">
+        <v>7.2819512701011599E-2</v>
+      </c>
+      <c r="E17">
+        <v>0.14315582644211799</v>
+      </c>
+      <c r="F17">
+        <v>0.14195640663272099</v>
+      </c>
+      <c r="G17">
+        <v>9</v>
+      </c>
+      <c r="H17">
+        <v>100</v>
+      </c>
+      <c r="I17">
+        <v>0.5</v>
+      </c>
+      <c r="J17">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D18">
+        <v>9.2054742153910601E-2</v>
+      </c>
+      <c r="E18">
+        <v>0.14317298642795201</v>
+      </c>
+      <c r="F18">
+        <v>0.14221410887209299</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>100</v>
+      </c>
+      <c r="I18">
+        <v>0.25</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <v>7.2940966822540906E-2</v>
+      </c>
+      <c r="E19">
+        <v>0.14328376201881299</v>
+      </c>
+      <c r="F19">
+        <v>0.137592795854418</v>
+      </c>
+      <c r="G19">
+        <v>8</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+      <c r="I19">
+        <v>0.75</v>
+      </c>
+      <c r="J19">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D20">
+        <v>9.2188634726415197E-2</v>
+      </c>
+      <c r="E20">
+        <v>0.143306332571076</v>
+      </c>
+      <c r="F20">
+        <v>0.14589877927238301</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>100</v>
+      </c>
+      <c r="I20">
+        <v>0.5</v>
+      </c>
+      <c r="J20">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D21">
+        <v>8.1212024822345102E-2</v>
+      </c>
+      <c r="E21">
+        <v>0.14332305631352499</v>
+      </c>
+      <c r="F21">
+        <v>0.13788581001757</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <v>100</v>
+      </c>
+      <c r="I21">
+        <v>0.5</v>
+      </c>
+      <c r="J21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D22">
+        <v>8.9406008577677901E-2</v>
+      </c>
+      <c r="E22">
+        <v>0.14335893980359701</v>
+      </c>
+      <c r="F22">
+        <v>0.14449395187242001</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>100</v>
+      </c>
+      <c r="I22">
+        <v>0.75</v>
+      </c>
+      <c r="J22">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D23">
+        <v>7.0306679327341706E-2</v>
+      </c>
+      <c r="E23">
+        <v>0.14371139063275501</v>
+      </c>
+      <c r="F23">
+        <v>0.13831990558294999</v>
+      </c>
+      <c r="G23">
+        <v>9</v>
+      </c>
+      <c r="H23">
+        <v>100</v>
+      </c>
+      <c r="I23">
+        <v>0.75</v>
+      </c>
+      <c r="J23">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D24">
+        <v>7.8977162366373796E-2</v>
+      </c>
+      <c r="E24">
+        <v>0.143759782460643</v>
+      </c>
+      <c r="F24">
+        <v>0.14393494327075801</v>
+      </c>
+      <c r="G24">
+        <v>9</v>
+      </c>
+      <c r="H24">
+        <v>100</v>
+      </c>
+      <c r="I24">
+        <v>0.25</v>
+      </c>
+      <c r="J24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D25">
+        <v>9.9296262656986406E-2</v>
+      </c>
+      <c r="E25">
+        <v>0.14376907697201499</v>
+      </c>
+      <c r="F25">
+        <v>0.14514596077963901</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>100</v>
+      </c>
+      <c r="I25">
+        <v>0.25</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D26">
+        <v>0.101335045922699</v>
+      </c>
+      <c r="E26">
+        <v>0.14384618483522299</v>
+      </c>
+      <c r="F26">
+        <v>0.149917622186206</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <v>100</v>
+      </c>
+      <c r="I26">
+        <v>0.5</v>
+      </c>
+      <c r="J26">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="27" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D27">
+        <v>9.82127940522763E-2</v>
+      </c>
+      <c r="E27">
+        <v>0.143869248152767</v>
+      </c>
+      <c r="F27">
+        <v>0.14327122062713901</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <v>100</v>
+      </c>
+      <c r="I27">
+        <v>0.75</v>
+      </c>
+      <c r="J27">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D28">
+        <v>8.5817856713374802E-2</v>
+      </c>
+      <c r="E28">
+        <v>0.14395288040884099</v>
+      </c>
+      <c r="F28">
+        <v>0.13960861765888599</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>100</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="29" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D29">
+        <v>9.0344502578653799E-2</v>
+      </c>
+      <c r="E29">
+        <v>0.14399661223698501</v>
+      </c>
+      <c r="F29">
+        <v>0.14546904884381101</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+      <c r="H29">
+        <v>100</v>
+      </c>
+      <c r="I29">
+        <v>0.25</v>
+      </c>
+      <c r="J29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D30">
+        <v>8.1668171893647001E-2</v>
+      </c>
+      <c r="E30">
+        <v>0.14404011092513</v>
+      </c>
+      <c r="F30">
+        <v>0.13851948990192001</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>100</v>
+      </c>
+      <c r="I30">
+        <v>0.75</v>
+      </c>
+      <c r="J30">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="31" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D31">
+        <v>9.2731516670226694E-2</v>
+      </c>
+      <c r="E31">
+        <v>0.144092575608987</v>
+      </c>
+      <c r="F31">
+        <v>0.137349405604309</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="H31">
+        <v>100</v>
+      </c>
+      <c r="I31">
+        <v>0.5</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D32">
+        <v>8.9914913112714906E-2</v>
+      </c>
+      <c r="E32">
+        <v>0.14409931790750299</v>
+      </c>
+      <c r="F32">
+        <v>0.14534847882459401</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="H32">
+        <v>100</v>
+      </c>
+      <c r="I32">
+        <v>0.25</v>
+      </c>
+      <c r="J32">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D33">
+        <v>8.0485328467431894E-2</v>
+      </c>
+      <c r="E33">
+        <v>0.14410109180394301</v>
+      </c>
+      <c r="F33">
+        <v>0.142647930461652</v>
+      </c>
+      <c r="G33">
+        <v>7</v>
+      </c>
+      <c r="H33">
+        <v>100</v>
+      </c>
+      <c r="I33">
+        <v>0.25</v>
+      </c>
+      <c r="J33">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D34">
+        <v>8.5103878824924997E-2</v>
+      </c>
+      <c r="E34">
+        <v>0.144135486908858</v>
+      </c>
+      <c r="F34">
+        <v>0.13962574276539</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34">
+        <v>100</v>
+      </c>
+      <c r="I34">
+        <v>0.5</v>
+      </c>
+      <c r="J34">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D35">
+        <v>7.6376108708704302E-2</v>
+      </c>
+      <c r="E35">
+        <v>0.144143910866534</v>
+      </c>
+      <c r="F35">
+        <v>0.14528400151038201</v>
+      </c>
+      <c r="G35">
+        <v>10</v>
+      </c>
+      <c r="H35">
+        <v>100</v>
+      </c>
+      <c r="I35">
+        <v>0.25</v>
+      </c>
+      <c r="J35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D36">
+        <v>6.6723320711319506E-2</v>
+      </c>
+      <c r="E36">
+        <v>0.144179970167402</v>
+      </c>
+      <c r="F36">
+        <v>0.138564875180127</v>
+      </c>
+      <c r="G36">
+        <v>10</v>
+      </c>
+      <c r="H36">
+        <v>100</v>
+      </c>
+      <c r="I36">
+        <v>0.75</v>
+      </c>
+      <c r="J36">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D37">
+        <v>8.3739624506390595E-2</v>
+      </c>
+      <c r="E37">
+        <v>0.14419868330146901</v>
+      </c>
+      <c r="F37">
+        <v>0.148115171389883</v>
+      </c>
+      <c r="G37">
+        <v>7</v>
+      </c>
+      <c r="H37">
+        <v>100</v>
+      </c>
+      <c r="I37">
+        <v>0.25</v>
+      </c>
+      <c r="J37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D38">
+        <v>8.3469728353172706E-2</v>
+      </c>
+      <c r="E38">
+        <v>0.144238399492708</v>
+      </c>
+      <c r="F38">
+        <v>0.13761515590812701</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38">
+        <v>100</v>
+      </c>
+      <c r="I38">
+        <v>0.5</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D39">
+        <v>9.2447608611626694E-2</v>
+      </c>
+      <c r="E39">
+        <v>0.144274642597924</v>
+      </c>
+      <c r="F39">
+        <v>0.1416773103808</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="H39">
+        <v>100</v>
+      </c>
+      <c r="I39">
+        <v>0.5</v>
+      </c>
+      <c r="J39">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="40" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D40">
+        <v>7.6087246187264396E-2</v>
+      </c>
+      <c r="E40">
+        <v>0.14438412234036299</v>
+      </c>
+      <c r="F40">
+        <v>0.13967743370079699</v>
+      </c>
+      <c r="G40">
+        <v>7</v>
+      </c>
+      <c r="H40">
+        <v>100</v>
+      </c>
+      <c r="I40">
+        <v>0.5</v>
+      </c>
+      <c r="J40">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D41">
+        <v>7.7502630787027404E-2</v>
+      </c>
+      <c r="E41">
+        <v>0.14446449483769899</v>
+      </c>
+      <c r="F41">
+        <v>0.13618642933619199</v>
+      </c>
+      <c r="G41">
+        <v>6</v>
+      </c>
+      <c r="H41">
+        <v>100</v>
+      </c>
+      <c r="I41">
+        <v>0.5</v>
+      </c>
+      <c r="J41">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="42" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D42">
+        <v>9.4284258461241999E-2</v>
+      </c>
+      <c r="E42">
+        <v>0.14447887451543101</v>
+      </c>
+      <c r="F42">
+        <v>0.143569971426695</v>
+      </c>
+      <c r="G42">
+        <v>4</v>
+      </c>
+      <c r="H42">
+        <v>100</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="43" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D43">
+        <v>8.1832300298160895E-2</v>
+      </c>
+      <c r="E43">
+        <v>0.14448406905110001</v>
+      </c>
+      <c r="F43">
+        <v>0.143276936868378</v>
+      </c>
+      <c r="G43">
+        <v>8</v>
+      </c>
+      <c r="H43">
+        <v>100</v>
+      </c>
+      <c r="I43">
+        <v>0.25</v>
+      </c>
+      <c r="J43">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D44">
+        <v>6.6397372890662207E-2</v>
+      </c>
+      <c r="E44">
+        <v>0.14450879749309001</v>
+      </c>
+      <c r="F44">
+        <v>0.13999159638415601</v>
+      </c>
+      <c r="G44">
+        <v>10</v>
+      </c>
+      <c r="H44">
+        <v>100</v>
+      </c>
+      <c r="I44">
+        <v>0.5</v>
+      </c>
+      <c r="J44">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D45">
+        <v>8.7974159805267002E-2</v>
+      </c>
+      <c r="E45">
+        <v>0.144540192686055</v>
+      </c>
+      <c r="F45">
+        <v>0.15119162310752901</v>
+      </c>
+      <c r="G45">
+        <v>9</v>
+      </c>
+      <c r="H45">
+        <v>100</v>
+      </c>
+      <c r="I45">
+        <v>0.25</v>
+      </c>
+      <c r="J45">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="46" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D46">
+        <v>7.5148628719119898E-2</v>
+      </c>
+      <c r="E46">
+        <v>0.144570874132391</v>
+      </c>
+      <c r="F46">
+        <v>0.13359391611548899</v>
+      </c>
+      <c r="G46">
+        <v>6</v>
+      </c>
+      <c r="H46">
+        <v>100</v>
+      </c>
+      <c r="I46">
+        <v>0.75</v>
+      </c>
+      <c r="J46">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="47" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D47">
+        <v>6.80896344957235E-2</v>
+      </c>
+      <c r="E47">
+        <v>0.14461504232167799</v>
+      </c>
+      <c r="F47">
+        <v>0.13992007404149101</v>
+      </c>
+      <c r="G47">
+        <v>9</v>
+      </c>
+      <c r="H47">
+        <v>100</v>
+      </c>
+      <c r="I47">
+        <v>0.5</v>
+      </c>
+      <c r="J47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D48">
+        <v>8.4009753521822397E-2</v>
+      </c>
+      <c r="E48">
+        <v>0.144619905239318</v>
+      </c>
+      <c r="F48">
+        <v>0.13779816340281301</v>
+      </c>
+      <c r="G48">
+        <v>5</v>
+      </c>
+      <c r="H48">
+        <v>100</v>
+      </c>
+      <c r="I48">
+        <v>0.75</v>
+      </c>
+      <c r="J48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D49">
+        <v>8.5069246502094201E-2</v>
+      </c>
+      <c r="E49">
+        <v>0.144632049380261</v>
+      </c>
+      <c r="F49">
+        <v>0.14368565449728399</v>
+      </c>
+      <c r="G49">
+        <v>6</v>
+      </c>
+      <c r="H49">
+        <v>100</v>
+      </c>
+      <c r="I49">
+        <v>0.25</v>
+      </c>
+      <c r="J49">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="50" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D50">
+        <v>7.7634843211819904E-2</v>
+      </c>
+      <c r="E50">
+        <v>0.14464235457004501</v>
+      </c>
+      <c r="F50">
+        <v>0.141809809058038</v>
+      </c>
+      <c r="G50">
+        <v>8</v>
+      </c>
+      <c r="H50">
+        <v>100</v>
+      </c>
+      <c r="I50">
+        <v>0.25</v>
+      </c>
+      <c r="J50">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="51" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D51">
+        <v>9.0577107440637197E-2</v>
+      </c>
+      <c r="E51">
+        <v>0.144657558843308</v>
+      </c>
+      <c r="F51">
+        <v>0.138793685265901</v>
+      </c>
+      <c r="G51">
+        <v>4</v>
+      </c>
+      <c r="H51">
+        <v>100</v>
+      </c>
+      <c r="I51">
+        <v>0.75</v>
+      </c>
+      <c r="J51">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="52" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D52">
+        <v>7.3032275129699897E-2</v>
+      </c>
+      <c r="E52">
+        <v>0.14466928905104001</v>
+      </c>
+      <c r="F52">
+        <v>0.142111156519835</v>
+      </c>
+      <c r="G52">
+        <v>10</v>
+      </c>
+      <c r="H52">
+        <v>100</v>
+      </c>
+      <c r="I52">
+        <v>0.25</v>
+      </c>
+      <c r="J52">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="53" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D53">
+        <v>7.1690521767317994E-2</v>
+      </c>
+      <c r="E53">
+        <v>0.144698190426513</v>
+      </c>
+      <c r="F53">
+        <v>0.13945185236715099</v>
+      </c>
+      <c r="G53">
+        <v>8</v>
+      </c>
+      <c r="H53">
+        <v>100</v>
+      </c>
+      <c r="I53">
+        <v>0.5</v>
+      </c>
+      <c r="J53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D54">
+        <v>7.8673320222459403E-2</v>
+      </c>
+      <c r="E54">
+        <v>0.14471108702289801</v>
+      </c>
+      <c r="F54">
+        <v>0.13886824178833601</v>
+      </c>
+      <c r="G54">
+        <v>6</v>
+      </c>
+      <c r="H54">
+        <v>100</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="55" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D55">
+        <v>9.1020626982428701E-2</v>
+      </c>
+      <c r="E55">
+        <v>0.144845611947681</v>
+      </c>
+      <c r="F55">
+        <v>0.13791966814725601</v>
+      </c>
+      <c r="G55">
+        <v>4</v>
+      </c>
+      <c r="H55">
+        <v>100</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D56">
+        <v>8.5088583540110604E-2</v>
+      </c>
+      <c r="E56">
+        <v>0.14484635237305801</v>
+      </c>
+      <c r="F56">
+        <v>0.153854105401005</v>
+      </c>
+      <c r="G56">
+        <v>10</v>
+      </c>
+      <c r="H56">
+        <v>100</v>
+      </c>
+      <c r="I56">
+        <v>0.25</v>
+      </c>
+      <c r="J56">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="57" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D57">
+        <v>7.2229371078226107E-2</v>
+      </c>
+      <c r="E57">
+        <v>0.14488143780519699</v>
+      </c>
+      <c r="F57">
+        <v>0.13572260781805501</v>
+      </c>
+      <c r="G57">
+        <v>7</v>
+      </c>
+      <c r="H57">
+        <v>100</v>
+      </c>
+      <c r="I57">
+        <v>0.5</v>
+      </c>
+      <c r="J57">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="58" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D58">
+        <v>9.1267754126694994E-2</v>
+      </c>
+      <c r="E58">
+        <v>0.14494588313331599</v>
+      </c>
+      <c r="F58">
+        <v>0.15314003937130399</v>
+      </c>
+      <c r="G58">
+        <v>8</v>
+      </c>
+      <c r="H58">
+        <v>100</v>
+      </c>
+      <c r="I58">
+        <v>0.25</v>
+      </c>
+      <c r="J58">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="59" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D59">
+        <v>7.4145878605499094E-2</v>
+      </c>
+      <c r="E59">
+        <v>0.14495695883625501</v>
+      </c>
+      <c r="F59">
+        <v>0.140152151818281</v>
+      </c>
+      <c r="G59">
+        <v>7</v>
+      </c>
+      <c r="H59">
+        <v>100</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="60" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D60">
+        <v>7.7020597740902502E-2</v>
+      </c>
+      <c r="E60">
+        <v>0.14497911320441101</v>
+      </c>
+      <c r="F60">
+        <v>0.13569282633534699</v>
+      </c>
+      <c r="G60">
+        <v>6</v>
+      </c>
+      <c r="H60">
+        <v>100</v>
+      </c>
+      <c r="I60">
+        <v>0.5</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D61">
+        <v>7.6837684319832997E-2</v>
+      </c>
+      <c r="E61">
+        <v>0.14501961601500599</v>
+      </c>
+      <c r="F61">
+        <v>0.13578788192390201</v>
+      </c>
+      <c r="G61">
+        <v>6</v>
+      </c>
+      <c r="H61">
+        <v>100</v>
+      </c>
+      <c r="I61">
+        <v>0.75</v>
+      </c>
+      <c r="J61">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="62" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D62">
+        <v>7.4501701857650995E-2</v>
+      </c>
+      <c r="E62">
+        <v>0.14510193190311499</v>
+      </c>
+      <c r="F62">
+        <v>0.13552789738323801</v>
+      </c>
+      <c r="G62">
+        <v>6</v>
+      </c>
+      <c r="H62">
+        <v>100</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D63">
+        <v>7.9390285037619801E-2</v>
+      </c>
+      <c r="E63">
+        <v>0.14510736491040099</v>
+      </c>
+      <c r="F63">
+        <v>0.13630369075000701</v>
+      </c>
+      <c r="G63">
+        <v>5</v>
+      </c>
+      <c r="H63">
+        <v>100</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="64" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D64">
+        <v>7.2264336660154402E-2</v>
+      </c>
+      <c r="E64">
+        <v>0.14513687454516599</v>
+      </c>
+      <c r="F64">
+        <v>0.13615672506339299</v>
+      </c>
+      <c r="G64">
+        <v>7</v>
+      </c>
+      <c r="H64">
+        <v>100</v>
+      </c>
+      <c r="I64">
+        <v>0.5</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D65">
+        <v>9.2482789329218801E-2</v>
+      </c>
+      <c r="E65">
+        <v>0.14514783615648499</v>
+      </c>
+      <c r="F65">
+        <v>0.139187304674148</v>
+      </c>
+      <c r="G65">
+        <v>4</v>
+      </c>
+      <c r="H65">
+        <v>100</v>
+      </c>
+      <c r="I65">
+        <v>0.75</v>
+      </c>
+      <c r="J65">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="66" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D66">
+        <v>9.5133502212449803E-2</v>
+      </c>
+      <c r="E66">
+        <v>0.145208515417833</v>
+      </c>
+      <c r="F66">
+        <v>0.14211115575666999</v>
+      </c>
+      <c r="G66">
+        <v>4</v>
+      </c>
+      <c r="H66">
+        <v>100</v>
+      </c>
+      <c r="I66">
+        <v>0.5</v>
+      </c>
+      <c r="J66">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="67" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D67">
+        <v>8.92570051482421E-2</v>
+      </c>
+      <c r="E67">
+        <v>0.145212561212441</v>
+      </c>
+      <c r="F67">
+        <v>0.138477854487248</v>
+      </c>
+      <c r="G67">
+        <v>4</v>
+      </c>
+      <c r="H67">
+        <v>100</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="68" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D68">
+        <v>7.5014734509039505E-2</v>
+      </c>
+      <c r="E68">
+        <v>0.145219636121413</v>
+      </c>
+      <c r="F68">
+        <v>0.144138905832596</v>
+      </c>
+      <c r="G68">
+        <v>9</v>
+      </c>
+      <c r="H68">
+        <v>100</v>
+      </c>
+      <c r="I68">
+        <v>0.25</v>
+      </c>
+      <c r="J68">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="69" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D69">
+        <v>7.2132853321195303E-2</v>
+      </c>
+      <c r="E69">
+        <v>0.14522298886497301</v>
+      </c>
+      <c r="F69">
+        <v>0.13406408221230201</v>
+      </c>
+      <c r="G69">
+        <v>7</v>
+      </c>
+      <c r="H69">
+        <v>100</v>
+      </c>
+      <c r="I69">
+        <v>0.75</v>
+      </c>
+      <c r="J69">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="70" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D70">
+        <v>9.8789861744706303E-2</v>
+      </c>
+      <c r="E70">
+        <v>0.14523482880335101</v>
+      </c>
+      <c r="F70">
+        <v>0.14602321810357299</v>
+      </c>
+      <c r="G70">
+        <v>4</v>
+      </c>
+      <c r="H70">
+        <v>100</v>
+      </c>
+      <c r="I70">
+        <v>0.25</v>
+      </c>
+      <c r="J70">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="71" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D71">
+        <v>6.8758910622639099E-2</v>
+      </c>
+      <c r="E71">
+        <v>0.14530948933148799</v>
+      </c>
+      <c r="F71">
+        <v>0.13464923155338099</v>
+      </c>
+      <c r="G71">
+        <v>8</v>
+      </c>
+      <c r="H71">
+        <v>100</v>
+      </c>
+      <c r="I71">
+        <v>0.5</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D72">
+        <v>9.5264177686006701E-2</v>
+      </c>
+      <c r="E72">
+        <v>0.14531044787320599</v>
+      </c>
+      <c r="F72">
+        <v>0.14278702602700599</v>
+      </c>
+      <c r="G72">
+        <v>5</v>
+      </c>
+      <c r="H72">
+        <v>100</v>
+      </c>
+      <c r="I72">
+        <v>0.25</v>
+      </c>
+      <c r="J72">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="73" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D73">
+        <v>8.2950400487295906E-2</v>
+      </c>
+      <c r="E73">
+        <v>0.14548143153916501</v>
+      </c>
+      <c r="F73">
+        <v>0.13708693306536901</v>
+      </c>
+      <c r="G73">
+        <v>5</v>
+      </c>
+      <c r="H73">
+        <v>100</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="74" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D74">
+        <v>6.9042172041126601E-2</v>
+      </c>
+      <c r="E74">
+        <v>0.145517169000769</v>
+      </c>
+      <c r="F74">
+        <v>0.13930437329197701</v>
+      </c>
+      <c r="G74">
+        <v>8</v>
+      </c>
+      <c r="H74">
+        <v>100</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="75" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D75">
+        <v>9.3473385191622002E-2</v>
+      </c>
+      <c r="E75">
+        <v>0.14555550800983999</v>
+      </c>
+      <c r="F75">
+        <v>0.15245969739271101</v>
+      </c>
+      <c r="G75">
+        <v>7</v>
+      </c>
+      <c r="H75">
+        <v>100</v>
+      </c>
+      <c r="I75">
+        <v>0.25</v>
+      </c>
+      <c r="J75">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="76" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D76">
+        <v>6.9501143228510004E-2</v>
+      </c>
+      <c r="E76">
+        <v>0.14561609206509901</v>
+      </c>
+      <c r="F76">
+        <v>0.13250204253324099</v>
+      </c>
+      <c r="G76">
+        <v>7</v>
+      </c>
+      <c r="H76">
+        <v>100</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="77" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D77">
+        <v>6.9889654425701095E-2</v>
+      </c>
+      <c r="E77">
+        <v>0.14563229570870101</v>
+      </c>
+      <c r="F77">
+        <v>0.13417982399610201</v>
+      </c>
+      <c r="G77">
+        <v>7</v>
+      </c>
+      <c r="H77">
+        <v>100</v>
+      </c>
+      <c r="I77">
+        <v>0.75</v>
+      </c>
+      <c r="J77">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="78" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D78">
+        <v>6.5031797714157999E-2</v>
+      </c>
+      <c r="E78">
+        <v>0.14567653908723599</v>
+      </c>
+      <c r="F78">
+        <v>0.13528293934034899</v>
+      </c>
+      <c r="G78">
+        <v>8</v>
+      </c>
+      <c r="H78">
+        <v>100</v>
+      </c>
+      <c r="I78">
+        <v>0.75</v>
+      </c>
+      <c r="J78">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="79" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D79">
+        <v>6.89165091102001E-2</v>
+      </c>
+      <c r="E79">
+        <v>0.145723932657191</v>
+      </c>
+      <c r="F79">
+        <v>0.13469989857366399</v>
+      </c>
+      <c r="G79">
+        <v>8</v>
+      </c>
+      <c r="H79">
+        <v>100</v>
+      </c>
+      <c r="I79">
+        <v>0.5</v>
+      </c>
+      <c r="J79">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="80" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D80">
+        <v>7.3140561875337504E-2</v>
+      </c>
+      <c r="E80">
+        <v>0.14583517794050699</v>
+      </c>
+      <c r="F80">
+        <v>0.13422941798163299</v>
+      </c>
+      <c r="G80">
+        <v>6</v>
+      </c>
+      <c r="H80">
+        <v>100</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="81" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D81">
+        <v>0.105026463570828</v>
+      </c>
+      <c r="E81">
+        <v>0.14583603947071699</v>
+      </c>
+      <c r="F81">
+        <v>0.14798087825911799</v>
+      </c>
+      <c r="G81">
+        <v>3</v>
+      </c>
+      <c r="H81">
+        <v>100</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="82" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D82">
+        <v>0.10297360522474699</v>
+      </c>
+      <c r="E82">
+        <v>0.14592368823277199</v>
+      </c>
+      <c r="F82">
+        <v>0.14261877697111799</v>
+      </c>
+      <c r="G82">
+        <v>3</v>
+      </c>
+      <c r="H82">
+        <v>100</v>
+      </c>
+      <c r="I82">
+        <v>0.5</v>
+      </c>
+      <c r="J82">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="83" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D83">
+        <v>0.109234777313146</v>
+      </c>
+      <c r="E83">
+        <v>0.145933591584159</v>
+      </c>
+      <c r="F83">
+        <v>0.15055318642271001</v>
+      </c>
+      <c r="G83">
+        <v>3</v>
+      </c>
+      <c r="H83">
+        <v>100</v>
+      </c>
+      <c r="I83">
+        <v>0.25</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D84">
+        <v>6.6065291610169899E-2</v>
+      </c>
+      <c r="E84">
+        <v>0.145959025190841</v>
+      </c>
+      <c r="F84">
+        <v>0.135403166239071</v>
+      </c>
+      <c r="G84">
+        <v>9</v>
+      </c>
+      <c r="H84">
+        <v>100</v>
+      </c>
+      <c r="I84">
+        <v>0.5</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D85">
+        <v>6.6104099289214596E-2</v>
+      </c>
+      <c r="E85">
+        <v>0.14600255626370001</v>
+      </c>
+      <c r="F85">
+        <v>0.13602277815466601</v>
+      </c>
+      <c r="G85">
+        <v>9</v>
+      </c>
+      <c r="H85">
+        <v>100</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="86" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D86">
+        <v>0.10276497723014601</v>
+      </c>
+      <c r="E86">
+        <v>0.146004036091648</v>
+      </c>
+      <c r="F86">
+        <v>0.15085588376044901</v>
+      </c>
+      <c r="G86">
+        <v>4</v>
+      </c>
+      <c r="H86">
+        <v>100</v>
+      </c>
+      <c r="I86">
+        <v>0.25</v>
+      </c>
+      <c r="J86">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="87" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D87">
+        <v>8.1362364856915698E-2</v>
+      </c>
+      <c r="E87">
+        <v>0.14605378667022301</v>
+      </c>
+      <c r="F87">
+        <v>0.13822514138815001</v>
+      </c>
+      <c r="G87">
+        <v>5</v>
+      </c>
+      <c r="H87">
+        <v>100</v>
+      </c>
+      <c r="I87">
+        <v>0.75</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D88">
+        <v>6.8335130649826298E-2</v>
+      </c>
+      <c r="E88">
+        <v>0.146062234203405</v>
+      </c>
+      <c r="F88">
+        <v>0.132615697950726</v>
+      </c>
+      <c r="G88">
+        <v>8</v>
+      </c>
+      <c r="H88">
+        <v>100</v>
+      </c>
+      <c r="I88">
+        <v>0.75</v>
+      </c>
+      <c r="J88">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="89" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D89">
+        <v>6.6008847776179602E-2</v>
+      </c>
+      <c r="E89">
+        <v>0.14608970127346099</v>
+      </c>
+      <c r="F89">
+        <v>0.13435267087246699</v>
+      </c>
+      <c r="G89">
+        <v>9</v>
+      </c>
+      <c r="H89">
+        <v>100</v>
+      </c>
+      <c r="I89">
+        <v>0.5</v>
+      </c>
+      <c r="J89">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="90" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D90">
+        <v>6.2891854705142497E-2</v>
+      </c>
+      <c r="E90">
+        <v>0.146124282835352</v>
+      </c>
+      <c r="F90">
+        <v>0.138815995145498</v>
+      </c>
+      <c r="G90">
+        <v>10</v>
+      </c>
+      <c r="H90">
+        <v>100</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="91" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D91">
+        <v>8.9977067933380395E-2</v>
+      </c>
+      <c r="E91">
+        <v>0.14616056726454299</v>
+      </c>
+      <c r="F91">
+        <v>0.13765894104811199</v>
+      </c>
+      <c r="G91">
+        <v>4</v>
+      </c>
+      <c r="H91">
+        <v>100</v>
+      </c>
+      <c r="I91">
+        <v>0.75</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D92">
+        <v>6.3994661055556595E-2</v>
+      </c>
+      <c r="E92">
+        <v>0.14630844512530899</v>
+      </c>
+      <c r="F92">
+        <v>0.13717323003611601</v>
+      </c>
+      <c r="G92">
+        <v>10</v>
+      </c>
+      <c r="H92">
+        <v>100</v>
+      </c>
+      <c r="I92">
+        <v>0.5</v>
+      </c>
+      <c r="J92">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="93" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D93">
+        <v>9.9091707594170103E-2</v>
+      </c>
+      <c r="E93">
+        <v>0.146365625215719</v>
+      </c>
+      <c r="F93">
+        <v>0.15168249402258499</v>
+      </c>
+      <c r="G93">
+        <v>6</v>
+      </c>
+      <c r="H93">
+        <v>100</v>
+      </c>
+      <c r="I93">
+        <v>0.25</v>
+      </c>
+      <c r="J93">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="94" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D94">
+        <v>0.10282074658137901</v>
+      </c>
+      <c r="E94">
+        <v>0.14643244862367</v>
+      </c>
+      <c r="F94">
+        <v>0.14063216995819799</v>
+      </c>
+      <c r="G94">
+        <v>3</v>
+      </c>
+      <c r="H94">
+        <v>100</v>
+      </c>
+      <c r="I94">
+        <v>0.5</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D95">
+        <v>6.41441740211732E-2</v>
+      </c>
+      <c r="E95">
+        <v>0.14643630870048899</v>
+      </c>
+      <c r="F95">
+        <v>0.13600652384827999</v>
+      </c>
+      <c r="G95">
+        <v>10</v>
+      </c>
+      <c r="H95">
+        <v>100</v>
+      </c>
+      <c r="I95">
+        <v>0.5</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D96">
+        <v>7.3830154647712004E-2</v>
+      </c>
+      <c r="E96">
+        <v>0.14651164235457501</v>
+      </c>
+      <c r="F96">
+        <v>0.13293413116949801</v>
+      </c>
+      <c r="G96">
+        <v>6</v>
+      </c>
+      <c r="H96">
+        <v>100</v>
+      </c>
+      <c r="I96">
+        <v>0.75</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D97">
+        <v>6.5102267065607497E-2</v>
+      </c>
+      <c r="E97">
+        <v>0.14656308174841601</v>
+      </c>
+      <c r="F97">
+        <v>0.133701362386318</v>
+      </c>
+      <c r="G97">
+        <v>8</v>
+      </c>
+      <c r="H97">
+        <v>100</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="98" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D98">
+        <v>0.105268368584283</v>
+      </c>
+      <c r="E98">
+        <v>0.146624337843967</v>
+      </c>
+      <c r="F98">
+        <v>0.14413272082373599</v>
+      </c>
+      <c r="G98">
+        <v>3</v>
+      </c>
+      <c r="H98">
+        <v>100</v>
+      </c>
+      <c r="I98">
+        <v>0.75</v>
+      </c>
+      <c r="J98">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="99" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D99">
+        <v>6.2036462349055702E-2</v>
+      </c>
+      <c r="E99">
+        <v>0.14667886204668201</v>
+      </c>
+      <c r="F99">
+        <v>0.134272716744021</v>
+      </c>
+      <c r="G99">
+        <v>9</v>
+      </c>
+      <c r="H99">
+        <v>100</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="100" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D100">
+        <v>0.10377971446421</v>
+      </c>
+      <c r="E100">
+        <v>0.14668053808612</v>
+      </c>
+      <c r="F100">
+        <v>0.140377863268423</v>
+      </c>
+      <c r="G100">
+        <v>3</v>
+      </c>
+      <c r="H100">
+        <v>100</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="101" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D101">
+        <v>5.9796001313266303E-2</v>
+      </c>
+      <c r="E101">
+        <v>0.14673980897804501</v>
+      </c>
+      <c r="F101">
+        <v>0.13610865675214701</v>
+      </c>
+      <c r="G101">
+        <v>10</v>
+      </c>
+      <c r="H101">
+        <v>100</v>
+      </c>
+      <c r="I101">
+        <v>0.75</v>
+      </c>
+      <c r="J101">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="102" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D102">
+        <v>0.11139202941369</v>
+      </c>
+      <c r="E102">
+        <v>0.146789270102514</v>
+      </c>
+      <c r="F102">
+        <v>0.149303736184593</v>
+      </c>
+      <c r="G102">
+        <v>3</v>
+      </c>
+      <c r="H102">
+        <v>100</v>
+      </c>
+      <c r="I102">
+        <v>0.5</v>
+      </c>
+      <c r="J102">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="103" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D103">
+        <v>0.10409813733507201</v>
+      </c>
+      <c r="E103">
+        <v>0.14686040266556</v>
+      </c>
+      <c r="F103">
+        <v>0.15608056744943599</v>
+      </c>
+      <c r="G103">
+        <v>5</v>
+      </c>
+      <c r="H103">
+        <v>100</v>
+      </c>
+      <c r="I103">
+        <v>0.25</v>
+      </c>
+      <c r="J103">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="104" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D104">
+        <v>6.8430444938711102E-2</v>
+      </c>
+      <c r="E104">
+        <v>0.14698027023076701</v>
+      </c>
+      <c r="F104">
+        <v>0.13295678971863001</v>
+      </c>
+      <c r="G104">
+        <v>7</v>
+      </c>
+      <c r="H104">
+        <v>100</v>
+      </c>
+      <c r="I104">
+        <v>0.75</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D105">
+        <v>0.107930331240397</v>
+      </c>
+      <c r="E105">
+        <v>0.14701394320428199</v>
+      </c>
+      <c r="F105">
+        <v>0.14839641389088301</v>
+      </c>
+      <c r="G105">
+        <v>3</v>
+      </c>
+      <c r="H105">
+        <v>100</v>
+      </c>
+      <c r="I105">
+        <v>0.75</v>
+      </c>
+      <c r="J105">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="106" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D106">
+        <v>6.68867115662726E-2</v>
+      </c>
+      <c r="E106">
+        <v>0.147083954259904</v>
+      </c>
+      <c r="F106">
+        <v>0.13570899975456299</v>
+      </c>
+      <c r="G106">
+        <v>7</v>
+      </c>
+      <c r="H106">
+        <v>100</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="107" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D107">
+        <v>5.9404544816091802E-2</v>
+      </c>
+      <c r="E107">
+        <v>0.14709599729400799</v>
+      </c>
+      <c r="F107">
+        <v>0.137319218239984</v>
+      </c>
+      <c r="G107">
+        <v>10</v>
+      </c>
+      <c r="H107">
+        <v>100</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="108" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D108">
+        <v>0.106552294626458</v>
+      </c>
+      <c r="E108">
+        <v>0.14714184097202601</v>
+      </c>
+      <c r="F108">
+        <v>0.147464134020862</v>
+      </c>
+      <c r="G108">
+        <v>3</v>
+      </c>
+      <c r="H108">
+        <v>100</v>
+      </c>
+      <c r="I108">
+        <v>0.5</v>
+      </c>
+      <c r="J108">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="109" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D109">
+        <v>6.1301639633742799E-2</v>
+      </c>
+      <c r="E109">
+        <v>0.147155697831135</v>
+      </c>
+      <c r="F109">
+        <v>0.135159495248802</v>
+      </c>
+      <c r="G109">
+        <v>9</v>
+      </c>
+      <c r="H109">
+        <v>100</v>
+      </c>
+      <c r="I109">
+        <v>0.75</v>
+      </c>
+      <c r="J109">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="110" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D110">
+        <v>8.7589426915095803E-2</v>
+      </c>
+      <c r="E110">
+        <v>0.14724648435356599</v>
+      </c>
+      <c r="F110">
+        <v>0.13633128269065001</v>
+      </c>
+      <c r="G110">
+        <v>4</v>
+      </c>
+      <c r="H110">
+        <v>100</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D111">
+        <v>0.108290298572375</v>
+      </c>
+      <c r="E111">
+        <v>0.14738937400430799</v>
+      </c>
+      <c r="F111">
+        <v>0.150002583746805</v>
+      </c>
+      <c r="G111">
+        <v>3</v>
+      </c>
+      <c r="H111">
+        <v>100</v>
+      </c>
+      <c r="I111">
+        <v>0.25</v>
+      </c>
+      <c r="J111">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="112" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D112">
+        <v>0.10166683590753101</v>
+      </c>
+      <c r="E112">
+        <v>0.14743136101346499</v>
+      </c>
+      <c r="F112">
+        <v>0.143316770886012</v>
+      </c>
+      <c r="G112">
+        <v>3</v>
+      </c>
+      <c r="H112">
+        <v>100</v>
+      </c>
+      <c r="I112">
+        <v>0.75</v>
+      </c>
+      <c r="J112">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="113" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D113">
+        <v>9.98368217820641E-2</v>
+      </c>
+      <c r="E113">
+        <v>0.14762862075294</v>
+      </c>
+      <c r="F113">
+        <v>0.141842371155947</v>
+      </c>
+      <c r="G113">
+        <v>3</v>
+      </c>
+      <c r="H113">
+        <v>100</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="114" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D114">
+        <v>0.10179408493346701</v>
+      </c>
+      <c r="E114">
+        <v>0.147651479329724</v>
+      </c>
+      <c r="F114">
+        <v>0.14070464466521701</v>
+      </c>
+      <c r="G114">
+        <v>3</v>
+      </c>
+      <c r="H114">
+        <v>100</v>
+      </c>
+      <c r="I114">
+        <v>0.75</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D115">
+        <v>6.4829956685780205E-2</v>
+      </c>
+      <c r="E115">
+        <v>0.14772501349073799</v>
+      </c>
+      <c r="F115">
+        <v>0.13639944267538501</v>
+      </c>
+      <c r="G115">
+        <v>8</v>
+      </c>
+      <c r="H115">
+        <v>100</v>
+      </c>
+      <c r="I115">
+        <v>0.75</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D116">
+        <v>6.43919500370322E-2</v>
+      </c>
+      <c r="E116">
+        <v>0.147791664979775</v>
+      </c>
+      <c r="F116">
+        <v>0.134062265824125</v>
+      </c>
+      <c r="G116">
+        <v>9</v>
+      </c>
+      <c r="H116">
+        <v>100</v>
+      </c>
+      <c r="I116">
+        <v>0.75</v>
+      </c>
+      <c r="J116">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="117" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D117">
+        <v>6.2604382025044106E-2</v>
+      </c>
+      <c r="E117">
+        <v>0.14790979448689801</v>
+      </c>
+      <c r="F117">
+        <v>0.13387302670572199</v>
+      </c>
+      <c r="G117">
+        <v>8</v>
+      </c>
+      <c r="H117">
+        <v>100</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="118" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D118">
+        <v>7.1219574947886999E-2</v>
+      </c>
+      <c r="E118">
+        <v>0.147973733840568</v>
+      </c>
+      <c r="F118">
+        <v>0.134274067263287</v>
+      </c>
+      <c r="G118">
+        <v>6</v>
+      </c>
+      <c r="H118">
+        <v>100</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D119">
+        <v>7.9576483111164206E-2</v>
+      </c>
+      <c r="E119">
+        <v>0.14798141568123799</v>
+      </c>
+      <c r="F119">
+        <v>0.13414538958240099</v>
+      </c>
+      <c r="G119">
+        <v>5</v>
+      </c>
+      <c r="H119">
+        <v>100</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D120">
+        <v>6.0989313756066497E-2</v>
+      </c>
+      <c r="E120">
+        <v>0.14809557634950099</v>
+      </c>
+      <c r="F120">
+        <v>0.135818655397065</v>
+      </c>
+      <c r="G120">
+        <v>10</v>
+      </c>
+      <c r="H120">
+        <v>100</v>
+      </c>
+      <c r="I120">
+        <v>0.75</v>
+      </c>
+      <c r="J120">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="121" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D121">
+        <v>0.109571438837819</v>
+      </c>
+      <c r="E121">
+        <v>0.14847543840733299</v>
+      </c>
+      <c r="F121">
+        <v>0.15314969683538299</v>
+      </c>
+      <c r="G121">
+        <v>4</v>
+      </c>
+      <c r="H121">
+        <v>100</v>
+      </c>
+      <c r="I121">
+        <v>0.25</v>
+      </c>
+      <c r="J121">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="122" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D122">
+        <v>0.111384906054469</v>
+      </c>
+      <c r="E122">
+        <v>0.148646252159225</v>
+      </c>
+      <c r="F122">
+        <v>0.15343374731196899</v>
+      </c>
+      <c r="G122">
+        <v>3</v>
+      </c>
+      <c r="H122">
+        <v>100</v>
+      </c>
+      <c r="I122">
+        <v>0.25</v>
+      </c>
+      <c r="J122">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="123" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D123">
+        <v>6.1979348816777399E-2</v>
+      </c>
+      <c r="E123">
+        <v>0.14867184970383199</v>
+      </c>
+      <c r="F123">
+        <v>0.134569054066667</v>
+      </c>
+      <c r="G123">
+        <v>9</v>
+      </c>
+      <c r="H123">
+        <v>100</v>
+      </c>
+      <c r="I123">
+        <v>0.75</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D124">
+        <v>5.9162432029849298E-2</v>
+      </c>
+      <c r="E124">
+        <v>0.148705867990163</v>
+      </c>
+      <c r="F124">
+        <v>0.13505067021912201</v>
+      </c>
+      <c r="G124">
+        <v>9</v>
+      </c>
+      <c r="H124">
+        <v>100</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="125" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D125">
+        <v>6.5622567478542504E-2</v>
+      </c>
+      <c r="E125">
+        <v>0.14873012828281801</v>
+      </c>
+      <c r="F125">
+        <v>0.13435108696526099</v>
+      </c>
+      <c r="G125">
+        <v>7</v>
+      </c>
+      <c r="H125">
+        <v>100</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D126">
+        <v>9.9979267877384995E-2</v>
+      </c>
+      <c r="E126">
+        <v>0.148880091542931</v>
+      </c>
+      <c r="F126">
+        <v>0.14200041615738801</v>
+      </c>
+      <c r="G126">
+        <v>3</v>
+      </c>
+      <c r="H126">
+        <v>100</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D127">
+        <v>5.9411108651319398E-2</v>
+      </c>
+      <c r="E127">
+        <v>0.14891171320580199</v>
+      </c>
+      <c r="F127">
+        <v>0.134575526735315</v>
+      </c>
+      <c r="G127">
+        <v>10</v>
+      </c>
+      <c r="H127">
+        <v>100</v>
+      </c>
+      <c r="I127">
+        <v>0.75</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D128">
+        <v>5.6284157396770097E-2</v>
+      </c>
+      <c r="E128">
+        <v>0.149248984861828</v>
+      </c>
+      <c r="F128">
+        <v>0.13773848058802099</v>
+      </c>
+      <c r="G128">
+        <v>10</v>
+      </c>
+      <c r="H128">
+        <v>100</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="129" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D129">
+        <v>6.2148493152853701E-2</v>
+      </c>
+      <c r="E129">
+        <v>0.14949381922980801</v>
+      </c>
+      <c r="F129">
+        <v>0.13513309254295899</v>
+      </c>
+      <c r="G129">
+        <v>8</v>
+      </c>
+      <c r="H129">
+        <v>100</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D130">
+        <v>5.93482634103445E-2</v>
+      </c>
+      <c r="E130">
+        <v>0.15008840808932999</v>
+      </c>
+      <c r="F130">
+        <v>0.13395067881828701</v>
+      </c>
+      <c r="G130">
+        <v>9</v>
+      </c>
+      <c r="H130">
+        <v>100</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D131">
+        <v>0.120861343134872</v>
+      </c>
+      <c r="E131">
+        <v>0.15086149012392699</v>
+      </c>
+      <c r="F131">
+        <v>0.167776473145098</v>
+      </c>
+      <c r="G131">
+        <v>3</v>
+      </c>
+      <c r="H131">
+        <v>100</v>
+      </c>
+      <c r="I131">
+        <v>0.25</v>
+      </c>
+      <c r="J131">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="132" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D132">
+        <v>5.6697675146565797E-2</v>
+      </c>
+      <c r="E132">
+        <v>0.150905356043118</v>
+      </c>
+      <c r="F132">
+        <v>0.13663838392147601</v>
+      </c>
+      <c r="G132">
+        <v>10</v>
+      </c>
+      <c r="H132">
+        <v>100</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="D4:J132" xr:uid="{42303B9B-4B0E-4506-ADE2-61FAC8B16CE1}">
+    <sortState ref="D5:J132">
+      <sortCondition ref="E4:E132"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA7D515-5190-4991-9A3C-962787AB01E5}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="E4:M104"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>5.7196940343622098E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.137896578329088</v>
+      </c>
+      <c r="G5">
+        <v>0.131947202926149</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <v>0.25</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.1</v>
+      </c>
+      <c r="M5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>5.8227965616167998E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.13814303301227901</v>
+      </c>
+      <c r="G6">
+        <v>0.134239118675443</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6">
+        <v>0.25</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.1</v>
+      </c>
+      <c r="M6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>6.3915214896126796E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.13833331261757101</v>
+      </c>
+      <c r="G7">
+        <v>0.136046793831542</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="J7">
+        <v>0.25</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.2</v>
+      </c>
+      <c r="M7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <v>5.9992838135563303E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.13852828616098101</v>
+      </c>
+      <c r="G8">
+        <v>0.13459673737907801</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+      <c r="J8">
+        <v>0.25</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.1</v>
+      </c>
+      <c r="M8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <v>6.0538244859280901E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.138647256741665</v>
+      </c>
+      <c r="G9">
+        <v>0.13397661023873</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="J9">
+        <v>0.25</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.1</v>
+      </c>
+      <c r="M9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <v>6.4367599756353699E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.13876182719883801</v>
+      </c>
+      <c r="G10">
+        <v>0.13462910679571299</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+      <c r="J10">
+        <v>0.25</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.2</v>
+      </c>
+      <c r="M10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <v>6.6160727037054501E-2</v>
+      </c>
+      <c r="F11">
+        <v>0.13883306802051901</v>
+      </c>
+      <c r="G11">
+        <v>0.13681135974565301</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11">
+        <v>0.25</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.2</v>
+      </c>
+      <c r="M11">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <v>6.4091100094892606E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.13887348689554599</v>
+      </c>
+      <c r="G12">
+        <v>0.13541882667483501</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>100</v>
+      </c>
+      <c r="J12">
+        <v>0.25</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.2</v>
+      </c>
+      <c r="M12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <v>6.47248370550291E-2</v>
+      </c>
+      <c r="F13">
+        <v>0.13891205010018201</v>
+      </c>
+      <c r="G13">
+        <v>0.13516977858357401</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="J13">
+        <v>0.25</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.2</v>
+      </c>
+      <c r="M13">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <v>5.9455290865091E-2</v>
+      </c>
+      <c r="F14">
+        <v>0.138970503118097</v>
+      </c>
+      <c r="G14">
+        <v>0.13587616998923399</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>100</v>
+      </c>
+      <c r="J14">
+        <v>0.25</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.1</v>
+      </c>
+      <c r="M14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <v>5.9780193497345299E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.13902417347434301</v>
+      </c>
+      <c r="G15">
+        <v>0.13537399352034299</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>100</v>
+      </c>
+      <c r="J15">
+        <v>0.25</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.1</v>
+      </c>
+      <c r="M15">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <v>6.5245339765276203E-2</v>
+      </c>
+      <c r="F16">
+        <v>0.13904014312617499</v>
+      </c>
+      <c r="G16">
+        <v>0.13610638924374399</v>
+      </c>
+      <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="I16">
+        <v>100</v>
+      </c>
+      <c r="J16">
+        <v>0.25</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.2</v>
+      </c>
+      <c r="M16">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <v>6.12479054184632E-2</v>
+      </c>
+      <c r="F17">
+        <v>0.139050914184743</v>
+      </c>
+      <c r="G17">
+        <v>0.136207525744969</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <v>100</v>
+      </c>
+      <c r="J17">
+        <v>0.25</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.1</v>
+      </c>
+      <c r="M17">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="18" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <v>7.2499752968083905E-2</v>
+      </c>
+      <c r="F18">
+        <v>0.139071071834694</v>
+      </c>
+      <c r="G18">
+        <v>0.13727777105769101</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="I18">
+        <v>100</v>
+      </c>
+      <c r="J18">
+        <v>0.25</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.4</v>
+      </c>
+      <c r="M18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <v>6.18731485651016E-2</v>
+      </c>
+      <c r="F19">
+        <v>0.139078290450837</v>
+      </c>
+      <c r="G19">
+        <v>0.135100939476998</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>100</v>
+      </c>
+      <c r="J19">
+        <v>0.25</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.1</v>
+      </c>
+      <c r="M19">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="20" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <v>6.7130024238939601E-2</v>
+      </c>
+      <c r="F20">
+        <v>0.139094250881764</v>
+      </c>
+      <c r="G20">
+        <v>0.136665609737536</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <v>100</v>
+      </c>
+      <c r="J20">
+        <v>0.25</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.2</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E21">
+        <v>6.9421961517492498E-2</v>
+      </c>
+      <c r="F21">
+        <v>0.13910647616965799</v>
+      </c>
+      <c r="G21">
+        <v>0.13540750243964</v>
+      </c>
+      <c r="H21">
+        <v>6</v>
+      </c>
+      <c r="I21">
+        <v>100</v>
+      </c>
+      <c r="J21">
+        <v>0.25</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3</v>
+      </c>
+      <c r="M21">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E22">
+        <v>6.5415694669688093E-2</v>
+      </c>
+      <c r="F22">
+        <v>0.139111022790774</v>
+      </c>
+      <c r="G22">
+        <v>0.136269703053087</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>100</v>
+      </c>
+      <c r="J22">
+        <v>0.25</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.2</v>
+      </c>
+      <c r="M22">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <v>7.3731284889886298E-2</v>
+      </c>
+      <c r="F23">
+        <v>0.13912081087302999</v>
+      </c>
+      <c r="G23">
+        <v>0.137103968245394</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <v>100</v>
+      </c>
+      <c r="J23">
+        <v>0.25</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.4</v>
+      </c>
+      <c r="M23">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="24" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E24">
+        <v>7.1654566195544805E-2</v>
+      </c>
+      <c r="F24">
+        <v>0.13912318869221099</v>
+      </c>
+      <c r="G24">
+        <v>0.136762477919393</v>
+      </c>
+      <c r="H24">
+        <v>6</v>
+      </c>
+      <c r="I24">
+        <v>100</v>
+      </c>
+      <c r="J24">
+        <v>0.25</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.4</v>
+      </c>
+      <c r="M24">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <v>6.7525940924196906E-2</v>
+      </c>
+      <c r="F25">
+        <v>0.139175624987841</v>
+      </c>
+      <c r="G25">
+        <v>0.13562463610221201</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
+      </c>
+      <c r="I25">
+        <v>100</v>
+      </c>
+      <c r="J25">
+        <v>0.25</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3</v>
+      </c>
+      <c r="M25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E26">
+        <v>6.3931276143067498E-2</v>
+      </c>
+      <c r="F26">
+        <v>0.139196473365053</v>
+      </c>
+      <c r="G26">
+        <v>0.13527346340434901</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+      <c r="I26">
+        <v>100</v>
+      </c>
+      <c r="J26">
+        <v>0.25</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.2</v>
+      </c>
+      <c r="M26">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="27" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <v>6.2230892904966001E-2</v>
+      </c>
+      <c r="F27">
+        <v>0.13925845450251201</v>
+      </c>
+      <c r="G27">
+        <v>0.13335860145235401</v>
+      </c>
+      <c r="H27">
+        <v>6</v>
+      </c>
+      <c r="I27">
+        <v>100</v>
+      </c>
+      <c r="J27">
+        <v>0.25</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E28">
+        <v>6.2330804044458399E-2</v>
+      </c>
+      <c r="F28">
+        <v>0.13929033765394899</v>
+      </c>
+      <c r="G28">
+        <v>0.133990494663041</v>
+      </c>
+      <c r="H28">
+        <v>6</v>
+      </c>
+      <c r="I28">
+        <v>100</v>
+      </c>
+      <c r="J28">
+        <v>0.25</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.1</v>
+      </c>
+      <c r="M28">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="29" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E29">
+        <v>6.9514217239307605E-2</v>
+      </c>
+      <c r="F29">
+        <v>0.139292081296505</v>
+      </c>
+      <c r="G29">
+        <v>0.13661936310294501</v>
+      </c>
+      <c r="H29">
+        <v>6</v>
+      </c>
+      <c r="I29">
+        <v>100</v>
+      </c>
+      <c r="J29">
+        <v>0.25</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3</v>
+      </c>
+      <c r="M29">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="30" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E30">
+        <v>7.1151496052890797E-2</v>
+      </c>
+      <c r="F30">
+        <v>0.139296027925878</v>
+      </c>
+      <c r="G30">
+        <v>0.135503272405088</v>
+      </c>
+      <c r="H30">
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <v>100</v>
+      </c>
+      <c r="J30">
+        <v>0.25</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.4</v>
+      </c>
+      <c r="M30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E31">
+        <v>6.5448590043303001E-2</v>
+      </c>
+      <c r="F31">
+        <v>0.139306278499401</v>
+      </c>
+      <c r="G31">
+        <v>0.137182121279015</v>
+      </c>
+      <c r="H31">
+        <v>6</v>
+      </c>
+      <c r="I31">
+        <v>100</v>
+      </c>
+      <c r="J31">
+        <v>0.25</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.2</v>
+      </c>
+      <c r="M31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E32">
+        <v>7.4752517626903797E-2</v>
+      </c>
+      <c r="F32">
+        <v>0.139315538303386</v>
+      </c>
+      <c r="G32">
+        <v>0.13698797344831201</v>
+      </c>
+      <c r="H32">
+        <v>6</v>
+      </c>
+      <c r="I32">
+        <v>100</v>
+      </c>
+      <c r="J32">
+        <v>0.25</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="33" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E33">
+        <v>6.8010037086461694E-2</v>
+      </c>
+      <c r="F33">
+        <v>0.13933078442625599</v>
+      </c>
+      <c r="G33">
+        <v>0.13538594666891501</v>
+      </c>
+      <c r="H33">
+        <v>6</v>
+      </c>
+      <c r="I33">
+        <v>100</v>
+      </c>
+      <c r="J33">
+        <v>0.25</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3</v>
+      </c>
+      <c r="M33">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="34" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E34">
+        <v>7.2719233204062594E-2</v>
+      </c>
+      <c r="F34">
+        <v>0.13936172149108</v>
+      </c>
+      <c r="G34">
+        <v>0.13440165293169701</v>
+      </c>
+      <c r="H34">
+        <v>6</v>
+      </c>
+      <c r="I34">
+        <v>100</v>
+      </c>
+      <c r="J34">
+        <v>0.25</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.4</v>
+      </c>
+      <c r="M34">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="35" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E35">
+        <v>6.9158223525100204E-2</v>
+      </c>
+      <c r="F35">
+        <v>0.139432588651454</v>
+      </c>
+      <c r="G35">
+        <v>0.13548097711546001</v>
+      </c>
+      <c r="H35">
+        <v>6</v>
+      </c>
+      <c r="I35">
+        <v>100</v>
+      </c>
+      <c r="J35">
+        <v>0.25</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3</v>
+      </c>
+      <c r="M35">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="36" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E36">
+        <v>6.8351646393870993E-2</v>
+      </c>
+      <c r="F36">
+        <v>0.13944019645842501</v>
+      </c>
+      <c r="G36">
+        <v>0.13892512175149199</v>
+      </c>
+      <c r="H36">
+        <v>6</v>
+      </c>
+      <c r="I36">
+        <v>100</v>
+      </c>
+      <c r="J36">
+        <v>0.25</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0.3</v>
+      </c>
+      <c r="M36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E37">
+        <v>7.2429632212773903E-2</v>
+      </c>
+      <c r="F37">
+        <v>0.139473645284866</v>
+      </c>
+      <c r="G37">
+        <v>0.137841579573559</v>
+      </c>
+      <c r="H37">
+        <v>6</v>
+      </c>
+      <c r="I37">
+        <v>100</v>
+      </c>
+      <c r="J37">
+        <v>0.25</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0.4</v>
+      </c>
+      <c r="M37">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="38" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E38">
+        <v>6.9780723961621396E-2</v>
+      </c>
+      <c r="F38">
+        <v>0.13948758724896301</v>
+      </c>
+      <c r="G38">
+        <v>0.13544681245224999</v>
+      </c>
+      <c r="H38">
+        <v>6</v>
+      </c>
+      <c r="I38">
+        <v>100</v>
+      </c>
+      <c r="J38">
+        <v>0.25</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>0.3</v>
+      </c>
+      <c r="M38">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="39" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E39">
+        <v>7.0316182384973905E-2</v>
+      </c>
+      <c r="F39">
+        <v>0.13949015148171101</v>
+      </c>
+      <c r="G39">
+        <v>0.13639670798793699</v>
+      </c>
+      <c r="H39">
+        <v>6</v>
+      </c>
+      <c r="I39">
+        <v>100</v>
+      </c>
+      <c r="J39">
+        <v>0.25</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>0.3</v>
+      </c>
+      <c r="M39">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="40" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E40">
+        <v>7.4410621883356898E-2</v>
+      </c>
+      <c r="F40">
+        <v>0.13955561697768501</v>
+      </c>
+      <c r="G40">
+        <v>0.13623188176922299</v>
+      </c>
+      <c r="H40">
+        <v>6</v>
+      </c>
+      <c r="I40">
+        <v>100</v>
+      </c>
+      <c r="J40">
+        <v>0.25</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>0.5</v>
+      </c>
+      <c r="M40">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="41" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E41">
+        <v>7.1494636575705497E-2</v>
+      </c>
+      <c r="F41">
+        <v>0.139574656829549</v>
+      </c>
+      <c r="G41">
+        <v>0.136179399778214</v>
+      </c>
+      <c r="H41">
+        <v>6</v>
+      </c>
+      <c r="I41">
+        <v>100</v>
+      </c>
+      <c r="J41">
+        <v>0.25</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>0.4</v>
+      </c>
+      <c r="M41">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="42" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E42">
+        <v>7.7908327296767693E-2</v>
+      </c>
+      <c r="F42">
+        <v>0.13966339360968499</v>
+      </c>
+      <c r="G42">
+        <v>0.13891814403497599</v>
+      </c>
+      <c r="H42">
+        <v>6</v>
+      </c>
+      <c r="I42">
+        <v>100</v>
+      </c>
+      <c r="J42">
+        <v>0.25</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>0.6</v>
+      </c>
+      <c r="M42">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E43">
+        <v>7.5058371677347704E-2</v>
+      </c>
+      <c r="F43">
+        <v>0.139734395788146</v>
+      </c>
+      <c r="G43">
+        <v>0.13867511874619701</v>
+      </c>
+      <c r="H43">
+        <v>6</v>
+      </c>
+      <c r="I43">
+        <v>100</v>
+      </c>
+      <c r="J43">
+        <v>0.25</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>0.5</v>
+      </c>
+      <c r="M43">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="44" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E44">
+        <v>7.5578581707850298E-2</v>
+      </c>
+      <c r="F44">
+        <v>0.13977360256460999</v>
+      </c>
+      <c r="G44">
+        <v>0.13878990314148201</v>
+      </c>
+      <c r="H44">
+        <v>6</v>
+      </c>
+      <c r="I44">
+        <v>100</v>
+      </c>
+      <c r="J44">
+        <v>0.25</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>0.5</v>
+      </c>
+      <c r="M44">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="45" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E45">
+        <v>7.4813550528851705E-2</v>
+      </c>
+      <c r="F45">
+        <v>0.139777077855679</v>
+      </c>
+      <c r="G45">
+        <v>0.13618530541239801</v>
+      </c>
+      <c r="H45">
+        <v>6</v>
+      </c>
+      <c r="I45">
+        <v>100</v>
+      </c>
+      <c r="J45">
+        <v>0.25</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>0.5</v>
+      </c>
+      <c r="M45">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E46">
+        <v>7.2876024248292204E-2</v>
+      </c>
+      <c r="F46">
+        <v>0.13978305146626899</v>
+      </c>
+      <c r="G46">
+        <v>0.136340385588061</v>
+      </c>
+      <c r="H46">
+        <v>6</v>
+      </c>
+      <c r="I46">
+        <v>100</v>
+      </c>
+      <c r="J46">
+        <v>0.25</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>0.4</v>
+      </c>
+      <c r="M46">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="47" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E47">
+        <v>7.7206449339022196E-2</v>
+      </c>
+      <c r="F47">
+        <v>0.139850493529736</v>
+      </c>
+      <c r="G47">
+        <v>0.137960573597848</v>
+      </c>
+      <c r="H47">
+        <v>6</v>
+      </c>
+      <c r="I47">
+        <v>100</v>
+      </c>
+      <c r="J47">
+        <v>0.25</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>0.6</v>
+      </c>
+      <c r="M47">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="48" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E48">
+        <v>7.9278786582874197E-2</v>
+      </c>
+      <c r="F48">
+        <v>0.13986284690029199</v>
+      </c>
+      <c r="G48">
+        <v>0.139705326437113</v>
+      </c>
+      <c r="H48">
+        <v>6</v>
+      </c>
+      <c r="I48">
+        <v>100</v>
+      </c>
+      <c r="J48">
+        <v>0.25</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>0.7</v>
+      </c>
+      <c r="M48">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="49" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E49">
+        <v>7.5214668143285895E-2</v>
+      </c>
+      <c r="F49">
+        <v>0.13987206211730899</v>
+      </c>
+      <c r="G49">
+        <v>0.13962639719511299</v>
+      </c>
+      <c r="H49">
+        <v>6</v>
+      </c>
+      <c r="I49">
+        <v>100</v>
+      </c>
+      <c r="J49">
+        <v>0.25</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>0.5</v>
+      </c>
+      <c r="M49">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="50" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E50">
+        <v>7.0222532385654401E-2</v>
+      </c>
+      <c r="F50">
+        <v>0.13987213609444599</v>
+      </c>
+      <c r="G50">
+        <v>0.13655103562139201</v>
+      </c>
+      <c r="H50">
+        <v>6</v>
+      </c>
+      <c r="I50">
+        <v>100</v>
+      </c>
+      <c r="J50">
+        <v>0.25</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>0.3</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E51">
+        <v>7.1756173102071094E-2</v>
+      </c>
+      <c r="F51">
+        <v>0.13993467150335701</v>
+      </c>
+      <c r="G51">
+        <v>0.13922168009203501</v>
+      </c>
+      <c r="H51">
+        <v>6</v>
+      </c>
+      <c r="I51">
+        <v>100</v>
+      </c>
+      <c r="J51">
+        <v>0.25</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>0.4</v>
+      </c>
+      <c r="M51">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="52" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E52">
+        <v>7.7449439587648494E-2</v>
+      </c>
+      <c r="F52">
+        <v>0.139937596908005</v>
+      </c>
+      <c r="G52">
+        <v>0.138693409892332</v>
+      </c>
+      <c r="H52">
+        <v>6</v>
+      </c>
+      <c r="I52">
+        <v>100</v>
+      </c>
+      <c r="J52">
+        <v>0.25</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>0.6</v>
+      </c>
+      <c r="M52">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="53" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E53">
+        <v>7.5752689846786903E-2</v>
+      </c>
+      <c r="F53">
+        <v>0.139938001180098</v>
+      </c>
+      <c r="G53">
+        <v>0.13947855194098399</v>
+      </c>
+      <c r="H53">
+        <v>6</v>
+      </c>
+      <c r="I53">
+        <v>100</v>
+      </c>
+      <c r="J53">
+        <v>0.25</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>0.5</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E54">
+        <v>7.6525262523287105E-2</v>
+      </c>
+      <c r="F54">
+        <v>0.13994238805951201</v>
+      </c>
+      <c r="G54">
+        <v>0.13946186590455401</v>
+      </c>
+      <c r="H54">
+        <v>6</v>
+      </c>
+      <c r="I54">
+        <v>100</v>
+      </c>
+      <c r="J54">
+        <v>0.25</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>0.5</v>
+      </c>
+      <c r="M54">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="55" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E55">
+        <v>7.7334820568177906E-2</v>
+      </c>
+      <c r="F55">
+        <v>0.14000961138401</v>
+      </c>
+      <c r="G55">
+        <v>0.13754340809128901</v>
+      </c>
+      <c r="H55">
+        <v>6</v>
+      </c>
+      <c r="I55">
+        <v>100</v>
+      </c>
+      <c r="J55">
+        <v>0.25</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>0.6</v>
+      </c>
+      <c r="M55">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="56" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E56">
+        <v>7.52844965739871E-2</v>
+      </c>
+      <c r="F56">
+        <v>0.14001122532582799</v>
+      </c>
+      <c r="G56">
+        <v>0.13834306120288101</v>
+      </c>
+      <c r="H56">
+        <v>6</v>
+      </c>
+      <c r="I56">
+        <v>100</v>
+      </c>
+      <c r="J56">
+        <v>0.25</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>0.5</v>
+      </c>
+      <c r="M56">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="57" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E57">
+        <v>7.7786065748452898E-2</v>
+      </c>
+      <c r="F57">
+        <v>0.14008020488836501</v>
+      </c>
+      <c r="G57">
+        <v>0.13905517820391</v>
+      </c>
+      <c r="H57">
+        <v>6</v>
+      </c>
+      <c r="I57">
+        <v>100</v>
+      </c>
+      <c r="J57">
+        <v>0.25</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>0.6</v>
+      </c>
+      <c r="M57">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="58" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E58">
+        <v>8.1280721769066602E-2</v>
+      </c>
+      <c r="F58">
+        <v>0.14012510256947699</v>
+      </c>
+      <c r="G58">
+        <v>0.137003725412285</v>
+      </c>
+      <c r="H58">
+        <v>6</v>
+      </c>
+      <c r="I58">
+        <v>100</v>
+      </c>
+      <c r="J58">
+        <v>0.25</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>0.8</v>
+      </c>
+      <c r="M58">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="59" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E59">
+        <v>6.8552579825034501E-2</v>
+      </c>
+      <c r="F59">
+        <v>0.14012563980107401</v>
+      </c>
+      <c r="G59">
+        <v>0.13660294872710799</v>
+      </c>
+      <c r="H59">
+        <v>6</v>
+      </c>
+      <c r="I59">
+        <v>100</v>
+      </c>
+      <c r="J59">
+        <v>0.25</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>0.3</v>
+      </c>
+      <c r="M59">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="60" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E60">
+        <v>7.8916478175649701E-2</v>
+      </c>
+      <c r="F60">
+        <v>0.140135377419213</v>
+      </c>
+      <c r="G60">
+        <v>0.13809996778407699</v>
+      </c>
+      <c r="H60">
+        <v>6</v>
+      </c>
+      <c r="I60">
+        <v>100</v>
+      </c>
+      <c r="J60">
+        <v>0.25</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>0.7</v>
+      </c>
+      <c r="M60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E61">
+        <v>7.4313450034410103E-2</v>
+      </c>
+      <c r="F61">
+        <v>0.14014786328187701</v>
+      </c>
+      <c r="G61">
+        <v>0.13601780391551399</v>
+      </c>
+      <c r="H61">
+        <v>6</v>
+      </c>
+      <c r="I61">
+        <v>100</v>
+      </c>
+      <c r="J61">
+        <v>0.25</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>0.5</v>
+      </c>
+      <c r="M61">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="62" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E62">
+        <v>7.6450356284044896E-2</v>
+      </c>
+      <c r="F62">
+        <v>0.140293050624724</v>
+      </c>
+      <c r="G62">
+        <v>0.13881175529592399</v>
+      </c>
+      <c r="H62">
+        <v>6</v>
+      </c>
+      <c r="I62">
+        <v>100</v>
+      </c>
+      <c r="J62">
+        <v>0.25</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>0.6</v>
+      </c>
+      <c r="M62">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="63" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E63">
+        <v>7.7476969650907501E-2</v>
+      </c>
+      <c r="F63">
+        <v>0.14031008904641101</v>
+      </c>
+      <c r="G63">
+        <v>0.139898564021086</v>
+      </c>
+      <c r="H63">
+        <v>6</v>
+      </c>
+      <c r="I63">
+        <v>100</v>
+      </c>
+      <c r="J63">
+        <v>0.25</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>0.6</v>
+      </c>
+      <c r="M63">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="64" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E64">
+        <v>7.2878808290153002E-2</v>
+      </c>
+      <c r="F64">
+        <v>0.14033273029168</v>
+      </c>
+      <c r="G64">
+        <v>0.138210810500878</v>
+      </c>
+      <c r="H64">
+        <v>6</v>
+      </c>
+      <c r="I64">
+        <v>100</v>
+      </c>
+      <c r="J64">
+        <v>0.25</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>0.4</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E65">
+        <v>7.7074703204112097E-2</v>
+      </c>
+      <c r="F65">
+        <v>0.14035283699623</v>
+      </c>
+      <c r="G65">
+        <v>0.13855571081735801</v>
+      </c>
+      <c r="H65">
+        <v>6</v>
+      </c>
+      <c r="I65">
+        <v>100</v>
+      </c>
+      <c r="J65">
+        <v>0.25</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>0.6</v>
+      </c>
+      <c r="M65">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="66" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E66">
+        <v>7.9588238963420294E-2</v>
+      </c>
+      <c r="F66">
+        <v>0.14035921030371401</v>
+      </c>
+      <c r="G66">
+        <v>0.139651092720286</v>
+      </c>
+      <c r="H66">
+        <v>6</v>
+      </c>
+      <c r="I66">
+        <v>100</v>
+      </c>
+      <c r="J66">
+        <v>0.25</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>0.7</v>
+      </c>
+      <c r="M66">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="67" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E67">
+        <v>8.1625468614544297E-2</v>
+      </c>
+      <c r="F67">
+        <v>0.14042226011029299</v>
+      </c>
+      <c r="G67">
+        <v>0.139546506855973</v>
+      </c>
+      <c r="H67">
+        <v>6</v>
+      </c>
+      <c r="I67">
+        <v>100</v>
+      </c>
+      <c r="J67">
+        <v>0.25</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>0.8</v>
+      </c>
+      <c r="M67">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="68" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E68">
+        <v>7.8950264448952395E-2</v>
+      </c>
+      <c r="F68">
+        <v>0.140504281885382</v>
+      </c>
+      <c r="G68">
+        <v>0.13783079009580601</v>
+      </c>
+      <c r="H68">
+        <v>6</v>
+      </c>
+      <c r="I68">
+        <v>100</v>
+      </c>
+      <c r="J68">
+        <v>0.25</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>0.7</v>
+      </c>
+      <c r="M68">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="69" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E69">
+        <v>7.90468164764562E-2</v>
+      </c>
+      <c r="F69">
+        <v>0.14050821598650501</v>
+      </c>
+      <c r="G69">
+        <v>0.138420454290339</v>
+      </c>
+      <c r="H69">
+        <v>6</v>
+      </c>
+      <c r="I69">
+        <v>100</v>
+      </c>
+      <c r="J69">
+        <v>0.25</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>0.7</v>
+      </c>
+      <c r="M69">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="70" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E70">
+        <v>8.1526086651689395E-2</v>
+      </c>
+      <c r="F70">
+        <v>0.140514016948904</v>
+      </c>
+      <c r="G70">
+        <v>0.13885202618869</v>
+      </c>
+      <c r="H70">
+        <v>6</v>
+      </c>
+      <c r="I70">
+        <v>100</v>
+      </c>
+      <c r="J70">
+        <v>0.25</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>0.8</v>
+      </c>
+      <c r="M70">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="71" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E71">
+        <v>7.9963146615451897E-2</v>
+      </c>
+      <c r="F71">
+        <v>0.14051713017064699</v>
+      </c>
+      <c r="G71">
+        <v>0.13938028276296999</v>
+      </c>
+      <c r="H71">
+        <v>6</v>
+      </c>
+      <c r="I71">
+        <v>100</v>
+      </c>
+      <c r="J71">
+        <v>0.25</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>0.7</v>
+      </c>
+      <c r="M71">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="72" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E72">
+        <v>7.8114535972682794E-2</v>
+      </c>
+      <c r="F72">
+        <v>0.14051971420423001</v>
+      </c>
+      <c r="G72">
+        <v>0.139576386608425</v>
+      </c>
+      <c r="H72">
+        <v>6</v>
+      </c>
+      <c r="I72">
+        <v>100</v>
+      </c>
+      <c r="J72">
+        <v>0.25</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>0.6</v>
+      </c>
+      <c r="M72">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="73" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E73">
+        <v>8.2686332997678996E-2</v>
+      </c>
+      <c r="F73">
+        <v>0.14060586857694199</v>
+      </c>
+      <c r="G73">
+        <v>0.140706924368071</v>
+      </c>
+      <c r="H73">
+        <v>6</v>
+      </c>
+      <c r="I73">
+        <v>100</v>
+      </c>
+      <c r="J73">
+        <v>0.25</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>0.8</v>
+      </c>
+      <c r="M73">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="74" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E74">
+        <v>8.1771042183685194E-2</v>
+      </c>
+      <c r="F74">
+        <v>0.14078241609084</v>
+      </c>
+      <c r="G74">
+        <v>0.139591195071088</v>
+      </c>
+      <c r="H74">
+        <v>6</v>
+      </c>
+      <c r="I74">
+        <v>100</v>
+      </c>
+      <c r="J74">
+        <v>0.25</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>0.8</v>
+      </c>
+      <c r="M74">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="75" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E75">
+        <v>8.2994575728668099E-2</v>
+      </c>
+      <c r="F75">
+        <v>0.140830390598572</v>
+      </c>
+      <c r="G75">
+        <v>0.13817609031707601</v>
+      </c>
+      <c r="H75">
+        <v>6</v>
+      </c>
+      <c r="I75">
+        <v>100</v>
+      </c>
+      <c r="J75">
+        <v>0.25</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>0.9</v>
+      </c>
+      <c r="M75">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="76" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E76">
+        <v>8.2438057351737204E-2</v>
+      </c>
+      <c r="F76">
+        <v>0.14089560108890201</v>
+      </c>
+      <c r="G76">
+        <v>0.13922236404396701</v>
+      </c>
+      <c r="H76">
+        <v>6</v>
+      </c>
+      <c r="I76">
+        <v>100</v>
+      </c>
+      <c r="J76">
+        <v>0.25</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>0.9</v>
+      </c>
+      <c r="M76">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="77" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E77">
+        <v>7.9065487720276398E-2</v>
+      </c>
+      <c r="F77">
+        <v>0.14100976926147399</v>
+      </c>
+      <c r="G77">
+        <v>0.140128654112541</v>
+      </c>
+      <c r="H77">
+        <v>6</v>
+      </c>
+      <c r="I77">
+        <v>100</v>
+      </c>
+      <c r="J77">
+        <v>0.25</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>0.7</v>
+      </c>
+      <c r="M77">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="78" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E78">
+        <v>7.9102367124525896E-2</v>
+      </c>
+      <c r="F78">
+        <v>0.14109426003313599</v>
+      </c>
+      <c r="G78">
+        <v>0.138542085495793</v>
+      </c>
+      <c r="H78">
+        <v>6</v>
+      </c>
+      <c r="I78">
+        <v>100</v>
+      </c>
+      <c r="J78">
+        <v>0.25</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>0.7</v>
+      </c>
+      <c r="M78">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="79" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E79">
+        <v>7.8100110815520193E-2</v>
+      </c>
+      <c r="F79">
+        <v>0.141162279844564</v>
+      </c>
+      <c r="G79">
+        <v>0.13995214023341301</v>
+      </c>
+      <c r="H79">
+        <v>6</v>
+      </c>
+      <c r="I79">
+        <v>100</v>
+      </c>
+      <c r="J79">
+        <v>0.25</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>0.6</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E80">
+        <v>8.2281682409412596E-2</v>
+      </c>
+      <c r="F80">
+        <v>0.141169667898907</v>
+      </c>
+      <c r="G80">
+        <v>0.138591753829482</v>
+      </c>
+      <c r="H80">
+        <v>6</v>
+      </c>
+      <c r="I80">
+        <v>100</v>
+      </c>
+      <c r="J80">
+        <v>0.25</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>0.8</v>
+      </c>
+      <c r="M80">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="81" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E81">
+        <v>8.1413619186034195E-2</v>
+      </c>
+      <c r="F81">
+        <v>0.14117143135104701</v>
+      </c>
+      <c r="G81">
+        <v>0.14129796941214101</v>
+      </c>
+      <c r="H81">
+        <v>6</v>
+      </c>
+      <c r="I81">
+        <v>100</v>
+      </c>
+      <c r="J81">
+        <v>0.25</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>0.8</v>
+      </c>
+      <c r="M81">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="82" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E82">
+        <v>8.1472420340294394E-2</v>
+      </c>
+      <c r="F82">
+        <v>0.14117414734943801</v>
+      </c>
+      <c r="G82">
+        <v>0.14054600067563799</v>
+      </c>
+      <c r="H82">
+        <v>6</v>
+      </c>
+      <c r="I82">
+        <v>100</v>
+      </c>
+      <c r="J82">
+        <v>0.25</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>0.8</v>
+      </c>
+      <c r="M82">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="83" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E83">
+        <v>8.3312840896356405E-2</v>
+      </c>
+      <c r="F83">
+        <v>0.141213871467089</v>
+      </c>
+      <c r="G83">
+        <v>0.140604162599201</v>
+      </c>
+      <c r="H83">
+        <v>6</v>
+      </c>
+      <c r="I83">
+        <v>100</v>
+      </c>
+      <c r="J83">
+        <v>0.25</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>0.9</v>
+      </c>
+      <c r="M83">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="84" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E84">
+        <v>8.0156589742473403E-2</v>
+      </c>
+      <c r="F84">
+        <v>0.141268062536371</v>
+      </c>
+      <c r="G84">
+        <v>0.14005708633996</v>
+      </c>
+      <c r="H84">
+        <v>6</v>
+      </c>
+      <c r="I84">
+        <v>100</v>
+      </c>
+      <c r="J84">
+        <v>0.25</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>0.7</v>
+      </c>
+      <c r="M84">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="85" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E85">
+        <v>8.0815831926813297E-2</v>
+      </c>
+      <c r="F85">
+        <v>0.141295469272261</v>
+      </c>
+      <c r="G85">
+        <v>0.13918771454774501</v>
+      </c>
+      <c r="H85">
+        <v>6</v>
+      </c>
+      <c r="I85">
+        <v>100</v>
+      </c>
+      <c r="J85">
+        <v>0.25</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>0.8</v>
+      </c>
+      <c r="M85">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="86" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E86">
+        <v>8.2665356413289107E-2</v>
+      </c>
+      <c r="F86">
+        <v>0.141348080194311</v>
+      </c>
+      <c r="G86">
+        <v>0.13943809384410399</v>
+      </c>
+      <c r="H86">
+        <v>6</v>
+      </c>
+      <c r="I86">
+        <v>100</v>
+      </c>
+      <c r="J86">
+        <v>0.25</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>0.9</v>
+      </c>
+      <c r="M86">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="87" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E87">
+        <v>8.4295788581748896E-2</v>
+      </c>
+      <c r="F87">
+        <v>0.14149184950991001</v>
+      </c>
+      <c r="G87">
+        <v>0.138829841810927</v>
+      </c>
+      <c r="H87">
+        <v>6</v>
+      </c>
+      <c r="I87">
+        <v>100</v>
+      </c>
+      <c r="J87">
+        <v>0.25</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="88" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E88">
+        <v>8.4646268115390694E-2</v>
+      </c>
+      <c r="F88">
+        <v>0.14149218581972001</v>
+      </c>
+      <c r="G88">
+        <v>0.140721524594176</v>
+      </c>
+      <c r="H88">
+        <v>6</v>
+      </c>
+      <c r="I88">
+        <v>100</v>
+      </c>
+      <c r="J88">
+        <v>0.25</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="89" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E89">
+        <v>8.0454250632986293E-2</v>
+      </c>
+      <c r="F89">
+        <v>0.14151848336465001</v>
+      </c>
+      <c r="G89">
+        <v>0.14126618950242401</v>
+      </c>
+      <c r="H89">
+        <v>6</v>
+      </c>
+      <c r="I89">
+        <v>100</v>
+      </c>
+      <c r="J89">
+        <v>0.25</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>0.7</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E90">
+        <v>8.4596753385335802E-2</v>
+      </c>
+      <c r="F90">
+        <v>0.14172444689629399</v>
+      </c>
+      <c r="G90">
+        <v>0.14030284101068499</v>
+      </c>
+      <c r="H90">
+        <v>6</v>
+      </c>
+      <c r="I90">
+        <v>100</v>
+      </c>
+      <c r="J90">
+        <v>0.25</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="91" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E91">
+        <v>8.24461283523205E-2</v>
+      </c>
+      <c r="F91">
+        <v>0.14172783742335099</v>
+      </c>
+      <c r="G91">
+        <v>0.142193680433986</v>
+      </c>
+      <c r="H91">
+        <v>6</v>
+      </c>
+      <c r="I91">
+        <v>100</v>
+      </c>
+      <c r="J91">
+        <v>0.25</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>0.9</v>
+      </c>
+      <c r="M91">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="92" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E92">
+        <v>8.2922063410749994E-2</v>
+      </c>
+      <c r="F92">
+        <v>0.14177504634337701</v>
+      </c>
+      <c r="G92">
+        <v>0.139370551493639</v>
+      </c>
+      <c r="H92">
+        <v>6</v>
+      </c>
+      <c r="I92">
+        <v>100</v>
+      </c>
+      <c r="J92">
+        <v>0.25</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>0.9</v>
+      </c>
+      <c r="M92">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="93" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E93">
+        <v>8.1198953752334796E-2</v>
+      </c>
+      <c r="F93">
+        <v>0.14178236529002899</v>
+      </c>
+      <c r="G93">
+        <v>0.14103571793723699</v>
+      </c>
+      <c r="H93">
+        <v>6</v>
+      </c>
+      <c r="I93">
+        <v>100</v>
+      </c>
+      <c r="J93">
+        <v>0.25</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>0.8</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E94">
+        <v>8.4737082651937898E-2</v>
+      </c>
+      <c r="F94">
+        <v>0.14191905140347699</v>
+      </c>
+      <c r="G94">
+        <v>0.141217763627356</v>
+      </c>
+      <c r="H94">
+        <v>6</v>
+      </c>
+      <c r="I94">
+        <v>100</v>
+      </c>
+      <c r="J94">
+        <v>0.25</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="95" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E95">
+        <v>8.3831022082303794E-2</v>
+      </c>
+      <c r="F95">
+        <v>0.14202658877385499</v>
+      </c>
+      <c r="G95">
+        <v>0.139918023235994</v>
+      </c>
+      <c r="H95">
+        <v>6</v>
+      </c>
+      <c r="I95">
+        <v>100</v>
+      </c>
+      <c r="J95">
+        <v>0.25</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="96" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E96">
+        <v>8.4888576291793999E-2</v>
+      </c>
+      <c r="F96">
+        <v>0.14202685004402699</v>
+      </c>
+      <c r="G96">
+        <v>0.14078654739853799</v>
+      </c>
+      <c r="H96">
+        <v>6</v>
+      </c>
+      <c r="I96">
+        <v>100</v>
+      </c>
+      <c r="J96">
+        <v>0.25</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="97" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E97">
+        <v>8.2897117098650802E-2</v>
+      </c>
+      <c r="F97">
+        <v>0.14210670250211599</v>
+      </c>
+      <c r="G97">
+        <v>0.13921327569719499</v>
+      </c>
+      <c r="H97">
+        <v>6</v>
+      </c>
+      <c r="I97">
+        <v>100</v>
+      </c>
+      <c r="J97">
+        <v>0.25</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>0.9</v>
+      </c>
+      <c r="M97">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="98" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E98">
+        <v>8.2864799735765396E-2</v>
+      </c>
+      <c r="F98">
+        <v>0.142183525543917</v>
+      </c>
+      <c r="G98">
+        <v>0.13965524265418999</v>
+      </c>
+      <c r="H98">
+        <v>6</v>
+      </c>
+      <c r="I98">
+        <v>100</v>
+      </c>
+      <c r="J98">
+        <v>0.25</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>0.9</v>
+      </c>
+      <c r="M98">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="99" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E99">
+        <v>8.2554660941249705E-2</v>
+      </c>
+      <c r="F99">
+        <v>0.14222697156539599</v>
+      </c>
+      <c r="G99">
+        <v>0.14002742933649401</v>
+      </c>
+      <c r="H99">
+        <v>6</v>
+      </c>
+      <c r="I99">
+        <v>100</v>
+      </c>
+      <c r="J99">
+        <v>0.25</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>0.9</v>
+      </c>
+      <c r="M99">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="100" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E100">
+        <v>8.4909303266127695E-2</v>
+      </c>
+      <c r="F100">
+        <v>0.14236984785742299</v>
+      </c>
+      <c r="G100">
+        <v>0.13977217942241299</v>
+      </c>
+      <c r="H100">
+        <v>6</v>
+      </c>
+      <c r="I100">
+        <v>100</v>
+      </c>
+      <c r="J100">
+        <v>0.25</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="101" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E101">
+        <v>8.3726010164497294E-2</v>
+      </c>
+      <c r="F101">
+        <v>0.14257874093603401</v>
+      </c>
+      <c r="G101">
+        <v>0.141926729433691</v>
+      </c>
+      <c r="H101">
+        <v>6</v>
+      </c>
+      <c r="I101">
+        <v>100</v>
+      </c>
+      <c r="J101">
+        <v>0.25</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>0.9</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E102">
+        <v>8.5348291300734E-2</v>
+      </c>
+      <c r="F102">
+        <v>0.14269101856473501</v>
+      </c>
+      <c r="G102">
+        <v>0.142386724726803</v>
+      </c>
+      <c r="H102">
+        <v>6</v>
+      </c>
+      <c r="I102">
+        <v>100</v>
+      </c>
+      <c r="J102">
+        <v>0.25</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="103" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E103">
+        <v>8.5106513465043498E-2</v>
+      </c>
+      <c r="F103">
+        <v>0.14274860764598499</v>
+      </c>
+      <c r="G103">
+        <v>0.14222363461440099</v>
+      </c>
+      <c r="H103">
+        <v>6</v>
+      </c>
+      <c r="I103">
+        <v>100</v>
+      </c>
+      <c r="J103">
+        <v>0.25</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="104" spans="5:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E104">
+        <v>8.5231457301589306E-2</v>
+      </c>
+      <c r="F104">
+        <v>0.142941990763508</v>
+      </c>
+      <c r="G104">
+        <v>0.14233204926662699</v>
+      </c>
+      <c r="H104">
+        <v>6</v>
+      </c>
+      <c r="I104">
+        <v>100</v>
+      </c>
+      <c r="J104">
+        <v>0.25</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="E4:M104" xr:uid="{EBAE3DCC-2D5F-40A3-AA69-9503B7EC7B31}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="0.5"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="E5:M104">
+      <sortCondition ref="F4:F104"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE418E7-1197-4C14-B4E7-FDD6E039CCEC}">
+  <dimension ref="A5:O63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="27.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
@@ -23827,7 +29817,8 @@
     <col min="8" max="8" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="4:11" x14ac:dyDescent="0.35">
@@ -24274,7 +30265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>13</v>
       </c>
@@ -24303,7 +30294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D35">
         <v>7.4813550528851705E-2</v>
       </c>
@@ -24326,7 +30317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>17</v>
       </c>
@@ -24354,8 +30345,14 @@
       <c r="J37" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="L37" t="s">
+        <v>19</v>
+      </c>
+      <c r="M37">
+        <v>0.14859</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D38">
         <v>3.6222417656242102E-2</v>
       </c>
@@ -24378,7 +30375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>17</v>
       </c>
@@ -24406,8 +30403,14 @@
       <c r="J40" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="L40">
+        <v>2422</v>
+      </c>
+      <c r="M40">
+        <v>0.14166999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D41">
         <v>7.2244355108108296E-2</v>
       </c>
@@ -24430,7 +30433,10 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>0.5</v>
+      </c>
       <c r="B43" t="s">
         <v>18</v>
       </c>
@@ -24458,8 +30464,14 @@
       <c r="J43" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="L43" t="s">
+        <v>19</v>
+      </c>
+      <c r="M43">
+        <v>0.14213000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D44">
         <v>5.8811412092346603E-2</v>
       </c>
@@ -24482,7 +30494,10 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>0.5</v>
+      </c>
       <c r="B46" t="s">
         <v>18</v>
       </c>
@@ -24510,8 +30525,17 @@
       <c r="J46" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="L46">
+        <v>2317</v>
+      </c>
+      <c r="M46">
+        <v>0.13913</v>
+      </c>
+      <c r="N46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D47">
         <v>7.4813550528851705E-2</v>
       </c>
@@ -24532,6 +30556,283 @@
       </c>
       <c r="J47">
         <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" t="s">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
+        <v>2</v>
+      </c>
+      <c r="H49" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D50">
+        <v>6.9501143228510004E-2</v>
+      </c>
+      <c r="E50">
+        <v>0.14561609206509901</v>
+      </c>
+      <c r="F50">
+        <v>0.13250204253324099</v>
+      </c>
+      <c r="G50">
+        <v>7</v>
+      </c>
+      <c r="H50">
+        <v>100</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0.5</v>
+      </c>
+      <c r="L50" t="s">
+        <v>19</v>
+      </c>
+      <c r="M50">
+        <v>0.14996999999999999</v>
+      </c>
+      <c r="O50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>2</v>
+      </c>
+      <c r="H52" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" t="s">
+        <v>19</v>
+      </c>
+      <c r="M52">
+        <v>0.15143000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D53">
+        <v>8.3228032285484199E-2</v>
+      </c>
+      <c r="E53">
+        <v>0.142202727896859</v>
+      </c>
+      <c r="F53">
+        <v>0.14050158306402599</v>
+      </c>
+      <c r="G53">
+        <v>6</v>
+      </c>
+      <c r="H53">
+        <v>100</v>
+      </c>
+      <c r="I53">
+        <v>0.75</v>
+      </c>
+      <c r="J53">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
+        <v>2</v>
+      </c>
+      <c r="H55" t="s">
+        <v>3</v>
+      </c>
+      <c r="I55" t="s">
+        <v>4</v>
+      </c>
+      <c r="J55" t="s">
+        <v>5</v>
+      </c>
+      <c r="K55" t="s">
+        <v>23</v>
+      </c>
+      <c r="L55" t="s">
+        <v>24</v>
+      </c>
+      <c r="N55">
+        <v>0.14435000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D56">
+        <v>5.7196940343622098E-2</v>
+      </c>
+      <c r="E56">
+        <v>0.137896578329088</v>
+      </c>
+      <c r="F56">
+        <v>0.131947202926149</v>
+      </c>
+      <c r="G56">
+        <v>6</v>
+      </c>
+      <c r="H56">
+        <v>100</v>
+      </c>
+      <c r="I56">
+        <v>0.25</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>0.1</v>
+      </c>
+      <c r="L56">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" t="s">
+        <v>0</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>2</v>
+      </c>
+      <c r="H58" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" t="s">
+        <v>23</v>
+      </c>
+      <c r="L58" t="s">
+        <v>24</v>
+      </c>
+      <c r="N58">
+        <v>0.14435000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D59">
+        <v>5.7196940343622098E-2</v>
+      </c>
+      <c r="E59">
+        <v>0.137896578329088</v>
+      </c>
+      <c r="F59">
+        <v>0.131947202926149</v>
+      </c>
+      <c r="G59">
+        <v>6</v>
+      </c>
+      <c r="H59">
+        <v>100</v>
+      </c>
+      <c r="I59">
+        <v>0.25</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>0.1</v>
+      </c>
+      <c r="L59">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -80659,7 +86960,7 @@
   <dimension ref="D4:J132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:J5"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/House Prices- Advanced Regression Techniques/ML/GridSearchResultsFromKaggle.xlsx
+++ b/House Prices- Advanced Regression Techniques/ML/GridSearchResultsFromKaggle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\padmaraj.bhat\OneDrive - Accenture\Git\GitHub\Kaggle Competetion\House Prices- Advance Regression Techniques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="10_ncr:100000_{28F5228C-9FC8-4E39-B27D-CA503DA6A540}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{F1C41CEF-0391-45BE-853D-14FFB9667B15}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="10_ncr:100000_{28F5228C-9FC8-4E39-B27D-CA503DA6A540}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{02453C2E-9960-4815-86FA-954C37ED71A1}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4110" firstSheet="8" activeTab="11" xr2:uid="{E502ACE3-46F0-4C50-944D-DCCB88A6A330}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="33">
   <si>
     <t>validation_score</t>
   </si>
@@ -138,6 +138,16 @@
   <si>
     <t>alpha = .5, lambda = 0</t>
   </si>
+  <si>
+    <t>alpha = 1, lambda = 0</t>
+  </si>
+  <si>
+    <t>alpha = 1, lambda = .5</t>
+  </si>
+  <si>
+    <t>This will fix the lambda position
+This will also give intution of alpha &gt; 1</t>
+  </si>
 </sst>
 </file>
 
@@ -178,12 +188,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -29801,10 +29814,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE418E7-1197-4C14-B4E7-FDD6E039CCEC}">
-  <dimension ref="A5:O63"/>
+  <dimension ref="A5:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="O66" sqref="O66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30824,15 +30837,64 @@
       <c r="B61" t="s">
         <v>27</v>
       </c>
+      <c r="G61">
+        <v>6</v>
+      </c>
+      <c r="H61">
+        <v>100</v>
+      </c>
+      <c r="I61">
+        <v>0.25</v>
+      </c>
+      <c r="N61">
+        <v>0.14405999999999999</v>
+      </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>28</v>
       </c>
+      <c r="G62">
+        <v>6</v>
+      </c>
+      <c r="H62">
+        <v>100</v>
+      </c>
+      <c r="I62">
+        <v>0.25</v>
+      </c>
+      <c r="N62">
+        <v>0.14230999999999999</v>
+      </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>29</v>
+      </c>
+      <c r="G63">
+        <v>6</v>
+      </c>
+      <c r="H63">
+        <v>100</v>
+      </c>
+      <c r="I63">
+        <v>0.25</v>
+      </c>
+      <c r="N63">
+        <v>0.13972999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>31</v>
+      </c>
+      <c r="O65" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/House Prices- Advanced Regression Techniques/ML/GridSearchResultsFromKaggle.xlsx
+++ b/House Prices- Advanced Regression Techniques/ML/GridSearchResultsFromKaggle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\padmaraj.bhat\OneDrive - Accenture\Git\GitHub\Kaggle Competetion\House Prices- Advance Regression Techniques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="10_ncr:100000_{28F5228C-9FC8-4E39-B27D-CA503DA6A540}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{02453C2E-9960-4815-86FA-954C37ED71A1}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="10_ncr:100000_{28F5228C-9FC8-4E39-B27D-CA503DA6A540}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{BA5483DF-C134-46C0-9AC5-8181E219C2B6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4110" firstSheet="8" activeTab="11" xr2:uid="{E502ACE3-46F0-4C50-944D-DCCB88A6A330}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4110" firstSheet="8" activeTab="12" xr2:uid="{E502ACE3-46F0-4C50-944D-DCCB88A6A330}"/>
   </bookViews>
   <sheets>
     <sheet name="Without estimator" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="alphalambda1" sheetId="11" r:id="rId10"/>
     <sheet name="alphalambdagrid" sheetId="12" r:id="rId11"/>
     <sheet name="Comparison of best scores" sheetId="5" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">alpha_.5!$D$3:$J$132</definedName>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="35">
   <si>
     <t>validation_score</t>
   </si>
@@ -147,6 +148,12 @@
   <si>
     <t>This will fix the lambda position
 This will also give intution of alpha &gt; 1</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>big</t>
   </si>
 </sst>
 </file>
@@ -29816,8 +29823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE418E7-1197-4C14-B4E7-FDD6E039CCEC}">
   <dimension ref="A5:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="O66" sqref="O66"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="N65" sqref="N65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30846,6 +30853,9 @@
       <c r="I61">
         <v>0.25</v>
       </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
       <c r="N61">
         <v>0.14405999999999999</v>
       </c>
@@ -30863,6 +30873,9 @@
       <c r="I62">
         <v>0.25</v>
       </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
       <c r="N62">
         <v>0.14230999999999999</v>
       </c>
@@ -30880,6 +30893,9 @@
       <c r="I63">
         <v>0.25</v>
       </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
       <c r="N63">
         <v>0.13972999999999999</v>
       </c>
@@ -30888,11 +30904,41 @@
       <c r="B64" t="s">
         <v>30</v>
       </c>
+      <c r="G64">
+        <v>6</v>
+      </c>
+      <c r="H64">
+        <v>100</v>
+      </c>
+      <c r="I64">
+        <v>0.25</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>0.14047000000000001</v>
+      </c>
     </row>
     <row r="65" spans="2:15" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>31</v>
       </c>
+      <c r="G65">
+        <v>6</v>
+      </c>
+      <c r="H65">
+        <v>100</v>
+      </c>
+      <c r="I65">
+        <v>0.25</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="N65" s="4">
+        <v>0.14396</v>
+      </c>
       <c r="O65" s="4" t="s">
         <v>32</v>
       </c>
@@ -30900,6 +30946,114 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4958B2F9-4C94-434D-BF59-730962F1114A}">
+  <dimension ref="C3:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>0.1</v>
+      </c>
+      <c r="D4">
+        <v>0.1</v>
+      </c>
+      <c r="E4">
+        <v>0.14435000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.13972999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>0.14405999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>0.13913</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0.14047000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.14396</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/House Prices- Advanced Regression Techniques/ML/GridSearchResultsFromKaggle.xlsx
+++ b/House Prices- Advanced Regression Techniques/ML/GridSearchResultsFromKaggle.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\padmaraj.bhat\OneDrive - Accenture\Git\GitHub\Kaggle Competetion\House Prices- Advance Regression Techniques\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myoffice.accenture.com/personal/padmaraj_bhat_accenture_com/Documents/Git/GitHub/Kaggle Competetion/House Prices- Advance Regression Techniques/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="10_ncr:100000_{28F5228C-9FC8-4E39-B27D-CA503DA6A540}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{BA5483DF-C134-46C0-9AC5-8181E219C2B6}"/>
+  <xr:revisionPtr revIDLastSave="191" documentId="10_ncr:100000_{28F5228C-9FC8-4E39-B27D-CA503DA6A540}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{2EDD1618-58F1-42E7-96A3-EFF208E4465C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4110" firstSheet="8" activeTab="12" xr2:uid="{E502ACE3-46F0-4C50-944D-DCCB88A6A330}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4110" firstSheet="11" activeTab="13" xr2:uid="{E502ACE3-46F0-4C50-944D-DCCB88A6A330}"/>
   </bookViews>
   <sheets>
     <sheet name="Without estimator" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,9 @@
     <sheet name="alphalambda1" sheetId="11" r:id="rId10"/>
     <sheet name="alphalambdagrid" sheetId="12" r:id="rId11"/>
     <sheet name="Comparison of best scores" sheetId="5" r:id="rId12"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId13"/>
+    <sheet name="Regularization exp" sheetId="13" r:id="rId13"/>
+    <sheet name="TargetTrans 1" sheetId="14" r:id="rId14"/>
+    <sheet name="TargetTrans2" sheetId="15" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">alpha_.5!$D$3:$J$132</definedName>
@@ -34,6 +36,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">alphalambdagrid!$E$4:$M$104</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">alphalambdaminmax!$D$4:$J$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">minmaxagain!$E$5:$K$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">TargetTrans2!$C$5:$I$78</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'transformed rmsle - target'!$C$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'with estimator'!$D$2:$J$1282</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Without estimator'!$C$3:$J$899</definedName>
@@ -48,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="38">
   <si>
     <t>validation_score</t>
   </si>
@@ -154,6 +157,15 @@
   </si>
   <si>
     <t>big</t>
+  </si>
+  <si>
+    <t>target / liv area</t>
+  </si>
+  <si>
+    <t>log(target/grlivarea)</t>
+  </si>
+  <si>
+    <t>Kaggle Score</t>
   </si>
 </sst>
 </file>
@@ -29823,8 +29835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE418E7-1197-4C14-B4E7-FDD6E039CCEC}">
   <dimension ref="A5:O65"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="N65" sqref="N65"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30953,8 +30965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4958B2F9-4C94-434D-BF59-730962F1114A}">
   <dimension ref="C3:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30966,6 +30978,9 @@
       <c r="D3" t="s">
         <v>33</v>
       </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C4">
@@ -31054,6 +31069,4418 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A5DEAB-988D-4848-AD8E-E603EF1C0517}">
+  <dimension ref="D2:J81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>5.4548754571017898E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.144820275592943</v>
+      </c>
+      <c r="F5">
+        <v>0.136749211288926</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <v>7.1911992256777302E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.14379293899481599</v>
+      </c>
+      <c r="F6">
+        <v>0.13779100460461699</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <v>7.3091547806251697E-2</v>
+      </c>
+      <c r="E7">
+        <v>0.142897849401006</v>
+      </c>
+      <c r="F7">
+        <v>0.13790856602996701</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <v>3.8625986021367097E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.14594485779341099</v>
+      </c>
+      <c r="F8">
+        <v>0.13797876242805401</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D9">
+        <v>5.6211513319048799E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.14353332654971401</v>
+      </c>
+      <c r="F9">
+        <v>0.13813043050634299</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>0.75</v>
+      </c>
+      <c r="J9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D10">
+        <v>5.4042389965850098E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.144853874936508</v>
+      </c>
+      <c r="F10">
+        <v>0.13888831262376999</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="I10">
+        <v>0.75</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D11">
+        <v>5.5337556341240601E-2</v>
+      </c>
+      <c r="E11">
+        <v>0.143810092892311</v>
+      </c>
+      <c r="F11">
+        <v>0.13897623030487299</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="I11">
+        <v>0.75</v>
+      </c>
+      <c r="J11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D12">
+        <v>7.8906250332581598E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.143864377108705</v>
+      </c>
+      <c r="F12">
+        <v>0.139233994694758</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>100</v>
+      </c>
+      <c r="I12">
+        <v>0.5</v>
+      </c>
+      <c r="J12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D13">
+        <v>7.3385259676137807E-2</v>
+      </c>
+      <c r="E13">
+        <v>0.14371433859809701</v>
+      </c>
+      <c r="F13">
+        <v>0.13935162116566099</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+      <c r="I13">
+        <v>0.75</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D14">
+        <v>5.37622189396018E-2</v>
+      </c>
+      <c r="E14">
+        <v>0.14431278306599801</v>
+      </c>
+      <c r="F14">
+        <v>0.13950767798069</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D15">
+        <v>3.8772400727886597E-2</v>
+      </c>
+      <c r="E15">
+        <v>0.14595355161402901</v>
+      </c>
+      <c r="F15">
+        <v>0.13965736471264201</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>0.75</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D16">
+        <v>5.5089202377281703E-2</v>
+      </c>
+      <c r="E16">
+        <v>0.14381422774526201</v>
+      </c>
+      <c r="F16">
+        <v>0.13994338089551001</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>100</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D17">
+        <v>7.6930887180720997E-2</v>
+      </c>
+      <c r="E17">
+        <v>0.143272748826519</v>
+      </c>
+      <c r="F17">
+        <v>0.14003951951701299</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>100</v>
+      </c>
+      <c r="I17">
+        <v>0.75</v>
+      </c>
+      <c r="J17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D18">
+        <v>5.4657541532154602E-2</v>
+      </c>
+      <c r="E18">
+        <v>0.14459376519176001</v>
+      </c>
+      <c r="F18">
+        <v>0.140062729959299</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>100</v>
+      </c>
+      <c r="I18">
+        <v>0.5</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <v>6.2990188660679E-2</v>
+      </c>
+      <c r="E19">
+        <v>0.14458974697801399</v>
+      </c>
+      <c r="F19">
+        <v>0.140106775875878</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+      <c r="I19">
+        <v>0.25</v>
+      </c>
+      <c r="J19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D20">
+        <v>5.5494560007144103E-2</v>
+      </c>
+      <c r="E20">
+        <v>0.14388741503302999</v>
+      </c>
+      <c r="F20">
+        <v>0.14011900790888299</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>100</v>
+      </c>
+      <c r="I20">
+        <v>0.5</v>
+      </c>
+      <c r="J20">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D21">
+        <v>7.6715119398345494E-2</v>
+      </c>
+      <c r="E21">
+        <v>0.14305187975418401</v>
+      </c>
+      <c r="F21">
+        <v>0.140250197406906</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>100</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D22">
+        <v>7.3930564069416296E-2</v>
+      </c>
+      <c r="E22">
+        <v>0.14396387598010199</v>
+      </c>
+      <c r="F22">
+        <v>0.14031005364490401</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <v>100</v>
+      </c>
+      <c r="I22">
+        <v>0.75</v>
+      </c>
+      <c r="J22">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D23">
+        <v>4.03986534667653E-2</v>
+      </c>
+      <c r="E23">
+        <v>0.14549291045475499</v>
+      </c>
+      <c r="F23">
+        <v>0.14059006980165201</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>100</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D24">
+        <v>4.2533187872761197E-2</v>
+      </c>
+      <c r="E24">
+        <v>0.14473203937564999</v>
+      </c>
+      <c r="F24">
+        <v>0.140749720515807</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>100</v>
+      </c>
+      <c r="I24">
+        <v>0.75</v>
+      </c>
+      <c r="J24">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D25">
+        <v>7.8964749047673297E-2</v>
+      </c>
+      <c r="E25">
+        <v>0.14180827766998499</v>
+      </c>
+      <c r="F25">
+        <v>0.14085987955818399</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>100</v>
+      </c>
+      <c r="I25">
+        <v>0.25</v>
+      </c>
+      <c r="J25">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D26">
+        <v>7.6075198717885997E-2</v>
+      </c>
+      <c r="E26">
+        <v>0.143898202797585</v>
+      </c>
+      <c r="F26">
+        <v>0.140993506077294</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <v>100</v>
+      </c>
+      <c r="I26">
+        <v>0.5</v>
+      </c>
+      <c r="J26">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="27" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D27">
+        <v>3.9080107406913603E-2</v>
+      </c>
+      <c r="E27">
+        <v>0.14591264905616999</v>
+      </c>
+      <c r="F27">
+        <v>0.14103106670497301</v>
+      </c>
+      <c r="G27">
+        <v>6</v>
+      </c>
+      <c r="H27">
+        <v>100</v>
+      </c>
+      <c r="I27">
+        <v>0.75</v>
+      </c>
+      <c r="J27">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D28">
+        <v>4.5094409343118903E-2</v>
+      </c>
+      <c r="E28">
+        <v>0.14539096413747599</v>
+      </c>
+      <c r="F28">
+        <v>0.141099478659726</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+      <c r="H28">
+        <v>100</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="29" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D29">
+        <v>5.9134490933441301E-2</v>
+      </c>
+      <c r="E29">
+        <v>0.142231124724185</v>
+      </c>
+      <c r="F29">
+        <v>0.14113298000503</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <v>100</v>
+      </c>
+      <c r="I29">
+        <v>0.75</v>
+      </c>
+      <c r="J29">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="30" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D30">
+        <v>5.8998970281750697E-2</v>
+      </c>
+      <c r="E30">
+        <v>0.14428476207138899</v>
+      </c>
+      <c r="F30">
+        <v>0.14115522589653301</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>100</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="31" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D31">
+        <v>4.7851600507967003E-2</v>
+      </c>
+      <c r="E31">
+        <v>0.145011749472016</v>
+      </c>
+      <c r="F31">
+        <v>0.141338479482813</v>
+      </c>
+      <c r="G31">
+        <v>6</v>
+      </c>
+      <c r="H31">
+        <v>100</v>
+      </c>
+      <c r="I31">
+        <v>0.5</v>
+      </c>
+      <c r="J31">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="32" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D32">
+        <v>7.8444975810395196E-2</v>
+      </c>
+      <c r="E32">
+        <v>0.143627856523838</v>
+      </c>
+      <c r="F32">
+        <v>0.14148386350700601</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <v>100</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D33">
+        <v>3.9636606104035702E-2</v>
+      </c>
+      <c r="E33">
+        <v>0.14494753412293901</v>
+      </c>
+      <c r="F33">
+        <v>0.14151293788243899</v>
+      </c>
+      <c r="G33">
+        <v>6</v>
+      </c>
+      <c r="H33">
+        <v>100</v>
+      </c>
+      <c r="I33">
+        <v>0.75</v>
+      </c>
+      <c r="J33">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D34">
+        <v>2.9574059721304499E-2</v>
+      </c>
+      <c r="E34">
+        <v>0.145998903467953</v>
+      </c>
+      <c r="F34">
+        <v>0.14160285192813499</v>
+      </c>
+      <c r="G34">
+        <v>7</v>
+      </c>
+      <c r="H34">
+        <v>100</v>
+      </c>
+      <c r="I34">
+        <v>0.5</v>
+      </c>
+      <c r="J34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D35">
+        <v>6.4117810724172997E-2</v>
+      </c>
+      <c r="E35">
+        <v>0.144254490636922</v>
+      </c>
+      <c r="F35">
+        <v>0.141624774483881</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="H35">
+        <v>100</v>
+      </c>
+      <c r="I35">
+        <v>0.5</v>
+      </c>
+      <c r="J35">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D36">
+        <v>2.7999486392233298E-2</v>
+      </c>
+      <c r="E36">
+        <v>0.146093642650866</v>
+      </c>
+      <c r="F36">
+        <v>0.141709723172004</v>
+      </c>
+      <c r="G36">
+        <v>7</v>
+      </c>
+      <c r="H36">
+        <v>100</v>
+      </c>
+      <c r="I36">
+        <v>0.75</v>
+      </c>
+      <c r="J36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D37">
+        <v>3.08661459161239E-2</v>
+      </c>
+      <c r="E37">
+        <v>0.145411940498862</v>
+      </c>
+      <c r="F37">
+        <v>0.141741880823363</v>
+      </c>
+      <c r="G37">
+        <v>7</v>
+      </c>
+      <c r="H37">
+        <v>100</v>
+      </c>
+      <c r="I37">
+        <v>0.75</v>
+      </c>
+      <c r="J37">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D38">
+        <v>7.9172793200306693E-2</v>
+      </c>
+      <c r="E38">
+        <v>0.14466145201642999</v>
+      </c>
+      <c r="F38">
+        <v>0.14177054262946401</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="H38">
+        <v>100</v>
+      </c>
+      <c r="I38">
+        <v>0.25</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D39">
+        <v>7.4367557900059694E-2</v>
+      </c>
+      <c r="E39">
+        <v>0.14384887135478699</v>
+      </c>
+      <c r="F39">
+        <v>0.14183474269000601</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="H39">
+        <v>100</v>
+      </c>
+      <c r="I39">
+        <v>0.5</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D40">
+        <v>2.84596400716783E-2</v>
+      </c>
+      <c r="E40">
+        <v>0.14782351763776699</v>
+      </c>
+      <c r="F40">
+        <v>0.14187995466110501</v>
+      </c>
+      <c r="G40">
+        <v>7</v>
+      </c>
+      <c r="H40">
+        <v>100</v>
+      </c>
+      <c r="I40">
+        <v>0.75</v>
+      </c>
+      <c r="J40">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="41" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D41">
+        <v>8.4092033389694107E-2</v>
+      </c>
+      <c r="E41">
+        <v>0.14311683047464299</v>
+      </c>
+      <c r="F41">
+        <v>0.14189998701913201</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>100</v>
+      </c>
+      <c r="I41">
+        <v>0.25</v>
+      </c>
+      <c r="J41">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D42">
+        <v>4.2498208712520698E-2</v>
+      </c>
+      <c r="E42">
+        <v>0.14534346507687801</v>
+      </c>
+      <c r="F42">
+        <v>0.14196124165475399</v>
+      </c>
+      <c r="G42">
+        <v>6</v>
+      </c>
+      <c r="H42">
+        <v>100</v>
+      </c>
+      <c r="I42">
+        <v>0.5</v>
+      </c>
+      <c r="J42">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D43">
+        <v>7.90616794151974E-2</v>
+      </c>
+      <c r="E43">
+        <v>0.143294619441518</v>
+      </c>
+      <c r="F43">
+        <v>0.14199601953748101</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
+      <c r="H43">
+        <v>100</v>
+      </c>
+      <c r="I43">
+        <v>0.75</v>
+      </c>
+      <c r="J43">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="44" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D44">
+        <v>5.9665125859145997E-2</v>
+      </c>
+      <c r="E44">
+        <v>0.14548768593693701</v>
+      </c>
+      <c r="F44">
+        <v>0.142052842585591</v>
+      </c>
+      <c r="G44">
+        <v>5</v>
+      </c>
+      <c r="H44">
+        <v>100</v>
+      </c>
+      <c r="I44">
+        <v>0.25</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D45">
+        <v>3.7582786395343001E-2</v>
+      </c>
+      <c r="E45">
+        <v>0.14672207069477999</v>
+      </c>
+      <c r="F45">
+        <v>0.14207354429727401</v>
+      </c>
+      <c r="G45">
+        <v>6</v>
+      </c>
+      <c r="H45">
+        <v>100</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D46">
+        <v>2.9688762132354399E-2</v>
+      </c>
+      <c r="E46">
+        <v>0.146174546741619</v>
+      </c>
+      <c r="F46">
+        <v>0.14216420531681401</v>
+      </c>
+      <c r="G46">
+        <v>7</v>
+      </c>
+      <c r="H46">
+        <v>100</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="47" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D47">
+        <v>3.7456656647000999E-2</v>
+      </c>
+      <c r="E47">
+        <v>0.14875770038600999</v>
+      </c>
+      <c r="F47">
+        <v>0.14224472054533399</v>
+      </c>
+      <c r="G47">
+        <v>7</v>
+      </c>
+      <c r="H47">
+        <v>100</v>
+      </c>
+      <c r="I47">
+        <v>0.25</v>
+      </c>
+      <c r="J47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D48">
+        <v>3.9728689003055498E-2</v>
+      </c>
+      <c r="E48">
+        <v>0.14596919333043801</v>
+      </c>
+      <c r="F48">
+        <v>0.142262493066655</v>
+      </c>
+      <c r="G48">
+        <v>6</v>
+      </c>
+      <c r="H48">
+        <v>100</v>
+      </c>
+      <c r="I48">
+        <v>0.5</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D49">
+        <v>5.7678248100613498E-2</v>
+      </c>
+      <c r="E49">
+        <v>0.14406362123383001</v>
+      </c>
+      <c r="F49">
+        <v>0.14226986504319999</v>
+      </c>
+      <c r="G49">
+        <v>5</v>
+      </c>
+      <c r="H49">
+        <v>100</v>
+      </c>
+      <c r="I49">
+        <v>0.5</v>
+      </c>
+      <c r="J49">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D50">
+        <v>2.6811223860746299E-2</v>
+      </c>
+      <c r="E50">
+        <v>0.14758372839689299</v>
+      </c>
+      <c r="F50">
+        <v>0.14252442777440499</v>
+      </c>
+      <c r="G50">
+        <v>7</v>
+      </c>
+      <c r="H50">
+        <v>100</v>
+      </c>
+      <c r="I50">
+        <v>0.75</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D51">
+        <v>9.30671950296557E-2</v>
+      </c>
+      <c r="E51">
+        <v>0.144697616335349</v>
+      </c>
+      <c r="F51">
+        <v>0.14260116319103</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>100</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D52">
+        <v>4.4138439767757498E-2</v>
+      </c>
+      <c r="E52">
+        <v>0.14686381306214499</v>
+      </c>
+      <c r="F52">
+        <v>0.14265666307473801</v>
+      </c>
+      <c r="G52">
+        <v>6</v>
+      </c>
+      <c r="H52">
+        <v>100</v>
+      </c>
+      <c r="I52">
+        <v>0.25</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D53">
+        <v>2.6863738765542901E-2</v>
+      </c>
+      <c r="E53">
+        <v>0.147110634271407</v>
+      </c>
+      <c r="F53">
+        <v>0.14277763763182499</v>
+      </c>
+      <c r="G53">
+        <v>7</v>
+      </c>
+      <c r="H53">
+        <v>100</v>
+      </c>
+      <c r="I53">
+        <v>0.5</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D54">
+        <v>5.7952255000283399E-2</v>
+      </c>
+      <c r="E54">
+        <v>0.14525152239228101</v>
+      </c>
+      <c r="F54">
+        <v>0.14287951865478801</v>
+      </c>
+      <c r="G54">
+        <v>6</v>
+      </c>
+      <c r="H54">
+        <v>100</v>
+      </c>
+      <c r="I54">
+        <v>0.25</v>
+      </c>
+      <c r="J54">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="55" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D55">
+        <v>4.0729455610341199E-2</v>
+      </c>
+      <c r="E55">
+        <v>0.145249436821453</v>
+      </c>
+      <c r="F55">
+        <v>0.14291940904627901</v>
+      </c>
+      <c r="G55">
+        <v>6</v>
+      </c>
+      <c r="H55">
+        <v>100</v>
+      </c>
+      <c r="I55">
+        <v>0.5</v>
+      </c>
+      <c r="J55">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="56" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D56">
+        <v>9.4525454096740097E-2</v>
+      </c>
+      <c r="E56">
+        <v>0.14502937314563399</v>
+      </c>
+      <c r="F56">
+        <v>0.143187702568152</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+      <c r="H56">
+        <v>100</v>
+      </c>
+      <c r="I56">
+        <v>0.75</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D57">
+        <v>9.2750405613828399E-2</v>
+      </c>
+      <c r="E57">
+        <v>0.144515720797462</v>
+      </c>
+      <c r="F57">
+        <v>0.143248470752045</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+      <c r="H57">
+        <v>100</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="58" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D58">
+        <v>4.7752058323928398E-2</v>
+      </c>
+      <c r="E58">
+        <v>0.14723179821040699</v>
+      </c>
+      <c r="F58">
+        <v>0.14334759707599101</v>
+      </c>
+      <c r="G58">
+        <v>6</v>
+      </c>
+      <c r="H58">
+        <v>100</v>
+      </c>
+      <c r="I58">
+        <v>0.25</v>
+      </c>
+      <c r="J58">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="59" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D59">
+        <v>3.1794926720318702E-2</v>
+      </c>
+      <c r="E59">
+        <v>0.14801149050100301</v>
+      </c>
+      <c r="F59">
+        <v>0.143536213317284</v>
+      </c>
+      <c r="G59">
+        <v>7</v>
+      </c>
+      <c r="H59">
+        <v>100</v>
+      </c>
+      <c r="I59">
+        <v>0.25</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D60">
+        <v>6.5140247442255703E-2</v>
+      </c>
+      <c r="E60">
+        <v>0.14390741486289799</v>
+      </c>
+      <c r="F60">
+        <v>0.14366811929129999</v>
+      </c>
+      <c r="G60">
+        <v>5</v>
+      </c>
+      <c r="H60">
+        <v>100</v>
+      </c>
+      <c r="I60">
+        <v>0.25</v>
+      </c>
+      <c r="J60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D61">
+        <v>8.2065369704757002E-2</v>
+      </c>
+      <c r="E61">
+        <v>0.14330545826992999</v>
+      </c>
+      <c r="F61">
+        <v>0.14388761688785201</v>
+      </c>
+      <c r="G61">
+        <v>4</v>
+      </c>
+      <c r="H61">
+        <v>100</v>
+      </c>
+      <c r="I61">
+        <v>0.5</v>
+      </c>
+      <c r="J61">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="62" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D62">
+        <v>9.5334387809374005E-2</v>
+      </c>
+      <c r="E62">
+        <v>0.14478954060951699</v>
+      </c>
+      <c r="F62">
+        <v>0.14399934262578301</v>
+      </c>
+      <c r="G62">
+        <v>3</v>
+      </c>
+      <c r="H62">
+        <v>100</v>
+      </c>
+      <c r="I62">
+        <v>0.75</v>
+      </c>
+      <c r="J62">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="63" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D63">
+        <v>2.7931452288733501E-2</v>
+      </c>
+      <c r="E63">
+        <v>0.14632351869443599</v>
+      </c>
+      <c r="F63">
+        <v>0.14428213871301401</v>
+      </c>
+      <c r="G63">
+        <v>7</v>
+      </c>
+      <c r="H63">
+        <v>100</v>
+      </c>
+      <c r="I63">
+        <v>0.5</v>
+      </c>
+      <c r="J63">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="64" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D64">
+        <v>9.6799526278103107E-2</v>
+      </c>
+      <c r="E64">
+        <v>0.14533934612503599</v>
+      </c>
+      <c r="F64">
+        <v>0.144478706273166</v>
+      </c>
+      <c r="G64">
+        <v>3</v>
+      </c>
+      <c r="H64">
+        <v>100</v>
+      </c>
+      <c r="I64">
+        <v>0.75</v>
+      </c>
+      <c r="J64">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="65" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D65">
+        <v>8.9695634736146695E-2</v>
+      </c>
+      <c r="E65">
+        <v>0.14500433813827199</v>
+      </c>
+      <c r="F65">
+        <v>0.14466391954532901</v>
+      </c>
+      <c r="G65">
+        <v>4</v>
+      </c>
+      <c r="H65">
+        <v>100</v>
+      </c>
+      <c r="I65">
+        <v>0.25</v>
+      </c>
+      <c r="J65">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="66" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D66">
+        <v>3.6409659290349103E-2</v>
+      </c>
+      <c r="E66">
+        <v>0.145852934434788</v>
+      </c>
+      <c r="F66">
+        <v>0.14466650506728401</v>
+      </c>
+      <c r="G66">
+        <v>7</v>
+      </c>
+      <c r="H66">
+        <v>100</v>
+      </c>
+      <c r="I66">
+        <v>0.5</v>
+      </c>
+      <c r="J66">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="67" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D67">
+        <v>0.10041110748656901</v>
+      </c>
+      <c r="E67">
+        <v>0.14606379212988399</v>
+      </c>
+      <c r="F67">
+        <v>0.14523852550067501</v>
+      </c>
+      <c r="G67">
+        <v>3</v>
+      </c>
+      <c r="H67">
+        <v>100</v>
+      </c>
+      <c r="I67">
+        <v>0.25</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D68">
+        <v>9.7996420864849498E-2</v>
+      </c>
+      <c r="E68">
+        <v>0.14425340389809499</v>
+      </c>
+      <c r="F68">
+        <v>0.145334142176821</v>
+      </c>
+      <c r="G68">
+        <v>3</v>
+      </c>
+      <c r="H68">
+        <v>100</v>
+      </c>
+      <c r="I68">
+        <v>0.5</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D69">
+        <v>9.6119638209375302E-2</v>
+      </c>
+      <c r="E69">
+        <v>0.144703652222856</v>
+      </c>
+      <c r="F69">
+        <v>0.14566033826557101</v>
+      </c>
+      <c r="G69">
+        <v>3</v>
+      </c>
+      <c r="H69">
+        <v>100</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="70" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D70">
+        <v>0.10034936223888601</v>
+      </c>
+      <c r="E70">
+        <v>0.14507977194236499</v>
+      </c>
+      <c r="F70">
+        <v>0.145764543087638</v>
+      </c>
+      <c r="G70">
+        <v>3</v>
+      </c>
+      <c r="H70">
+        <v>100</v>
+      </c>
+      <c r="I70">
+        <v>0.5</v>
+      </c>
+      <c r="J70">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="71" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D71">
+        <v>4.48065160277442E-2</v>
+      </c>
+      <c r="E71">
+        <v>0.146547532455121</v>
+      </c>
+      <c r="F71">
+        <v>0.14582467532940699</v>
+      </c>
+      <c r="G71">
+        <v>6</v>
+      </c>
+      <c r="H71">
+        <v>100</v>
+      </c>
+      <c r="I71">
+        <v>0.25</v>
+      </c>
+      <c r="J71">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="72" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D72">
+        <v>9.7707346415182403E-2</v>
+      </c>
+      <c r="E72">
+        <v>0.14504002959333001</v>
+      </c>
+      <c r="F72">
+        <v>0.146210693825431</v>
+      </c>
+      <c r="G72">
+        <v>3</v>
+      </c>
+      <c r="H72">
+        <v>100</v>
+      </c>
+      <c r="I72">
+        <v>0.5</v>
+      </c>
+      <c r="J72">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="73" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D73">
+        <v>0.10123673069099801</v>
+      </c>
+      <c r="E73">
+        <v>0.144636494612358</v>
+      </c>
+      <c r="F73">
+        <v>0.146570473997262</v>
+      </c>
+      <c r="G73">
+        <v>3</v>
+      </c>
+      <c r="H73">
+        <v>100</v>
+      </c>
+      <c r="I73">
+        <v>0.25</v>
+      </c>
+      <c r="J73">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="74" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D74">
+        <v>3.3673849442253399E-2</v>
+      </c>
+      <c r="E74">
+        <v>0.14835729412493301</v>
+      </c>
+      <c r="F74">
+        <v>0.14701391525052701</v>
+      </c>
+      <c r="G74">
+        <v>7</v>
+      </c>
+      <c r="H74">
+        <v>100</v>
+      </c>
+      <c r="I74">
+        <v>0.25</v>
+      </c>
+      <c r="J74">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="75" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D75">
+        <v>4.6489795105927802E-2</v>
+      </c>
+      <c r="E75">
+        <v>0.14810273268039301</v>
+      </c>
+      <c r="F75">
+        <v>0.14757263809645799</v>
+      </c>
+      <c r="G75">
+        <v>7</v>
+      </c>
+      <c r="H75">
+        <v>100</v>
+      </c>
+      <c r="I75">
+        <v>0.25</v>
+      </c>
+      <c r="J75">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="76" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D76">
+        <v>9.9902195737285204E-2</v>
+      </c>
+      <c r="E76">
+        <v>0.145662755796407</v>
+      </c>
+      <c r="F76">
+        <v>0.148250510933949</v>
+      </c>
+      <c r="G76">
+        <v>3</v>
+      </c>
+      <c r="H76">
+        <v>100</v>
+      </c>
+      <c r="I76">
+        <v>0.75</v>
+      </c>
+      <c r="J76">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="77" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D77">
+        <v>9.9227075320813096E-2</v>
+      </c>
+      <c r="E77">
+        <v>0.145372651423302</v>
+      </c>
+      <c r="F77">
+        <v>0.14864788108615101</v>
+      </c>
+      <c r="G77">
+        <v>3</v>
+      </c>
+      <c r="H77">
+        <v>100</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="78" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D78">
+        <v>0.104516350389491</v>
+      </c>
+      <c r="E78">
+        <v>0.14636672595199801</v>
+      </c>
+      <c r="F78">
+        <v>0.148825707583505</v>
+      </c>
+      <c r="G78">
+        <v>3</v>
+      </c>
+      <c r="H78">
+        <v>100</v>
+      </c>
+      <c r="I78">
+        <v>0.5</v>
+      </c>
+      <c r="J78">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="79" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D79">
+        <v>0.103910978736291</v>
+      </c>
+      <c r="E79">
+        <v>0.14584939370680899</v>
+      </c>
+      <c r="F79">
+        <v>0.14897067744436199</v>
+      </c>
+      <c r="G79">
+        <v>3</v>
+      </c>
+      <c r="H79">
+        <v>100</v>
+      </c>
+      <c r="I79">
+        <v>0.25</v>
+      </c>
+      <c r="J79">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="80" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D80">
+        <v>7.4262983483640105E-2</v>
+      </c>
+      <c r="E80">
+        <v>0.14563137942724</v>
+      </c>
+      <c r="F80">
+        <v>0.14935423530904501</v>
+      </c>
+      <c r="G80">
+        <v>5</v>
+      </c>
+      <c r="H80">
+        <v>100</v>
+      </c>
+      <c r="I80">
+        <v>0.25</v>
+      </c>
+      <c r="J80">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="81" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D81">
+        <v>0.11175602371724901</v>
+      </c>
+      <c r="E81">
+        <v>0.147262347287127</v>
+      </c>
+      <c r="F81">
+        <v>0.153803016649456</v>
+      </c>
+      <c r="G81">
+        <v>3</v>
+      </c>
+      <c r="H81">
+        <v>100</v>
+      </c>
+      <c r="I81">
+        <v>0.25</v>
+      </c>
+      <c r="J81">
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="D5:J81">
+    <sortCondition ref="F4"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7798C406-FA98-4DF6-9C78-7FBAA4E1614F}">
+  <dimension ref="C3:K115"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <v>0.14480999999999999</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="J3">
+        <v>0.14582999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>7.1248074702252598E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.142798635244375</v>
+      </c>
+      <c r="E6">
+        <v>0.13042777691013099</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>0.75</v>
+      </c>
+      <c r="I6">
+        <v>0.75</v>
+      </c>
+      <c r="K6">
+        <v>0.14452999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>4.9418672328583997E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.144430286011517</v>
+      </c>
+      <c r="E7">
+        <v>0.131186066111282</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>0.75</v>
+      </c>
+      <c r="I7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>5.5065952546256097E-2</v>
+      </c>
+      <c r="D8">
+        <v>0.14227228940248501</v>
+      </c>
+      <c r="E8">
+        <v>0.13191177435762799</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>0.75</v>
+      </c>
+      <c r="I8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>4.9737309691696902E-2</v>
+      </c>
+      <c r="D9">
+        <v>0.14370256374747001</v>
+      </c>
+      <c r="E9">
+        <v>0.131975342310517</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>0.5</v>
+      </c>
+      <c r="I9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>7.3510953676715104E-2</v>
+      </c>
+      <c r="D10">
+        <v>0.14285157588931299</v>
+      </c>
+      <c r="E10">
+        <v>0.132010621377112</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <v>0.75</v>
+      </c>
+      <c r="I10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <v>6.2212412102181397E-2</v>
+      </c>
+      <c r="D11">
+        <v>0.14329656402020499</v>
+      </c>
+      <c r="E11">
+        <v>0.132195823796705</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>0.75</v>
+      </c>
+      <c r="I11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <v>6.3279494419916302E-2</v>
+      </c>
+      <c r="D12">
+        <v>0.143583971447724</v>
+      </c>
+      <c r="E12">
+        <v>0.132447083580086</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>0.5</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C13">
+        <v>4.5169636495339498E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.145612965121141</v>
+      </c>
+      <c r="E13">
+        <v>0.13251167987829901</v>
+      </c>
+      <c r="F13">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>0.75</v>
+      </c>
+      <c r="I13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C14">
+        <v>4.6358230172980297E-2</v>
+      </c>
+      <c r="D14">
+        <v>0.14542082345627599</v>
+      </c>
+      <c r="E14">
+        <v>0.132566993043613</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C15">
+        <v>5.15885866099157E-2</v>
+      </c>
+      <c r="D15">
+        <v>0.14447780817421199</v>
+      </c>
+      <c r="E15">
+        <v>0.13270082890635501</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <v>0.5</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C16">
+        <v>4.2405894122466002E-2</v>
+      </c>
+      <c r="D16">
+        <v>0.146577870396389</v>
+      </c>
+      <c r="E16">
+        <v>0.13274587052254</v>
+      </c>
+      <c r="F16">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <v>6.2866032909842107E-2</v>
+      </c>
+      <c r="D17">
+        <v>0.14343244822811499</v>
+      </c>
+      <c r="E17">
+        <v>0.133033839302411</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>0.75</v>
+      </c>
+      <c r="I17">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C18">
+        <v>5.32207551499633E-2</v>
+      </c>
+      <c r="D18">
+        <v>0.14401821165966899</v>
+      </c>
+      <c r="E18">
+        <v>0.133165347544275</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C19">
+        <v>5.4044439049603002E-2</v>
+      </c>
+      <c r="D19">
+        <v>0.14323403646300301</v>
+      </c>
+      <c r="E19">
+        <v>0.133256498083314</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="H19">
+        <v>0.5</v>
+      </c>
+      <c r="I19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C20">
+        <v>6.15621799422588E-2</v>
+      </c>
+      <c r="D20">
+        <v>0.14405905121283599</v>
+      </c>
+      <c r="E20">
+        <v>0.13360554776109601</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C21">
+        <v>4.6749842296240303E-2</v>
+      </c>
+      <c r="D21">
+        <v>0.14484142340377101</v>
+      </c>
+      <c r="E21">
+        <v>0.13366274211245099</v>
+      </c>
+      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <v>100</v>
+      </c>
+      <c r="H21">
+        <v>0.5</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C22">
+        <v>6.1877018212966199E-2</v>
+      </c>
+      <c r="D22">
+        <v>0.14201522102592201</v>
+      </c>
+      <c r="E22">
+        <v>0.13373893441908699</v>
+      </c>
+      <c r="F22">
+        <v>7</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+      <c r="H22">
+        <v>0.75</v>
+      </c>
+      <c r="I22">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C23">
+        <v>6.0043044365592803E-2</v>
+      </c>
+      <c r="D23">
+        <v>0.142714272369248</v>
+      </c>
+      <c r="E23">
+        <v>0.133757888097077</v>
+      </c>
+      <c r="F23">
+        <v>7</v>
+      </c>
+      <c r="G23">
+        <v>100</v>
+      </c>
+      <c r="H23">
+        <v>0.5</v>
+      </c>
+      <c r="I23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C24">
+        <v>5.5447738778628602E-2</v>
+      </c>
+      <c r="D24">
+        <v>0.143837352346112</v>
+      </c>
+      <c r="E24">
+        <v>0.13406009704069199</v>
+      </c>
+      <c r="F24">
+        <v>7</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+      <c r="H24">
+        <v>0.5</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C25">
+        <v>4.6974964050424603E-2</v>
+      </c>
+      <c r="D25">
+        <v>0.14488499077929701</v>
+      </c>
+      <c r="E25">
+        <v>0.13422688287816001</v>
+      </c>
+      <c r="F25">
+        <v>9</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C26">
+        <v>6.8073201383840098E-2</v>
+      </c>
+      <c r="D26">
+        <v>0.142265060976243</v>
+      </c>
+      <c r="E26">
+        <v>0.134242621470887</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+      <c r="G26">
+        <v>100</v>
+      </c>
+      <c r="H26">
+        <v>0.5</v>
+      </c>
+      <c r="I26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C27">
+        <v>7.6049594524972897E-2</v>
+      </c>
+      <c r="D27">
+        <v>0.142375747615482</v>
+      </c>
+      <c r="E27">
+        <v>0.13438435757053499</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>100</v>
+      </c>
+      <c r="H27">
+        <v>0.5</v>
+      </c>
+      <c r="I27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C28">
+        <v>5.3217961636057999E-2</v>
+      </c>
+      <c r="D28">
+        <v>0.14574087006318001</v>
+      </c>
+      <c r="E28">
+        <v>0.13462439502958701</v>
+      </c>
+      <c r="F28">
+        <v>7</v>
+      </c>
+      <c r="G28">
+        <v>100</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C29">
+        <v>4.7552974089167602E-2</v>
+      </c>
+      <c r="D29">
+        <v>0.14402780091200201</v>
+      </c>
+      <c r="E29">
+        <v>0.134642089767083</v>
+      </c>
+      <c r="F29">
+        <v>9</v>
+      </c>
+      <c r="G29">
+        <v>100</v>
+      </c>
+      <c r="H29">
+        <v>0.5</v>
+      </c>
+      <c r="I29">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C30">
+        <v>7.1196566060609104E-2</v>
+      </c>
+      <c r="D30">
+        <v>0.14341975549309999</v>
+      </c>
+      <c r="E30">
+        <v>0.13475088840924601</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>100</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C31">
+        <v>5.8420241364423801E-2</v>
+      </c>
+      <c r="D31">
+        <v>0.143001360290514</v>
+      </c>
+      <c r="E31">
+        <v>0.13507584827612501</v>
+      </c>
+      <c r="F31">
+        <v>7</v>
+      </c>
+      <c r="G31">
+        <v>100</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C32">
+        <v>6.6751234706733206E-2</v>
+      </c>
+      <c r="D32">
+        <v>0.14262735058331399</v>
+      </c>
+      <c r="E32">
+        <v>0.135202350140886</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32">
+        <v>100</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C33">
+        <v>5.6347221915966798E-2</v>
+      </c>
+      <c r="D33">
+        <v>0.14271036879767901</v>
+      </c>
+      <c r="E33">
+        <v>0.135515210312247</v>
+      </c>
+      <c r="F33">
+        <v>9</v>
+      </c>
+      <c r="G33">
+        <v>100</v>
+      </c>
+      <c r="H33">
+        <v>0.5</v>
+      </c>
+      <c r="I33">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C34">
+        <v>5.03595833383065E-2</v>
+      </c>
+      <c r="D34">
+        <v>0.14272467067533001</v>
+      </c>
+      <c r="E34">
+        <v>0.13553221937810001</v>
+      </c>
+      <c r="F34">
+        <v>9</v>
+      </c>
+      <c r="G34">
+        <v>100</v>
+      </c>
+      <c r="H34">
+        <v>0.75</v>
+      </c>
+      <c r="I34">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C35">
+        <v>6.9619489624805297E-2</v>
+      </c>
+      <c r="D35">
+        <v>0.14244529893965299</v>
+      </c>
+      <c r="E35">
+        <v>0.13607691526094701</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35">
+        <v>100</v>
+      </c>
+      <c r="H35">
+        <v>0.75</v>
+      </c>
+      <c r="I35">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C36">
+        <v>5.58771902547621E-2</v>
+      </c>
+      <c r="D36">
+        <v>0.14383905298826699</v>
+      </c>
+      <c r="E36">
+        <v>0.13611959602038501</v>
+      </c>
+      <c r="F36">
+        <v>7</v>
+      </c>
+      <c r="G36">
+        <v>100</v>
+      </c>
+      <c r="H36">
+        <v>0.75</v>
+      </c>
+      <c r="I36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C37">
+        <v>6.8361070068934299E-2</v>
+      </c>
+      <c r="D37">
+        <v>0.143007453947913</v>
+      </c>
+      <c r="E37">
+        <v>0.13616650069554001</v>
+      </c>
+      <c r="F37">
+        <v>7</v>
+      </c>
+      <c r="G37">
+        <v>100</v>
+      </c>
+      <c r="H37">
+        <v>0.25</v>
+      </c>
+      <c r="I37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C38">
+        <v>6.0586475917993099E-2</v>
+      </c>
+      <c r="D38">
+        <v>0.14337612599521499</v>
+      </c>
+      <c r="E38">
+        <v>0.13625442146392699</v>
+      </c>
+      <c r="F38">
+        <v>8</v>
+      </c>
+      <c r="G38">
+        <v>100</v>
+      </c>
+      <c r="H38">
+        <v>0.5</v>
+      </c>
+      <c r="I38">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C39">
+        <v>7.3701078604477305E-2</v>
+      </c>
+      <c r="D39">
+        <v>0.14244419937355901</v>
+      </c>
+      <c r="E39">
+        <v>0.13639290723602601</v>
+      </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
+      <c r="G39">
+        <v>100</v>
+      </c>
+      <c r="H39">
+        <v>0.5</v>
+      </c>
+      <c r="I39">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C40">
+        <v>8.2075809229097199E-2</v>
+      </c>
+      <c r="D40">
+        <v>0.143512508018142</v>
+      </c>
+      <c r="E40">
+        <v>0.136740958268351</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <v>100</v>
+      </c>
+      <c r="H40">
+        <v>0.75</v>
+      </c>
+      <c r="I40">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C41">
+        <v>8.9141050747249206E-2</v>
+      </c>
+      <c r="D41">
+        <v>0.14288397691900201</v>
+      </c>
+      <c r="E41">
+        <v>0.136799626463811</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>100</v>
+      </c>
+      <c r="H41">
+        <v>0.75</v>
+      </c>
+      <c r="I41">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C42">
+        <v>5.3687929703464803E-2</v>
+      </c>
+      <c r="D42">
+        <v>0.14433593301856101</v>
+      </c>
+      <c r="E42">
+        <v>0.13681467934172201</v>
+      </c>
+      <c r="F42">
+        <v>7</v>
+      </c>
+      <c r="G42">
+        <v>100</v>
+      </c>
+      <c r="H42">
+        <v>0.75</v>
+      </c>
+      <c r="I42">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C43">
+        <v>8.4858510528274797E-2</v>
+      </c>
+      <c r="D43">
+        <v>0.14226453356164001</v>
+      </c>
+      <c r="E43">
+        <v>0.136845953075762</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <v>100</v>
+      </c>
+      <c r="H43">
+        <v>0.75</v>
+      </c>
+      <c r="I43">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C44">
+        <v>5.7740583788022E-2</v>
+      </c>
+      <c r="D44">
+        <v>0.143143557904821</v>
+      </c>
+      <c r="E44">
+        <v>0.13698618878527699</v>
+      </c>
+      <c r="F44">
+        <v>7</v>
+      </c>
+      <c r="G44">
+        <v>100</v>
+      </c>
+      <c r="H44">
+        <v>0.5</v>
+      </c>
+      <c r="I44">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C45">
+        <v>4.9932084975161099E-2</v>
+      </c>
+      <c r="D45">
+        <v>0.14768484192307499</v>
+      </c>
+      <c r="E45">
+        <v>0.137063359100979</v>
+      </c>
+      <c r="F45">
+        <v>7</v>
+      </c>
+      <c r="G45">
+        <v>100</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C46">
+        <v>6.4129937475176396E-2</v>
+      </c>
+      <c r="D46">
+        <v>0.142426092016919</v>
+      </c>
+      <c r="E46">
+        <v>0.13708199801426299</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+      <c r="G46">
+        <v>100</v>
+      </c>
+      <c r="H46">
+        <v>0.5</v>
+      </c>
+      <c r="I46">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C47">
+        <v>7.7667670540789602E-2</v>
+      </c>
+      <c r="D47">
+        <v>0.14256438044314201</v>
+      </c>
+      <c r="E47">
+        <v>0.13745490606313501</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47">
+        <v>100</v>
+      </c>
+      <c r="H47">
+        <v>0.25</v>
+      </c>
+      <c r="I47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C48">
+        <v>7.4194347644089706E-2</v>
+      </c>
+      <c r="D48">
+        <v>0.14237312487564499</v>
+      </c>
+      <c r="E48">
+        <v>0.137515568551625</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48">
+        <v>100</v>
+      </c>
+      <c r="H48">
+        <v>0.5</v>
+      </c>
+      <c r="I48">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C49">
+        <v>8.2792030794582097E-2</v>
+      </c>
+      <c r="D49">
+        <v>0.14382287802468499</v>
+      </c>
+      <c r="E49">
+        <v>0.13759596264541701</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="G49">
+        <v>100</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C50">
+        <v>6.6323940553380395E-2</v>
+      </c>
+      <c r="D50">
+        <v>0.142922650521908</v>
+      </c>
+      <c r="E50">
+        <v>0.13760052146860099</v>
+      </c>
+      <c r="F50">
+        <v>7</v>
+      </c>
+      <c r="G50">
+        <v>100</v>
+      </c>
+      <c r="H50">
+        <v>0.5</v>
+      </c>
+      <c r="I50">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C51">
+        <v>5.88807012981995E-2</v>
+      </c>
+      <c r="D51">
+        <v>0.14630638505274701</v>
+      </c>
+      <c r="E51">
+        <v>0.137612379446067</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+      <c r="G51">
+        <v>100</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C52">
+        <v>4.4687983810029301E-2</v>
+      </c>
+      <c r="D52">
+        <v>0.14777527531493601</v>
+      </c>
+      <c r="E52">
+        <v>0.13766937044303099</v>
+      </c>
+      <c r="F52">
+        <v>8</v>
+      </c>
+      <c r="G52">
+        <v>100</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C53">
+        <v>5.1846650517711798E-2</v>
+      </c>
+      <c r="D53">
+        <v>0.143552204318002</v>
+      </c>
+      <c r="E53">
+        <v>0.13769987270752501</v>
+      </c>
+      <c r="F53">
+        <v>8</v>
+      </c>
+      <c r="G53">
+        <v>100</v>
+      </c>
+      <c r="H53">
+        <v>0.5</v>
+      </c>
+      <c r="I53">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C54">
+        <v>5.1826618621187599E-2</v>
+      </c>
+      <c r="D54">
+        <v>0.14563691035496301</v>
+      </c>
+      <c r="E54">
+        <v>0.13775956740147699</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54">
+        <v>100</v>
+      </c>
+      <c r="H54">
+        <v>0.75</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C55">
+        <v>7.7963361361206296E-2</v>
+      </c>
+      <c r="D55">
+        <v>0.14218554771089001</v>
+      </c>
+      <c r="E55">
+        <v>0.13779132433208499</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="G55">
+        <v>100</v>
+      </c>
+      <c r="H55">
+        <v>0.75</v>
+      </c>
+      <c r="I55">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="56" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C56">
+        <v>7.6368696459021002E-2</v>
+      </c>
+      <c r="D56">
+        <v>0.14261702219457301</v>
+      </c>
+      <c r="E56">
+        <v>0.13793727783418999</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+      <c r="G56">
+        <v>100</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="57" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C57">
+        <v>7.2664598165924799E-2</v>
+      </c>
+      <c r="D57">
+        <v>0.14320887598780199</v>
+      </c>
+      <c r="E57">
+        <v>0.13806266405804701</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+      <c r="G57">
+        <v>100</v>
+      </c>
+      <c r="H57">
+        <v>0.5</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C58">
+        <v>4.3466585345451399E-2</v>
+      </c>
+      <c r="D58">
+        <v>0.148570522156551</v>
+      </c>
+      <c r="E58">
+        <v>0.13825163828270601</v>
+      </c>
+      <c r="F58">
+        <v>8</v>
+      </c>
+      <c r="G58">
+        <v>100</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C59">
+        <v>8.72130508347988E-2</v>
+      </c>
+      <c r="D59">
+        <v>0.14307489938509499</v>
+      </c>
+      <c r="E59">
+        <v>0.13825186956247301</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+      <c r="G59">
+        <v>100</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="60" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C60">
+        <v>5.1257862978432399E-2</v>
+      </c>
+      <c r="D60">
+        <v>0.146543561700516</v>
+      </c>
+      <c r="E60">
+        <v>0.13826217062926599</v>
+      </c>
+      <c r="F60">
+        <v>7</v>
+      </c>
+      <c r="G60">
+        <v>100</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="61" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C61">
+        <v>4.3044064421081399E-2</v>
+      </c>
+      <c r="D61">
+        <v>0.14642241285365801</v>
+      </c>
+      <c r="E61">
+        <v>0.138568317520465</v>
+      </c>
+      <c r="F61">
+        <v>9</v>
+      </c>
+      <c r="G61">
+        <v>100</v>
+      </c>
+      <c r="H61">
+        <v>0.75</v>
+      </c>
+      <c r="I61">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="62" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C62">
+        <v>4.5893668401717803E-2</v>
+      </c>
+      <c r="D62">
+        <v>0.14629904187873</v>
+      </c>
+      <c r="E62">
+        <v>0.13870717837072399</v>
+      </c>
+      <c r="F62">
+        <v>8</v>
+      </c>
+      <c r="G62">
+        <v>100</v>
+      </c>
+      <c r="H62">
+        <v>0.75</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C63">
+        <v>5.9441028632911203E-2</v>
+      </c>
+      <c r="D63">
+        <v>0.145177981217262</v>
+      </c>
+      <c r="E63">
+        <v>0.13879349299007199</v>
+      </c>
+      <c r="F63">
+        <v>6</v>
+      </c>
+      <c r="G63">
+        <v>100</v>
+      </c>
+      <c r="H63">
+        <v>0.75</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C64">
+        <v>6.2806992801472505E-2</v>
+      </c>
+      <c r="D64">
+        <v>0.143293972831186</v>
+      </c>
+      <c r="E64">
+        <v>0.13904527041735501</v>
+      </c>
+      <c r="F64">
+        <v>8</v>
+      </c>
+      <c r="G64">
+        <v>100</v>
+      </c>
+      <c r="H64">
+        <v>0.25</v>
+      </c>
+      <c r="I64">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C65">
+        <v>5.8332861027077902E-2</v>
+      </c>
+      <c r="D65">
+        <v>0.14706090265218599</v>
+      </c>
+      <c r="E65">
+        <v>0.13913331192168299</v>
+      </c>
+      <c r="F65">
+        <v>6</v>
+      </c>
+      <c r="G65">
+        <v>100</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C66">
+        <v>4.8122379590069098E-2</v>
+      </c>
+      <c r="D66">
+        <v>0.145605956320915</v>
+      </c>
+      <c r="E66">
+        <v>0.13914193005440501</v>
+      </c>
+      <c r="F66">
+        <v>8</v>
+      </c>
+      <c r="G66">
+        <v>100</v>
+      </c>
+      <c r="H66">
+        <v>0.75</v>
+      </c>
+      <c r="I66">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="67" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C67">
+        <v>8.7746302049587693E-2</v>
+      </c>
+      <c r="D67">
+        <v>0.14244381918643301</v>
+      </c>
+      <c r="E67">
+        <v>0.13936924412111901</v>
+      </c>
+      <c r="F67">
+        <v>4</v>
+      </c>
+      <c r="G67">
+        <v>100</v>
+      </c>
+      <c r="H67">
+        <v>0.5</v>
+      </c>
+      <c r="I67">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="68" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C68">
+        <v>7.9838865244134902E-2</v>
+      </c>
+      <c r="D68">
+        <v>0.145453553914279</v>
+      </c>
+      <c r="E68">
+        <v>0.139700189841379</v>
+      </c>
+      <c r="F68">
+        <v>4</v>
+      </c>
+      <c r="G68">
+        <v>100</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C69">
+        <v>8.3765912352831096E-2</v>
+      </c>
+      <c r="D69">
+        <v>0.14343571889378401</v>
+      </c>
+      <c r="E69">
+        <v>0.13980990083832601</v>
+      </c>
+      <c r="F69">
+        <v>4</v>
+      </c>
+      <c r="G69">
+        <v>100</v>
+      </c>
+      <c r="H69">
+        <v>0.5</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C70">
+        <v>5.63977178602144E-2</v>
+      </c>
+      <c r="D70">
+        <v>0.14403187566530701</v>
+      </c>
+      <c r="E70">
+        <v>0.13988558087141001</v>
+      </c>
+      <c r="F70">
+        <v>9</v>
+      </c>
+      <c r="G70">
+        <v>100</v>
+      </c>
+      <c r="H70">
+        <v>0.25</v>
+      </c>
+      <c r="I70">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="71" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C71">
+        <v>8.15777732379184E-2</v>
+      </c>
+      <c r="D71">
+        <v>0.14137956833779999</v>
+      </c>
+      <c r="E71">
+        <v>0.139959353927993</v>
+      </c>
+      <c r="F71">
+        <v>5</v>
+      </c>
+      <c r="G71">
+        <v>100</v>
+      </c>
+      <c r="H71">
+        <v>0.25</v>
+      </c>
+      <c r="I71">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="72" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C72">
+        <v>6.8134556903949303E-2</v>
+      </c>
+      <c r="D72">
+        <v>0.145129361604284</v>
+      </c>
+      <c r="E72">
+        <v>0.14009931362187</v>
+      </c>
+      <c r="F72">
+        <v>5</v>
+      </c>
+      <c r="G72">
+        <v>100</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="73" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C73">
+        <v>6.8318372226432195E-2</v>
+      </c>
+      <c r="D73">
+        <v>0.14617629400648099</v>
+      </c>
+      <c r="E73">
+        <v>0.140348177421144</v>
+      </c>
+      <c r="F73">
+        <v>5</v>
+      </c>
+      <c r="G73">
+        <v>100</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C74">
+        <v>4.19622579655579E-2</v>
+      </c>
+      <c r="D74">
+        <v>0.146981226823442</v>
+      </c>
+      <c r="E74">
+        <v>0.14055257682900499</v>
+      </c>
+      <c r="F74">
+        <v>9</v>
+      </c>
+      <c r="G74">
+        <v>100</v>
+      </c>
+      <c r="H74">
+        <v>0.75</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C75">
+        <v>7.3025382276951004E-2</v>
+      </c>
+      <c r="D75">
+        <v>0.14345739328597601</v>
+      </c>
+      <c r="E75">
+        <v>0.14063979324048101</v>
+      </c>
+      <c r="F75">
+        <v>6</v>
+      </c>
+      <c r="G75">
+        <v>100</v>
+      </c>
+      <c r="H75">
+        <v>0.25</v>
+      </c>
+      <c r="I75">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="76" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C76">
+        <v>8.1514746657374404E-2</v>
+      </c>
+      <c r="D76">
+        <v>0.14485658189241701</v>
+      </c>
+      <c r="E76">
+        <v>0.14088654910901899</v>
+      </c>
+      <c r="F76">
+        <v>4</v>
+      </c>
+      <c r="G76">
+        <v>100</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="77" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C77">
+        <v>5.6067621030120203E-2</v>
+      </c>
+      <c r="D77">
+        <v>0.14484493413108401</v>
+      </c>
+      <c r="E77">
+        <v>0.14091135036338201</v>
+      </c>
+      <c r="F77">
+        <v>9</v>
+      </c>
+      <c r="G77">
+        <v>100</v>
+      </c>
+      <c r="H77">
+        <v>0.25</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C78">
+        <v>7.1275740851745706E-2</v>
+      </c>
+      <c r="D78">
+        <v>0.14401408629507401</v>
+      </c>
+      <c r="E78">
+        <v>0.141256863170997</v>
+      </c>
+      <c r="F78">
+        <v>6</v>
+      </c>
+      <c r="G78">
+        <v>100</v>
+      </c>
+      <c r="H78">
+        <v>0.25</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C79">
+        <v>6.5760570102767299E-2</v>
+      </c>
+      <c r="D79">
+        <v>0.143060929367681</v>
+      </c>
+      <c r="E79">
+        <v>0.14134189336223299</v>
+      </c>
+      <c r="F79">
+        <v>7</v>
+      </c>
+      <c r="G79">
+        <v>100</v>
+      </c>
+      <c r="H79">
+        <v>0.25</v>
+      </c>
+      <c r="I79">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="80" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C80">
+        <v>7.02121447880482E-2</v>
+      </c>
+      <c r="D80">
+        <v>0.14442869274334399</v>
+      </c>
+      <c r="E80">
+        <v>0.141626091158188</v>
+      </c>
+      <c r="F80">
+        <v>5</v>
+      </c>
+      <c r="G80">
+        <v>100</v>
+      </c>
+      <c r="H80">
+        <v>0.75</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C81">
+        <v>6.0947310334538499E-2</v>
+      </c>
+      <c r="D81">
+        <v>0.14281360048535499</v>
+      </c>
+      <c r="E81">
+        <v>0.14166281717534601</v>
+      </c>
+      <c r="F81">
+        <v>8</v>
+      </c>
+      <c r="G81">
+        <v>100</v>
+      </c>
+      <c r="H81">
+        <v>0.25</v>
+      </c>
+      <c r="I81">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="82" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C82">
+        <v>8.4573264748196805E-2</v>
+      </c>
+      <c r="D82">
+        <v>0.14263880365019199</v>
+      </c>
+      <c r="E82">
+        <v>0.141729831096984</v>
+      </c>
+      <c r="F82">
+        <v>4</v>
+      </c>
+      <c r="G82">
+        <v>100</v>
+      </c>
+      <c r="H82">
+        <v>0.5</v>
+      </c>
+      <c r="I82">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="83" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C83">
+        <v>0.10069861646385</v>
+      </c>
+      <c r="D83">
+        <v>0.144989364874194</v>
+      </c>
+      <c r="E83">
+        <v>0.14173722688958901</v>
+      </c>
+      <c r="F83">
+        <v>3</v>
+      </c>
+      <c r="G83">
+        <v>100</v>
+      </c>
+      <c r="H83">
+        <v>0.5</v>
+      </c>
+      <c r="I83">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="84" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C84">
+        <v>9.1460005635987898E-2</v>
+      </c>
+      <c r="D84">
+        <v>0.14341194997210599</v>
+      </c>
+      <c r="E84">
+        <v>0.14190782749721501</v>
+      </c>
+      <c r="F84">
+        <v>4</v>
+      </c>
+      <c r="G84">
+        <v>100</v>
+      </c>
+      <c r="H84">
+        <v>0.25</v>
+      </c>
+      <c r="I84">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="85" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C85">
+        <v>5.9729683637165298E-2</v>
+      </c>
+      <c r="D85">
+        <v>0.14442054676348001</v>
+      </c>
+      <c r="E85">
+        <v>0.14197785695262999</v>
+      </c>
+      <c r="F85">
+        <v>8</v>
+      </c>
+      <c r="G85">
+        <v>100</v>
+      </c>
+      <c r="H85">
+        <v>0.25</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C86">
+        <v>9.8613228343182702E-2</v>
+      </c>
+      <c r="D86">
+        <v>0.14529804730010401</v>
+      </c>
+      <c r="E86">
+        <v>0.14213958897658699</v>
+      </c>
+      <c r="F86">
+        <v>3</v>
+      </c>
+      <c r="G86">
+        <v>100</v>
+      </c>
+      <c r="H86">
+        <v>0.5</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C87">
+        <v>6.0499176068714203E-2</v>
+      </c>
+      <c r="D87">
+        <v>0.14376621811805201</v>
+      </c>
+      <c r="E87">
+        <v>0.14215368068834699</v>
+      </c>
+      <c r="F87">
+        <v>9</v>
+      </c>
+      <c r="G87">
+        <v>100</v>
+      </c>
+      <c r="H87">
+        <v>0.25</v>
+      </c>
+      <c r="I87">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="88" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C88">
+        <v>9.7581168165267296E-2</v>
+      </c>
+      <c r="D88">
+        <v>0.144858304599079</v>
+      </c>
+      <c r="E88">
+        <v>0.142428337238378</v>
+      </c>
+      <c r="F88">
+        <v>3</v>
+      </c>
+      <c r="G88">
+        <v>100</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="89" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C89">
+        <v>8.3622588057764499E-2</v>
+      </c>
+      <c r="D89">
+        <v>0.14226580071376799</v>
+      </c>
+      <c r="E89">
+        <v>0.14247461098046901</v>
+      </c>
+      <c r="F89">
+        <v>5</v>
+      </c>
+      <c r="G89">
+        <v>100</v>
+      </c>
+      <c r="H89">
+        <v>0.5</v>
+      </c>
+      <c r="I89">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="90" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C90">
+        <v>9.7445780083389402E-2</v>
+      </c>
+      <c r="D90">
+        <v>0.14554651511547301</v>
+      </c>
+      <c r="E90">
+        <v>0.14263470026584199</v>
+      </c>
+      <c r="F90">
+        <v>3</v>
+      </c>
+      <c r="G90">
+        <v>100</v>
+      </c>
+      <c r="H90">
+        <v>0.75</v>
+      </c>
+      <c r="I90">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="91" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C91">
+        <v>7.4014102873869003E-2</v>
+      </c>
+      <c r="D91">
+        <v>0.144121923512156</v>
+      </c>
+      <c r="E91">
+        <v>0.14295753154624699</v>
+      </c>
+      <c r="F91">
+        <v>8</v>
+      </c>
+      <c r="G91">
+        <v>100</v>
+      </c>
+      <c r="H91">
+        <v>0.25</v>
+      </c>
+      <c r="I91">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="92" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C92">
+        <v>7.9257992243272596E-2</v>
+      </c>
+      <c r="D92">
+        <v>0.14389390981997599</v>
+      </c>
+      <c r="E92">
+        <v>0.14302060787882101</v>
+      </c>
+      <c r="F92">
+        <v>5</v>
+      </c>
+      <c r="G92">
+        <v>100</v>
+      </c>
+      <c r="H92">
+        <v>0.25</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C93">
+        <v>9.5667087530106304E-2</v>
+      </c>
+      <c r="D93">
+        <v>0.14626256192692499</v>
+      </c>
+      <c r="E93">
+        <v>0.14322713571554499</v>
+      </c>
+      <c r="F93">
+        <v>3</v>
+      </c>
+      <c r="G93">
+        <v>100</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C94">
+        <v>0.10127236199049799</v>
+      </c>
+      <c r="D94">
+        <v>0.14460658880636101</v>
+      </c>
+      <c r="E94">
+        <v>0.143277019220173</v>
+      </c>
+      <c r="F94">
+        <v>3</v>
+      </c>
+      <c r="G94">
+        <v>100</v>
+      </c>
+      <c r="H94">
+        <v>0.75</v>
+      </c>
+      <c r="I94">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C95">
+        <v>6.5058478591712404E-2</v>
+      </c>
+      <c r="D95">
+        <v>0.14417569276692699</v>
+      </c>
+      <c r="E95">
+        <v>0.14331773105857901</v>
+      </c>
+      <c r="F95">
+        <v>7</v>
+      </c>
+      <c r="G95">
+        <v>100</v>
+      </c>
+      <c r="H95">
+        <v>0.25</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C96">
+        <v>9.3825548416289803E-2</v>
+      </c>
+      <c r="D96">
+        <v>0.143934840182634</v>
+      </c>
+      <c r="E96">
+        <v>0.14389828693981299</v>
+      </c>
+      <c r="F96">
+        <v>4</v>
+      </c>
+      <c r="G96">
+        <v>100</v>
+      </c>
+      <c r="H96">
+        <v>0.25</v>
+      </c>
+      <c r="I96">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="97" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C97">
+        <v>0.102535474397063</v>
+      </c>
+      <c r="D97">
+        <v>0.14509379898368799</v>
+      </c>
+      <c r="E97">
+        <v>0.14399571187065499</v>
+      </c>
+      <c r="F97">
+        <v>3</v>
+      </c>
+      <c r="G97">
+        <v>100</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="98" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C98">
+        <v>8.3919996534920493E-2</v>
+      </c>
+      <c r="D98">
+        <v>0.14316198088130599</v>
+      </c>
+      <c r="E98">
+        <v>0.14399663007628999</v>
+      </c>
+      <c r="F98">
+        <v>5</v>
+      </c>
+      <c r="G98">
+        <v>100</v>
+      </c>
+      <c r="H98">
+        <v>0.25</v>
+      </c>
+      <c r="I98">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="99" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C99">
+        <v>8.1801266304404305E-2</v>
+      </c>
+      <c r="D99">
+        <v>0.14368127160490601</v>
+      </c>
+      <c r="E99">
+        <v>0.14400039245664201</v>
+      </c>
+      <c r="F99">
+        <v>4</v>
+      </c>
+      <c r="G99">
+        <v>100</v>
+      </c>
+      <c r="H99">
+        <v>0.75</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C100">
+        <v>9.7545730496383196E-2</v>
+      </c>
+      <c r="D100">
+        <v>0.144623334216438</v>
+      </c>
+      <c r="E100">
+        <v>0.144053975744447</v>
+      </c>
+      <c r="F100">
+        <v>3</v>
+      </c>
+      <c r="G100">
+        <v>100</v>
+      </c>
+      <c r="H100">
+        <v>0.75</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C101">
+        <v>9.3617866360280799E-2</v>
+      </c>
+      <c r="D101">
+        <v>0.14321145223491599</v>
+      </c>
+      <c r="E101">
+        <v>0.14434358057525801</v>
+      </c>
+      <c r="F101">
+        <v>4</v>
+      </c>
+      <c r="G101">
+        <v>100</v>
+      </c>
+      <c r="H101">
+        <v>0.5</v>
+      </c>
+      <c r="I101">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="102" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C102">
+        <v>9.0821747314429505E-2</v>
+      </c>
+      <c r="D102">
+        <v>0.14407664942003701</v>
+      </c>
+      <c r="E102">
+        <v>0.14510244533772401</v>
+      </c>
+      <c r="F102">
+        <v>4</v>
+      </c>
+      <c r="G102">
+        <v>100</v>
+      </c>
+      <c r="H102">
+        <v>0.25</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C103">
+        <v>0.102244734953631</v>
+      </c>
+      <c r="D103">
+        <v>0.14418238953245799</v>
+      </c>
+      <c r="E103">
+        <v>0.14523454048312801</v>
+      </c>
+      <c r="F103">
+        <v>3</v>
+      </c>
+      <c r="G103">
+        <v>100</v>
+      </c>
+      <c r="H103">
+        <v>0.5</v>
+      </c>
+      <c r="I103">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="104" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C104">
+        <v>7.7009672770309304E-2</v>
+      </c>
+      <c r="D104">
+        <v>0.14488874152161499</v>
+      </c>
+      <c r="E104">
+        <v>0.14535498880393499</v>
+      </c>
+      <c r="F104">
+        <v>7</v>
+      </c>
+      <c r="G104">
+        <v>100</v>
+      </c>
+      <c r="H104">
+        <v>0.25</v>
+      </c>
+      <c r="I104">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="105" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C105">
+        <v>9.3463797509620805E-2</v>
+      </c>
+      <c r="D105">
+        <v>0.14560307985315299</v>
+      </c>
+      <c r="E105">
+        <v>0.14541301841867599</v>
+      </c>
+      <c r="F105">
+        <v>5</v>
+      </c>
+      <c r="G105">
+        <v>100</v>
+      </c>
+      <c r="H105">
+        <v>0.25</v>
+      </c>
+      <c r="I105">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="106" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C106">
+        <v>6.9744113181652606E-2</v>
+      </c>
+      <c r="D106">
+        <v>0.14486636258719299</v>
+      </c>
+      <c r="E106">
+        <v>0.14582533097598499</v>
+      </c>
+      <c r="F106">
+        <v>9</v>
+      </c>
+      <c r="G106">
+        <v>100</v>
+      </c>
+      <c r="H106">
+        <v>0.25</v>
+      </c>
+      <c r="I106">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="107" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C107">
+        <v>0.10303396651225601</v>
+      </c>
+      <c r="D107">
+        <v>0.14521334146645801</v>
+      </c>
+      <c r="E107">
+        <v>0.14602015656395101</v>
+      </c>
+      <c r="F107">
+        <v>3</v>
+      </c>
+      <c r="G107">
+        <v>100</v>
+      </c>
+      <c r="H107">
+        <v>0.75</v>
+      </c>
+      <c r="I107">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="108" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C108">
+        <v>9.6891455759104197E-2</v>
+      </c>
+      <c r="D108">
+        <v>0.145744622303416</v>
+      </c>
+      <c r="E108">
+        <v>0.146253459573707</v>
+      </c>
+      <c r="F108">
+        <v>3</v>
+      </c>
+      <c r="G108">
+        <v>100</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="109" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C109">
+        <v>8.4342159326828203E-2</v>
+      </c>
+      <c r="D109">
+        <v>0.144608928777331</v>
+      </c>
+      <c r="E109">
+        <v>0.146845883088326</v>
+      </c>
+      <c r="F109">
+        <v>6</v>
+      </c>
+      <c r="G109">
+        <v>100</v>
+      </c>
+      <c r="H109">
+        <v>0.25</v>
+      </c>
+      <c r="I109">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="110" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C110">
+        <v>0.106409157773387</v>
+      </c>
+      <c r="D110">
+        <v>0.14625226837623401</v>
+      </c>
+      <c r="E110">
+        <v>0.14688061224138299</v>
+      </c>
+      <c r="F110">
+        <v>3</v>
+      </c>
+      <c r="G110">
+        <v>100</v>
+      </c>
+      <c r="H110">
+        <v>0.5</v>
+      </c>
+      <c r="I110">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="111" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C111">
+        <v>0.10672788557386099</v>
+      </c>
+      <c r="D111">
+        <v>0.145701393121353</v>
+      </c>
+      <c r="E111">
+        <v>0.14755954260977</v>
+      </c>
+      <c r="F111">
+        <v>3</v>
+      </c>
+      <c r="G111">
+        <v>100</v>
+      </c>
+      <c r="H111">
+        <v>0.25</v>
+      </c>
+      <c r="I111">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="112" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C112">
+        <v>0.104919609523874</v>
+      </c>
+      <c r="D112">
+        <v>0.14665893062836799</v>
+      </c>
+      <c r="E112">
+        <v>0.14765263961917999</v>
+      </c>
+      <c r="F112">
+        <v>3</v>
+      </c>
+      <c r="G112">
+        <v>100</v>
+      </c>
+      <c r="H112">
+        <v>0.25</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C113">
+        <v>0.107888802210363</v>
+      </c>
+      <c r="D113">
+        <v>0.14656832233735501</v>
+      </c>
+      <c r="E113">
+        <v>0.15048967996853399</v>
+      </c>
+      <c r="F113">
+        <v>3</v>
+      </c>
+      <c r="G113">
+        <v>100</v>
+      </c>
+      <c r="H113">
+        <v>0.25</v>
+      </c>
+      <c r="I113">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="114" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C114">
+        <v>0.10235675824731499</v>
+      </c>
+      <c r="D114">
+        <v>0.14656887131308499</v>
+      </c>
+      <c r="E114">
+        <v>0.151297413732012</v>
+      </c>
+      <c r="F114">
+        <v>4</v>
+      </c>
+      <c r="G114">
+        <v>100</v>
+      </c>
+      <c r="H114">
+        <v>0.25</v>
+      </c>
+      <c r="I114">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="115" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C115">
+        <v>0.11646354126544101</v>
+      </c>
+      <c r="D115">
+        <v>0.14985155299558001</v>
+      </c>
+      <c r="E115">
+        <v>0.15700533998136601</v>
+      </c>
+      <c r="F115">
+        <v>3</v>
+      </c>
+      <c r="G115">
+        <v>100</v>
+      </c>
+      <c r="H115">
+        <v>0.25</v>
+      </c>
+      <c r="I115">
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="C6:I115">
+    <sortCondition ref="E5"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
